--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="413">
   <si>
     <r>
       <rPr>
@@ -489,13 +489,13 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn nhân viên có chức vụ Admin với quyền quản lý</t>
+    <t>Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
 2. Chọn chức năng nhân viên ở màn hình chính
 3. Chọn 1 nhân viên trong danh sách
-4. Nhấn ẩn</t>
+4. Nhấn nghỉ việc</t>
   </si>
   <si>
     <t>mã nhân viên: NV001
@@ -505,7 +505,7 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn nhân viên có chức vụ Quản lý với quyền quản lý</t>
+    <t>Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý</t>
   </si>
   <si>
     <t>mã nhân viên: NV002
@@ -515,14 +515,14 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn nhân viên có chức vụ thấp hơn quyền quản lý</t>
+    <t>Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
   </si>
   <si>
     <t>mã nhân viên: NV004
 chức vụ: Nhân Viên Bán Hàng</t>
   </si>
   <si>
-    <t>ẩn nhân viên thành công</t>
+    <t>cho nghỉ nhân viên thành công</t>
   </si>
   <si>
     <t>6.1</t>
@@ -816,25 +816,6 @@
     <t>16.1</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn loại hàng</t>
-  </si>
-  <si>
-    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
-2. Chọn chức năng sản phẩm ở màn hình chính
-3. Chọn tab thông tin loại hàng
-4. Chọn 1 loại hàng trong danh sách
-5. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t>mã loại hàng: LH011</t>
-  </si>
-  <si>
-    <t>ẩn loại hàng thành công</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
     <t>Kiểm tra hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
@@ -846,7 +827,7 @@
     <t>hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
-    <t>18.1</t>
+    <t>17.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống tên nhà cung cấp</t>
@@ -870,7 +851,7 @@
     <t>hiện thông báo chưa nhập tên nhà cung cấp</t>
   </si>
   <si>
-    <t>18.2</t>
+    <t>17.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống địa chỉ</t>
@@ -881,7 +862,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>18.3</t>
+    <t>17.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống số điện thoại</t>
@@ -892,7 +873,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>18.4</t>
+    <t>17.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số</t>
@@ -903,7 +884,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>18.5</t>
+    <t>17.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng</t>
@@ -914,7 +895,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>18.6</t>
+    <t>17.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
@@ -928,26 +909,7 @@
     <t>thêm nhà cung cấp thành công</t>
   </si>
   <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra ẩn nhà cung cấp</t>
-  </si>
-  <si>
-    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
-2. Chọn chức năng sản phẩm ở màn hình chính
-3. Chọn tab thông tin nhà cung cấp
-4. Chọn 1 nhà cung cấp trong danh sách
-5. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t>mã nhà cung cấp: CC011</t>
-  </si>
-  <si>
-    <t>ẩn nhà cung cấp thành công</t>
-  </si>
-  <si>
-    <t>20.1</t>
+    <t>18.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
@@ -960,7 +922,7 @@
     <t>hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
-    <t>21.1</t>
+    <t>19.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo mã sản phẩm</t>
@@ -978,7 +940,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo mã sản phẩm</t>
   </si>
   <si>
-    <t>21.2</t>
+    <t>19.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
@@ -990,7 +952,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo số lượng</t>
   </si>
   <si>
-    <t>22.1</t>
+    <t>20.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách khách hàng</t>
@@ -1003,7 +965,7 @@
     <t>hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>23.1</t>
+    <t>21.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống họ tên</t>
@@ -1021,7 +983,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>23.2</t>
+    <t>21.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi họ tên không đúng định dạng</t>
@@ -1031,7 +993,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>23.3</t>
+    <t>21.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống số điện thoại</t>
@@ -1041,7 +1003,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>23.4</t>
+    <t>21.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không phải số</t>
@@ -1051,7 +1013,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>23.5</t>
+    <t>21.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không đúng định dạng</t>
@@ -1061,7 +1023,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>23.6</t>
+    <t>21.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
@@ -1074,25 +1036,7 @@
     <t>thêm khách hàng thành công</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra ẩn khách hàng</t>
-  </si>
-  <si>
-    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
-2. Chọn chức năng khách hàng ở màn hình chính
-3. Chọn 1 khách hàng trong danh sách
-4. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t>mã khách hàng: KH011</t>
-  </si>
-  <si>
-    <t>ẩn khách hàng thành công</t>
-  </si>
-  <si>
-    <t>25.1</t>
+    <t>22.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo mã khách hàng</t>
@@ -1110,7 +1054,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo mã</t>
   </si>
   <si>
-    <t>25.2</t>
+    <t>22.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo tên khách hàng</t>
@@ -1122,7 +1066,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo tên khách hàng</t>
   </si>
   <si>
-    <t>26.1</t>
+    <t>23.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách phiếu nhập</t>
@@ -1135,7 +1079,7 @@
     <t>hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
-    <t>27.1</t>
+    <t>24.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1154,25 +1098,7 @@
     <t>thêm phiếu nhập thành công</t>
   </si>
   <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra ẩn phiếu nhập</t>
-  </si>
-  <si>
-    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
-2. Chọn chức năng nhập hàng ở màn hình chính
-3. Chọn 1 phiếu nhập trong danh sách
-4. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t>mã phiếu nhập: PN011</t>
-  </si>
-  <si>
-    <t>ẩn phiếu nhập thành công</t>
-  </si>
-  <si>
-    <t>29.1</t>
+    <t>25.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị chi tiết phiếu nhập</t>
@@ -1189,7 +1115,7 @@
     <t>hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
-    <t>30.1</t>
+    <t>26.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập của nhân viên khác</t>
@@ -1204,7 +1130,7 @@
     <t>hiện thông báo không thể thêm chi tiết cho phiếu nhập của nhân viên khác</t>
   </si>
   <si>
-    <t>30.2</t>
+    <t>26.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống tên sản phẩm</t>
@@ -1234,7 +1160,7 @@
     <t>hiện thông báo chưa nhập tên sản phẩm</t>
   </si>
   <si>
-    <t>30.3</t>
+    <t>26.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi tên sản phẩm đã tồn tại</t>
@@ -1251,7 +1177,7 @@
     <t>hiện thông báo tên sản phẩm đã tồn tại</t>
   </si>
   <si>
-    <t>30.4</t>
+    <t>26.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống số lượng</t>
@@ -1268,7 +1194,7 @@
     <t>hiện thông báo chưa nhập số lượng</t>
   </si>
   <si>
-    <t>30.5</t>
+    <t>26.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi số lượng không phải số</t>
@@ -1285,7 +1211,7 @@
     <t>hiện thông báo số lượng phải là số</t>
   </si>
   <si>
-    <t>30.6</t>
+    <t>26.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống giá nhập</t>
@@ -1302,7 +1228,7 @@
     <t>hiện thông báo chưa nhập giá nhập</t>
   </si>
   <si>
-    <t>30.7</t>
+    <t>26.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập không phải số</t>
@@ -1319,7 +1245,7 @@
     <t>hiện thông báo giá nhập phải là số</t>
   </si>
   <si>
-    <t>30.8</t>
+    <t>26.8</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập dưới 1000</t>
@@ -1336,7 +1262,7 @@
     <t>hiện thông báo giá nhập phải lớn hơn 1000</t>
   </si>
   <si>
-    <t>30.9</t>
+    <t>26.9</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống ngày sản xuất</t>
@@ -1353,7 +1279,7 @@
     <t>hiện thông báo chưa chọn ngày sản xuất</t>
   </si>
   <si>
-    <t>30.10</t>
+    <t>26.10</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống hạn sử dụng</t>
@@ -1370,7 +1296,7 @@
     <t>hiện thông báo chưa chọn hạn sử dụng</t>
   </si>
   <si>
-    <t>30.11</t>
+    <t>26.11</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi ngày sản xuất lớn hơn hạn sử dụng</t>
@@ -1387,7 +1313,7 @@
     <t>hiện thông báo ngày sản xuất không lớn hơn ngày sử dụng</t>
   </si>
   <si>
-    <t>30.12</t>
+    <t>26.12</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1404,24 +1330,7 @@
     <t>thêm chi tiết phiếu nhập thành công</t>
   </si>
   <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra ẩn chi tiết phiếu nhập</t>
-  </si>
-  <si>
-    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
-2. Chọn chức năng nhập hàng ở màn hình chính
-3. Chọn 1 phiếu nhập trong danh sách
-4. Chọn 1 chi tiết phiếu nhập
-5. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t>mã phiếu nhập: PN011
-mã sản phẩm: SP001</t>
-  </si>
-  <si>
-    <t>38.1</t>
+    <t>33.1</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách phiếu nhập và hóa đơn</t>
@@ -1434,7 +1343,7 @@
     <t>hiển thị danh sách phiếu nhập và danh sách hóa đơn</t>
   </si>
   <si>
-    <t>39.1</t>
+    <t>34.1</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi chọn ngày thống kê không hợp lệ</t>
@@ -1454,7 +1363,7 @@
     <t>hiện thông báo ngày thống kê không hợp lệ</t>
   </si>
   <si>
-    <t>39.2</t>
+    <t>34.2</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi dữ liệu hợp lệ</t>
@@ -1467,7 +1376,7 @@
     <t>hiển thị biểu đồ sau khi thống kê</t>
   </si>
   <si>
-    <t>40.1</t>
+    <t>35.1</t>
   </si>
   <si>
     <t>1. Kiểm tra in thống kê</t>
@@ -1556,12 +1465,12 @@
 15. Kiểm tra thêm nhân viên khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng ẩn nhân viên</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn nhân viên có chức vụ Admin với quyền quản lý
-2. Kiểm tra ẩn nhân viên có chức vụ Quản lý với quyền quản lý 
-3. Kiểm tra ẩn nhân viên có chức vụ thấp hơn quyền quản lý</t>
+    <t>Kiểm tra chức năng cho nghỉ nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý
+2. Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý 
+3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp nhân viên</t>
@@ -1591,8 +1500,8 @@
     <t>Kiểm tra chức năng ẩn tài khoản</t>
   </si>
   <si>
-    <t>1. Kiểm tra ẩn tài khoản khi nhân viên chưa được ẩn
-2. Kiểm tra ẩn tài khoản với nhân viên đã được ẩn</t>
+    <t>1. Kiểm tra ẩn tài khoản khi nhân viên chưa nghỉ
+2. Kiểm tra ẩn tài khoản với nhân viên đã nghỉ</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp tài khoản</t>
@@ -1632,12 +1541,6 @@
   <si>
     <t>1. Kiểm tra thêm loại hàng khi để trống tên loại hàng
 2. Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng ẩn loại hàng</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn loại hàng</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách nhà cung cấp</t>
@@ -1657,12 +1560,6 @@
 6. Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng ẩn nhà cung cấp</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn nhà cung cấp</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
@@ -1693,12 +1590,6 @@
 5. Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng ẩn khách hàng</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn khách hàng</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng sắp xếp khách hàng</t>
   </si>
   <si>
@@ -1716,12 +1607,6 @@
   </si>
   <si>
     <t>1. Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng ẩn phiếu nhập</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn phiếu nhập</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị chi tiết phiếu nhập</t>
@@ -1745,12 +1630,6 @@
 10. Kiểm tra thêm chi tiết phiếu nhập khi để trống hạn sử dụng
 11. Kiểm tra thêm chi tiết phiếu nhập khi ngày sản xuất lớn hơn hạn sử dụng
 12. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra chức năng ẩn chi tiết phiếu </t>
-  </si>
-  <si>
-    <t>1. Kiểm tra ẩn chi tiết phiếu nhập</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm hóa đơn</t>
@@ -3011,10 +2890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H91"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4071,7 +3950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="158.4" spans="2:8">
+    <row r="48" ht="100.8" spans="2:8">
       <c r="B48" s="3" t="s">
         <v>191</v>
       </c>
@@ -4081,27 +3960,27 @@
       <c r="D48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="187.2" spans="2:8">
+      <c r="B49" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="100.8" spans="2:8">
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -4122,16 +4001,16 @@
         <v>201</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -4139,22 +4018,22 @@
     </row>
     <row r="51" ht="187.2" spans="2:8">
       <c r="B51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -4162,22 +4041,22 @@
     </row>
     <row r="52" ht="187.2" spans="2:8">
       <c r="B52" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -4185,22 +4064,22 @@
     </row>
     <row r="53" ht="187.2" spans="2:8">
       <c r="B53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -4208,154 +4087,154 @@
     </row>
     <row r="54" ht="187.2" spans="2:8">
       <c r="B54" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="72" spans="2:8">
+      <c r="B55" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="187.2" spans="2:8">
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="100.8" spans="2:8">
+      <c r="B56" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="144" spans="2:8">
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="100.8" spans="2:8">
+      <c r="B57" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="72" spans="2:8">
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="86.4" spans="2:8">
+      <c r="B58" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="100.8" spans="2:8">
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="144" spans="2:8">
+      <c r="B59" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="100.8" spans="2:8">
-      <c r="B59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="144" spans="2:8">
+      <c r="B60" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="86.4" spans="2:8">
-      <c r="B60" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -4363,22 +4242,22 @@
     </row>
     <row r="61" ht="144" spans="2:8">
       <c r="B61" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
@@ -4386,22 +4265,22 @@
     </row>
     <row r="62" ht="144" spans="2:8">
       <c r="B62" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -4409,22 +4288,22 @@
     </row>
     <row r="63" ht="144" spans="2:8">
       <c r="B63" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -4432,91 +4311,88 @@
     </row>
     <row r="64" ht="144" spans="2:8">
       <c r="B64" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="115.2" spans="2:8">
+      <c r="B65" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="144" spans="2:8">
-      <c r="B65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="115.2" spans="2:8">
+      <c r="B66" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="144" spans="2:8">
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="72" spans="2:8">
+      <c r="B67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="129.6" spans="2:8">
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="G67" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>12</v>
@@ -4524,157 +4400,160 @@
     </row>
     <row r="68" ht="115.2" spans="2:8">
       <c r="B68" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="100.8" spans="2:8">
+      <c r="B69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="115.2" spans="2:8">
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="115.2" spans="2:8">
+      <c r="B70" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="72" spans="2:8">
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="216" spans="2:8">
+      <c r="B71" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" ht="115.2" spans="2:8">
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="216" spans="2:8">
+      <c r="B72" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="115.2" spans="2:8">
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="G72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="216" spans="2:8">
+      <c r="B73" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="100.8" spans="2:8">
-      <c r="B73" s="3" t="s">
+      <c r="D73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="G73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="216" spans="2:8">
+      <c r="B74" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" ht="115.2" spans="2:8">
-      <c r="B74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>12</v>
@@ -4682,22 +4561,22 @@
     </row>
     <row r="75" ht="216" spans="2:8">
       <c r="B75" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="G75" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>12</v>
@@ -4705,22 +4584,22 @@
     </row>
     <row r="76" ht="216" spans="2:8">
       <c r="B76" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
@@ -4728,22 +4607,22 @@
     </row>
     <row r="77" ht="216" spans="2:8">
       <c r="B77" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>12</v>
@@ -4751,22 +4630,22 @@
     </row>
     <row r="78" ht="216" spans="2:8">
       <c r="B78" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>12</v>
@@ -4774,22 +4653,22 @@
     </row>
     <row r="79" ht="216" spans="2:8">
       <c r="B79" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>12</v>
@@ -4797,22 +4676,22 @@
     </row>
     <row r="80" ht="216" spans="2:8">
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>12</v>
@@ -4820,228 +4699,113 @@
     </row>
     <row r="81" ht="216" spans="2:8">
       <c r="B81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="72" spans="2:8">
+      <c r="B83" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="216" spans="2:8">
-      <c r="B82" s="3" t="s">
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="144" spans="2:8">
+      <c r="B84" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="216" spans="2:8">
-      <c r="B83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="G84" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="144" spans="2:8">
+      <c r="B85" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="216" spans="2:8">
-      <c r="B84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="G85" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="187.2" spans="2:8">
+      <c r="B86" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="C86" t="s">
         <v>339</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="216" spans="2:8">
-      <c r="B85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="144" spans="2:8">
-      <c r="B86" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="G86" s="3" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="72" spans="2:8">
-      <c r="B88" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" ht="144" spans="2:8">
-      <c r="B89" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="144" spans="2:8">
-      <c r="B90" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="187.2" spans="2:8">
-      <c r="B91" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C91" t="s">
-        <v>363</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H91" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5054,10 +4818,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D42"/>
+  <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5073,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
@@ -5084,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -5095,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -5106,10 +4870,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
@@ -5117,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="2:4">
@@ -5128,10 +4892,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="2:4">
@@ -5139,10 +4903,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -5150,10 +4914,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" ht="86.4" spans="2:4">
@@ -5161,10 +4925,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
@@ -5172,10 +4936,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="2:4">
@@ -5183,10 +4947,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -5194,10 +4958,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
@@ -5205,10 +4969,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -5216,10 +4980,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -5227,10 +4991,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="2:4">
@@ -5238,10 +5002,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5249,43 +5013,43 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" ht="86.4" spans="2:4">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" ht="86.4" spans="2:4">
+        <v>377</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>379</v>
+      </c>
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="2:4">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D21" t="s">
-        <v>406</v>
+        <v>381</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -5293,43 +5057,43 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="2:4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" ht="86.4" spans="2:4">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="2:4">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" ht="86.4" spans="2:4">
+        <v>387</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>413</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>414</v>
+        <v>389</v>
+      </c>
+      <c r="D25" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -5337,54 +5101,54 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="27" ht="28.8" spans="2:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>393</v>
+      </c>
+      <c r="D27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" ht="172.8" spans="2:4">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
-      </c>
-      <c r="D28" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>395</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" ht="43.2" spans="2:4">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>421</v>
-      </c>
-      <c r="D29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+        <v>397</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="2:4">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30" t="s">
-        <v>424</v>
+        <v>399</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -5392,21 +5156,21 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" ht="172.8" spans="2:4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" ht="28.8" spans="2:4">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -5414,109 +5178,54 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34" ht="43.2" spans="2:4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="2:4">
+        <v>407</v>
+      </c>
+      <c r="D34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>326</v>
+      </c>
+      <c r="D35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="2:4">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>435</v>
-      </c>
-      <c r="D36" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="37" ht="28.8" spans="2:4">
+        <v>410</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>439</v>
-      </c>
-      <c r="D38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" spans="2:4">
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>444</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>446</v>
-      </c>
-      <c r="D42" t="s">
-        <v>363</v>
+        <v>412</v>
+      </c>
+      <c r="D37" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="473">
   <si>
     <r>
       <rPr>
@@ -647,7 +647,7 @@
     <t>9.1</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn tài khoản khi nhân viên chưa được ẩn</t>
+    <t>Kiểm tra ẩn tài khoản khi nhân viên còn làm việc</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Admin
@@ -666,7 +666,7 @@
     <t>9.2</t>
   </si>
   <si>
-    <t>Kiểm tra ẩn tài khoản với nhân viên đã được ẩn</t>
+    <t>Kiểm tra ẩn tài khoản với nhân viên đã nghỉ việc</t>
   </si>
   <si>
     <t>mã nhân viên: NV012</t>
@@ -1316,6 +1316,23 @@
     <t>26.12</t>
   </si>
   <si>
+    <t>Kiểm tra thêm chi tiết phiếu nhập khi hạn sử dụng bé hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>tên sản phẩm: coca
+loại hàng: đồ uống
+số lượng: 50
+giá nhập: 8000
+ngày sản xuất: 01/02/2023
+hạn sử dụng: 02/03/2023</t>
+  </si>
+  <si>
+    <t>hiện thông báo hạn sử dụng phải lớn hơn hiện tại</t>
+  </si>
+  <si>
+    <t>26.13</t>
+  </si>
+  <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
@@ -1330,7 +1347,260 @@
     <t>thêm chi tiết phiếu nhập thành công</t>
   </si>
   <si>
-    <t>33.1</t>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra thêm hóa đơn khi chưa nhập tên khách hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Nhấn hóa đơn
+4. Nhập tên khách hàng hàng
+5. Nhấn Enter trên bàn phím
+6. Chọn ngày
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>tên khách hàng:
+ngày: 01/11/2023</t>
+  </si>
+  <si>
+    <t>hiện thông báo chưa nhập tên khách hàng</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm hóa đơn khi khách hàng chưa tồn tại</t>
+  </si>
+  <si>
+    <t>tên khách hàng: nhân
+ngày: 01/11/2023</t>
+  </si>
+  <si>
+    <t>hiện thông báo khách hàng chưa tồn tại và hiện nút thêm khách hàng</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm hóa đơn khi chưa chọn ngày</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày:</t>
+  </si>
+  <si>
+    <t>hiện thông báo chưa chọn ngày</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023</t>
+  </si>
+  <si>
+    <t>thêm hóa đơn thành công</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra thêm chi tiết hóa đơn khi chưa nhập số lượng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Nhấn hóa đơn
+4. Nhập tên khách hàng hàng
+5. Nhấn Enter trên bàn phím
+6. Chọn ngày
+7. Chọn hàng hóa
+8. Nhập số lượng
+9. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng:</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng không phải số</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: abc</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng trong kho không đủ</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 1000</t>
+  </si>
+  <si>
+    <t>hiện thông báo số lượng không đủ</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2</t>
+  </si>
+  <si>
+    <t>thêm chi tiết hóa đơn thành công và hiển thị chi tiết hóa đơn</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra áp dụng giảm giá</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Thêm hóa đơn
+4. Thêm chi tiết hóa đơn
+5. Chọn áp dụng giảm giá hay không
+6. Nhấn xác nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2
+áp dụng giảm giá: có
+</t>
+  </si>
+  <si>
+    <t>hiển thị số tiền sau giảm giá</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh toán khi chưa nhập tiền khách</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Thêm hóa đơn
+4. Thêm chi tiết hóa đơn
+5. Chọn áp dụng giảm giá hay không
+6. Nhấn xác nhận
+7. Nhập tiền khách
+8. Nhấn thanh toán</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2
+áp dụng giảm giá: có
+tiền của khách:</t>
+  </si>
+  <si>
+    <t>hiện thông báo chưa nhập tiền của khách</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh toán khi tiền khách không phải số</t>
+  </si>
+  <si>
+    <t>tiền của khách: abc</t>
+  </si>
+  <si>
+    <t>hiện thông báo tiền của khách phải là số</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh toán khi tiền khách thấp hơn tổng tiền của hóa đơn</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2
+áp dụng giảm giá: có
+tiền của khách: 1</t>
+  </si>
+  <si>
+    <t>hiện thông báo số tiền không hợp lệ</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh toán khi tiền khách hợp lệ</t>
+  </si>
+  <si>
+    <t>tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2
+áp dụng giảm giá: có
+tiền của khách: 1000000</t>
+  </si>
+  <si>
+    <t>hiện thông báo thanh toán thành công là hiện tiền thối cho khách</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra xuất hóa đơn</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Thêm hóa đơn
+4. Thêm chi tiết hóa đơn
+5. Chọn áp dụng giảm giá hay không
+6. Nhấn xác nhận
+7. Nhập tiền khách
+8. Nhấn thanh toán
+9. Nhấn xuất hóa đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tên khách hàng: Hoàng Hảo
+ngày: 01/11/2023
+hàng hóa: Coca
+số lượng: 2
+áp dụng giảm giá: có
+tiền khách: 50000
+</t>
+  </si>
+  <si>
+    <t>xuất ra file excel</t>
+  </si>
+  <si>
+    <t>32.1</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách phiếu nhập và hóa đơn</t>
@@ -1343,7 +1613,7 @@
     <t>hiển thị danh sách phiếu nhập và danh sách hóa đơn</t>
   </si>
   <si>
-    <t>34.1</t>
+    <t>33.1</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi chọn ngày thống kê không hợp lệ</t>
@@ -1363,7 +1633,7 @@
     <t>hiện thông báo ngày thống kê không hợp lệ</t>
   </si>
   <si>
-    <t>34.2</t>
+    <t>33.2</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi dữ liệu hợp lệ</t>
@@ -1394,9 +1664,6 @@
     <t>thống kê từ ngày: 01/01/2023
 thống kê đến ngày: 01/11/2023
 thư mục: Documents</t>
-  </si>
-  <si>
-    <t>xuất ra file excel</t>
   </si>
   <si>
     <r>
@@ -1629,22 +1896,26 @@
 9. Kiểm tra thêm chi tiết phiếu nhập khi để trống ngày sản xuất
 10. Kiểm tra thêm chi tiết phiếu nhập khi để trống hạn sử dụng
 11. Kiểm tra thêm chi tiết phiếu nhập khi ngày sản xuất lớn hơn hạn sử dụng
-12. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
+12. Kiểm tra thêm chi tiết phiếu nhập khi hạn sử dụng bé hơn ngày hiện tại
+13. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm hóa đơn</t>
   </si>
   <si>
-    <t>1. Kiểm tra thêm hóa đơn khi khách hàng chưa tồn tại
-2. Kiểm tra thêm hóa đơn khi chưa chọn ngày
-3. Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
+    <t>1. Kiểm tra thêm hóa đơn khi chưa nhập tên khách hàng
+2. Kiểm tra thêm hóa đơn khi nhập tên khách hàng chưa tồn tại
+3. Kiểm tra thêm hóa đơn khi chưa chọn ngày
+4. Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>1. Kiểm tra thêm chi tiết hóa đơn khi số lượng không phải số
-2. Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
+    <t>1. Kiểm tra thêm chi tiết hóa đơn khi chưa nhập số lượng
+2. Kiểm tra thêm chi tiết hóa đơn khi số lượng không phải số
+3. Kiểm tra thêm chi tiết hóa đơn khi số lượng trong kho không đủ
+4. Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
   </si>
   <si>
     <t>Kiểm tra chức năng áp dụng giảm giá</t>
@@ -1656,14 +1927,10 @@
     <t>Kiểm tra chức năng thanh toán</t>
   </si>
   <si>
-    <t>1. Kiểm tra thanh toán khi tiền khách không phải số
-2. Kiểm tra thanh toán khi tiền khách thấp hơn tổng tiền của hóa đơn</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng hiển thị chi tiết hóa đơn</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra hiển thị chi tiết hóa đơn</t>
+    <t>1. Kiểm tra thanh toán khi chưa nhập tiền khách
+2. Kiểm tra thanh toán khi tiền khách không phải số
+3. Kiểm tra thanh toán khi tiền khách thấp hơn tổng tiền của hóa đơn
+4. Kiểm tra thanh toán khi tiền khách hợp lệ</t>
   </si>
   <si>
     <t>Kiểm tra chức năng xuất hóa đơn</t>
@@ -2890,10 +3157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H86"/>
+  <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4720,92 +4987,437 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" ht="72" spans="2:8">
+    <row r="82" ht="216" spans="2:8">
+      <c r="B82" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="172.8" spans="2:8">
       <c r="B83" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" ht="144" spans="2:8">
+    <row r="84" ht="172.8" spans="2:8">
       <c r="B84" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>331</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" ht="144" spans="2:8">
+    <row r="85" ht="172.8" spans="2:8">
       <c r="B85" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>331</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="187.2" spans="2:8">
+    <row r="86" ht="172.8" spans="2:8">
       <c r="B86" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C86" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="201.6" spans="2:8">
+      <c r="B87" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="201.6" spans="2:8">
+      <c r="B88" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="201.6" spans="2:8">
+      <c r="B89" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="201.6" spans="2:8">
+      <c r="B90" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="144" spans="2:8">
+      <c r="B91" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="172.8" spans="2:8">
+      <c r="B92" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="172.8" spans="2:8">
+      <c r="B93" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="172.8" spans="2:8">
+      <c r="B94" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="172.8" spans="2:8">
+      <c r="B95" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="187.2" spans="2:8">
+      <c r="B96" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="72" spans="2:8">
+      <c r="B97" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="144" spans="2:8">
+      <c r="B98" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="144" spans="2:8">
+      <c r="B99" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="187.2" spans="2:8">
+      <c r="B100" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4818,10 +5430,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D37"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4837,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
@@ -4848,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -4859,10 +5471,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4870,10 +5482,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
@@ -4881,10 +5493,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="2:4">
@@ -4892,10 +5504,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="2:4">
@@ -4903,10 +5515,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -4914,10 +5526,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" ht="86.4" spans="2:4">
@@ -4925,10 +5537,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
@@ -4936,10 +5548,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="2:4">
@@ -4947,10 +5559,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -4958,10 +5570,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
@@ -4969,10 +5581,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -4980,10 +5592,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -4991,10 +5603,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="2:4">
@@ -5002,10 +5614,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5013,10 +5625,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" ht="86.4" spans="2:4">
@@ -5024,10 +5636,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5035,10 +5647,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="2:4">
@@ -5046,10 +5658,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -5057,10 +5669,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" ht="86.4" spans="2:4">
@@ -5068,10 +5680,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="2:4">
@@ -5079,10 +5691,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -5090,10 +5702,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="D25" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -5101,10 +5713,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -5112,43 +5724,43 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" ht="172.8" spans="2:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" ht="187.2" spans="2:4">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" ht="43.2" spans="2:4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" ht="57.6" spans="2:4">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" ht="28.8" spans="2:4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" ht="57.6" spans="2:4">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -5156,21 +5768,21 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" ht="28.8" spans="2:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" ht="57.6" spans="2:4">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -5178,10 +5790,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -5189,43 +5801,32 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="2:4">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
-      </c>
-      <c r="D35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" ht="28.8" spans="2:4">
+        <v>470</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>412</v>
-      </c>
-      <c r="D37" t="s">
-        <v>339</v>
+        <v>472</v>
+      </c>
+      <c r="D36" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="519">
   <si>
     <r>
       <rPr>
@@ -611,6 +611,19 @@
     <t>8.4</t>
   </si>
   <si>
+    <t>Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>tài khoản: ADMIN
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>hiện thông báo tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
     <t>Kiểm tra thêm tài khoản khi để trống mật khẩu</t>
   </si>
   <si>
@@ -618,7 +631,7 @@
 mật khẩu:</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>8.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng</t>
@@ -631,7 +644,7 @@
     <t>hiện thông báo mật khẩu phải chứa 1 số, 1 kí tự hoa, 1 kí tự thường, 1 kí tự đặc biệt: @#$% và tối đa 5 kí tự</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>8.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
@@ -802,6 +815,18 @@
   </si>
   <si>
     <t>15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra thêm loại hàng khi tên loại hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>tên loại hàng: Đồ Uống</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên loại hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>15.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
@@ -854,6 +879,20 @@
     <t>17.2</t>
   </si>
   <si>
+    <t>Kiểm tra thêm nhà cung cấp khi tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
+    <t>tên nhà cung cấp: Vĩnh Hảo
+địa chỉ: Long An
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống địa chỉ</t>
   </si>
   <si>
@@ -862,7 +901,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>17.3</t>
+    <t>17.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống số điện thoại</t>
@@ -873,7 +912,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>17.4</t>
+    <t>17.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số</t>
@@ -884,7 +923,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>17.5</t>
+    <t>17.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng</t>
@@ -895,7 +934,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>17.6</t>
+    <t>17.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
@@ -1690,6 +1729,9 @@
     </r>
   </si>
   <si>
+    <t>TS1</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng đăng nhập</t>
   </si>
   <si>
@@ -1700,16 +1742,25 @@
 5. Kiểm tra đăng nhập khi tên đăng nhập và mật khẩu hợp lệ được nhập</t>
   </si>
   <si>
+    <t>TS2</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng đăng xuất</t>
   </si>
   <si>
     <t>1. Kiểm tra đăng xuất</t>
   </si>
   <si>
+    <t>TS3</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị danh sách nhân viên</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>TS4</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm nhân viên</t>
@@ -1732,6 +1783,9 @@
 15. Kiểm tra thêm nhân viên khi dữ liệu hợp lệ</t>
   </si>
   <si>
+    <t>TS5</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng cho nghỉ nhân viên</t>
   </si>
   <si>
@@ -1740,6 +1794,9 @@
 3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
   </si>
   <si>
+    <t>TS6</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng sắp xếp nhân viên</t>
   </si>
   <si>
@@ -1747,10 +1804,16 @@
 2. Kiểm tra sắp xếp nhân viên theo mã nhân viên</t>
   </si>
   <si>
+    <t>TS7</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị danh sách tài khoản</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách tài khoản</t>
+  </si>
+  <si>
+    <t>TS8</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm tài khoản</t>
@@ -1759,9 +1822,13 @@
     <t>1. Kiểm tra thêm tài khoản khi tất cả nhân viên đều đã có tài khoản
 2. Kiểm tra thêm tài khoản khi để trống tên tài khoản 
 3. Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng
-4. Kiểm tra thêm tài khoản khi để trống mật khẩu
-5. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
-6. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
+4. Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại
+5. Kiểm tra thêm tài khoản khi để trống mật khẩu
+6. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
+7. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS9</t>
   </si>
   <si>
     <t>Kiểm tra chức năng ẩn tài khoản</t>
@@ -1771,6 +1838,9 @@
 2. Kiểm tra ẩn tài khoản với nhân viên đã nghỉ</t>
   </si>
   <si>
+    <t>TS10</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng sắp xếp tài khoản</t>
   </si>
   <si>
@@ -1778,10 +1848,16 @@
 2. Kiểm tra sắp xếp tài khoản theo mã nhân viên</t>
   </si>
   <si>
+    <t>TS11</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị danh sách sản phẩm</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>TS12</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra chức năng sắp xếp sản phẩm </t>
@@ -1791,23 +1867,36 @@
 2. Kiểm tra sắp xếp sản phẩm theo giá bán</t>
   </si>
   <si>
+    <t>TS13</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng tìm kiếm sản phẩm theo loại hàng</t>
   </si>
   <si>
     <t>1. Kiểm tra tìm kiếm sản phẩm khi chọn loại hàng muốn tìm kiếm</t>
   </si>
   <si>
+    <t>TS14</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị danh sách loại hàng</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách loại hàng</t>
   </si>
   <si>
+    <t>TS15</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng thêm loại hàng</t>
   </si>
   <si>
     <t>1. Kiểm tra thêm loại hàng khi để trống tên loại hàng
-2. Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
+2. Kiểm tra thêm loại hàng khi tên loại hàng đã tồn tại
+3. Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS16</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách nhà cung cấp</t>
@@ -1816,21 +1905,31 @@
     <t>1. Kiểm tra hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
+    <t>TS17</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng thêm nhà cung cấp</t>
   </si>
   <si>
     <t>1. Kiểm tra thêm nhà cung cấp khi để trống tên nhà cung cấp
-2. Kiểm tra thêm nhà cung cấp khi để trống địa chỉ
-3. Kiểm tra thêm nhà cung cấp khi để trống số điện thoại
-4. Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số
-5. Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng
-6. Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
+2. Kiểm tra thêm nhà cung cấp khi tên nhà cung cấp đã tồn tại
+3. Kiểm tra thêm nhà cung cấp khi để trống địa chỉ
+4. Kiểm tra thêm nhà cung cấp khi để trống số điện thoại
+5. Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số
+6. Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng
+7. Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS18</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
+  </si>
+  <si>
+    <t>TS19</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp sản phẩm trong  kho</t>
@@ -1840,10 +1939,16 @@
 2. Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
   </si>
   <si>
+    <t>TS20</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị danh sách khách hàng</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>TS21</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm khách hàng</t>
@@ -1857,6 +1962,9 @@
 5. Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
+    <t>TS22</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng sắp xếp khách hàng</t>
   </si>
   <si>
@@ -1864,22 +1972,34 @@
 2. Kiểm tra sắp xếp khách hàng theo tên</t>
   </si>
   <si>
+    <t>TS23</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị phiếu nhập</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
+    <t>TS24</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng thêm phiếu nhập</t>
   </si>
   <si>
     <t>1. Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
+    <t>TS25</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị chi tiết phiếu nhập</t>
+  </si>
+  <si>
+    <t>TS26</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết phiếu nhập</t>
@@ -1900,6 +2020,9 @@
 13. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
+    <t>TS27</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng thêm hóa đơn</t>
   </si>
   <si>
@@ -1909,6 +2032,9 @@
 4. Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
   </si>
   <si>
+    <t>TS28</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng thêm chi tiết hóa đơn</t>
   </si>
   <si>
@@ -1918,10 +2044,16 @@
 4. Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
   </si>
   <si>
+    <t>TS29</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng áp dụng giảm giá</t>
   </si>
   <si>
     <t>1. Kiểm tra áp dụng giảm giá</t>
+  </si>
+  <si>
+    <t>TS30</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thanh toán</t>
@@ -1933,13 +2065,22 @@
 4. Kiểm tra thanh toán khi tiền khách hợp lệ</t>
   </si>
   <si>
+    <t>TS31</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng xuất hóa đơn</t>
   </si>
   <si>
     <t>1. Kiểm tra xuất hóa đơn</t>
   </si>
   <si>
+    <t>TS32</t>
+  </si>
+  <si>
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập và hóa đơn</t>
+  </si>
+  <si>
+    <t>TS33</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thống kê</t>
@@ -1947,6 +2088,9 @@
   <si>
     <t>1. Kiểm tra thống kê khi chọn ngày thống kê không hợp lệ
 2. Kiểm tra thống kê khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS34</t>
   </si>
   <si>
     <t>Kiểm tra chức năng in thống kê</t>
@@ -3157,10 +3301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H100"/>
+  <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3915,10 +4059,10 @@
         <v>133</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>12</v>
@@ -3926,22 +4070,22 @@
     </row>
     <row r="35" ht="115.2" spans="2:8">
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -3970,7 +4114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="100.8" spans="2:8">
+    <row r="37" ht="115.2" spans="2:8">
       <c r="B37" s="3" t="s">
         <v>142</v>
       </c>
@@ -3978,16 +4122,16 @@
         <v>143</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -3995,13 +4139,13 @@
     </row>
     <row r="38" ht="100.8" spans="2:8">
       <c r="B38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>149</v>
@@ -4016,7 +4160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="86.4" spans="2:8">
+    <row r="39" ht="100.8" spans="2:8">
       <c r="B39" s="3" t="s">
         <v>151</v>
       </c>
@@ -4024,16 +4168,16 @@
         <v>152</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
@@ -4041,13 +4185,13 @@
     </row>
     <row r="40" ht="86.4" spans="2:8">
       <c r="B40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>158</v>
@@ -4070,6 +4214,9 @@
         <v>161</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -4082,7 +4229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="115.2" spans="2:8">
+    <row r="42" ht="86.4" spans="2:8">
       <c r="B42" s="3" t="s">
         <v>164</v>
       </c>
@@ -4092,14 +4239,11 @@
       <c r="D42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
@@ -4107,13 +4251,13 @@
     </row>
     <row r="43" ht="115.2" spans="2:8">
       <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>171</v>
@@ -4128,7 +4272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" ht="129.6" spans="2:8">
+    <row r="44" ht="115.2" spans="2:8">
       <c r="B44" s="3" t="s">
         <v>173</v>
       </c>
@@ -4136,16 +4280,16 @@
         <v>174</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -4153,12 +4297,15 @@
     </row>
     <row r="45" ht="129.6" spans="2:8">
       <c r="B45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>180</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -4171,7 +4318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="158.4" spans="2:8">
+    <row r="46" ht="129.6" spans="2:8">
       <c r="B46" s="3" t="s">
         <v>182</v>
       </c>
@@ -4181,14 +4328,11 @@
       <c r="D46" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -4196,13 +4340,13 @@
     </row>
     <row r="47" ht="158.4" spans="2:8">
       <c r="B47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>189</v>
@@ -4217,7 +4361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="100.8" spans="2:8">
+    <row r="48" ht="158.4" spans="2:8">
       <c r="B48" s="3" t="s">
         <v>191</v>
       </c>
@@ -4225,6 +4369,9 @@
         <v>192</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -4237,7 +4384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="187.2" spans="2:8">
+    <row r="49" ht="158.4" spans="2:8">
       <c r="B49" s="3" t="s">
         <v>195</v>
       </c>
@@ -4245,39 +4392,36 @@
         <v>196</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="100.8" spans="2:8">
+      <c r="B50" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="187.2" spans="2:8">
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -4291,16 +4435,16 @@
         <v>204</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -4308,22 +4452,22 @@
     </row>
     <row r="52" ht="187.2" spans="2:8">
       <c r="B52" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -4331,22 +4475,22 @@
     </row>
     <row r="53" ht="187.2" spans="2:8">
       <c r="B53" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
@@ -4354,137 +4498,140 @@
     </row>
     <row r="54" ht="187.2" spans="2:8">
       <c r="B54" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="72" spans="2:8">
+    <row r="55" ht="187.2" spans="2:8">
       <c r="B55" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="100.8" spans="2:8">
+    <row r="56" ht="187.2" spans="2:8">
       <c r="B56" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>223</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="187.2" spans="2:8">
+      <c r="B57" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="100.8" spans="2:8">
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="72" spans="2:8">
+      <c r="B58" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="86.4" spans="2:8">
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="100.8" spans="2:8">
+      <c r="B59" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="144" spans="2:8">
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="144" spans="2:8">
+    <row r="60" ht="100.8" spans="2:8">
       <c r="B60" s="3" t="s">
         <v>237</v>
       </c>
@@ -4492,39 +4639,36 @@
         <v>238</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>239</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" ht="144" spans="2:8">
+    <row r="61" ht="86.4" spans="2:8">
       <c r="B61" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
@@ -4532,22 +4676,22 @@
     </row>
     <row r="62" ht="144" spans="2:8">
       <c r="B62" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -4555,22 +4699,22 @@
     </row>
     <row r="63" ht="144" spans="2:8">
       <c r="B63" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -4578,51 +4722,51 @@
     </row>
     <row r="64" ht="144" spans="2:8">
       <c r="B64" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="115.2" spans="2:8">
+    <row r="65" ht="144" spans="2:8">
       <c r="B65" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" ht="115.2" spans="2:8">
+    <row r="66" ht="144" spans="2:8">
       <c r="B66" s="3" t="s">
         <v>258</v>
       </c>
@@ -4630,36 +4774,39 @@
         <v>259</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>260</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="144" spans="2:8">
+      <c r="B67" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="72" spans="2:8">
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="G67" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>12</v>
@@ -4667,137 +4814,134 @@
     </row>
     <row r="68" ht="115.2" spans="2:8">
       <c r="B68" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="115.2" spans="2:8">
+      <c r="B69" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="100.8" spans="2:8">
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="G69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="72" spans="2:8">
+      <c r="B70" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="115.2" spans="2:8">
-      <c r="B70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="G70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="115.2" spans="2:8">
+      <c r="B71" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" ht="216" spans="2:8">
-      <c r="B71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="G71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="100.8" spans="2:8">
+      <c r="B72" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="216" spans="2:8">
-      <c r="B72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="115.2" spans="2:8">
+      <c r="B73" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="216" spans="2:8">
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="G73" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>12</v>
@@ -4805,13 +4949,13 @@
     </row>
     <row r="74" ht="216" spans="2:8">
       <c r="B74" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>295</v>
@@ -4834,7 +4978,7 @@
         <v>298</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>299</v>
@@ -4857,7 +5001,7 @@
         <v>302</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>303</v>
@@ -4880,7 +5024,7 @@
         <v>306</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>307</v>
@@ -4903,7 +5047,7 @@
         <v>310</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>311</v>
@@ -4926,7 +5070,7 @@
         <v>314</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>315</v>
@@ -4949,7 +5093,7 @@
         <v>318</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>319</v>
@@ -4972,7 +5116,7 @@
         <v>322</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>323</v>
@@ -4995,7 +5139,7 @@
         <v>326</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>327</v>
@@ -5010,7 +5154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" ht="172.8" spans="2:8">
+    <row r="83" ht="216" spans="2:8">
       <c r="B83" s="3" t="s">
         <v>329</v>
       </c>
@@ -5018,62 +5162,62 @@
         <v>330</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="G83" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="216" spans="2:8">
+      <c r="B84" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="172.8" spans="2:8">
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="216" spans="2:8">
+      <c r="B85" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="172.8" spans="2:8">
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="G85" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>12</v>
@@ -5081,13 +5225,13 @@
     </row>
     <row r="86" ht="172.8" spans="2:8">
       <c r="B86" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>344</v>
@@ -5102,7 +5246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="201.6" spans="2:8">
+    <row r="87" ht="172.8" spans="2:8">
       <c r="B87" s="3" t="s">
         <v>346</v>
       </c>
@@ -5110,22 +5254,22 @@
         <v>347</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="G87" s="3" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="201.6" spans="2:8">
+    <row r="88" ht="172.8" spans="2:8">
       <c r="B88" s="3" t="s">
         <v>350</v>
       </c>
@@ -5133,39 +5277,39 @@
         <v>351</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>352</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="201.6" spans="2:8">
+    <row r="89" ht="172.8" spans="2:8">
       <c r="B89" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>12</v>
@@ -5173,114 +5317,114 @@
     </row>
     <row r="90" ht="201.6" spans="2:8">
       <c r="B90" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F90" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="201.6" spans="2:8">
+      <c r="B91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="144" spans="2:8">
-      <c r="B91" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>364</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="201.6" spans="2:8">
+      <c r="B92" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" ht="172.8" spans="2:8">
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="G92" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="201.6" spans="2:8">
+      <c r="B93" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" ht="172.8" spans="2:8">
-      <c r="B93" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="G93" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="144" spans="2:8">
+      <c r="B94" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="172.8" spans="2:8">
-      <c r="B94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="G94" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>12</v>
@@ -5288,13 +5432,13 @@
     </row>
     <row r="95" ht="172.8" spans="2:8">
       <c r="B95" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>381</v>
@@ -5309,7 +5453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" ht="187.2" spans="2:8">
+    <row r="96" ht="172.8" spans="2:8">
       <c r="B96" s="3" t="s">
         <v>383</v>
       </c>
@@ -5317,107 +5461,176 @@
         <v>384</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="172.8" spans="2:8">
+      <c r="B97" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="72" spans="2:8">
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="172.8" spans="2:8">
+      <c r="B98" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" ht="144" spans="2:8">
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="G98" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="187.2" spans="2:8">
+      <c r="B99" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="144" spans="2:8">
-      <c r="B99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="72" spans="2:8">
+      <c r="B100" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="187.2" spans="2:8">
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="G100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="144" spans="2:8">
+      <c r="B101" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H100" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="144" spans="2:8">
+      <c r="B102" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="187.2" spans="2:8">
+      <c r="B103" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5432,13 +5645,13 @@
   <sheetPr/>
   <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="2.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
     <col min="3" max="3" width="61.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="61.5555555555556" customWidth="1"/>
   </cols>
@@ -5449,384 +5662,384 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="2:4">
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="2:4">
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="2:4">
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="2:4">
+      <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="2:4">
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="2:4">
+      <c r="B14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="2:4">
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" ht="100.8" spans="2:4">
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="2:4">
+      <c r="B21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" ht="86.4" spans="2:4">
+      <c r="B23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>480</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="2:4">
+      <c r="B24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" t="s">
+        <v>492</v>
+      </c>
+      <c r="D27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" ht="187.2" spans="2:4">
+      <c r="B28" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" ht="57.6" spans="2:4">
+      <c r="B29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" ht="57.6" spans="2:4">
+      <c r="B30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" t="s">
+        <v>501</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" ht="57.6" spans="2:4">
+      <c r="B32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>512</v>
+      </c>
+      <c r="C34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="2:4">
+      <c r="B35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="2:4">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="2:4">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" ht="86.4" spans="2:4">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="2:4">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="2:4">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="2:4">
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="2:4">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" ht="86.4" spans="2:4">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" spans="2:4">
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" ht="86.4" spans="2:4">
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>447</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="2:4">
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D26" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>455</v>
-      </c>
-      <c r="D27" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" ht="187.2" spans="2:4">
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>457</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" ht="57.6" spans="2:4">
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>459</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:4">
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>461</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>463</v>
-      </c>
-      <c r="D31" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" ht="57.6" spans="2:4">
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>465</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>467</v>
-      </c>
-      <c r="D33" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>389</v>
-      </c>
-      <c r="D34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="2:4">
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>470</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>472</v>
-      </c>
-      <c r="D36" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287"/>
+    <workbookView windowWidth="23040" windowHeight="9287" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="607">
   <si>
     <r>
       <rPr>
@@ -1685,10 +1685,10 @@
     <t>hiển thị biểu đồ sau khi thống kê</t>
   </si>
   <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra in thống kê</t>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra in thống kê</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Quản lý
@@ -1703,6 +1703,236 @@
     <t>thống kê từ ngày: 01/01/2023
 thống kê đến ngày: 01/11/2023
 thư mục: Documents</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên Kho
+2. Chọn chức năng kho ở màn hình chính
+3. Nhập mã sản phẩm vào ô tìm kiếm
+4. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>tìm kiếm:</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả sản phẩm</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại</t>
+  </si>
+  <si>
+    <t>tìm kiếm: abc123</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy sản phẩm</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng kho ở màn hình chính
+3. Nhập mã sản phẩm vào ô tìm kiếm
+4. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>tìm kiếm: SP01</t>
+  </si>
+  <si>
+    <t>hiển thị sản phẩm với mã sản phẩm có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm loại hàng khi không nhập tên loại hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin loại hàng
+4. Nhập tên loại hàng vào ô tìm kiếm
+5. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả loại hàng</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm loại hàng khi nhập tên loại hàng không tồn tại</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy loại hàng</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
+  </si>
+  <si>
+    <t>tìm kiếm: VINA</t>
+  </si>
+  <si>
+    <t>hiển thị loại hàng với tên loại hàng có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhà cung cấp khi không nhập tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin nhà cung cấp
+4. Nhập tên nhà cung cấp vào ô tìm kiếm
+5. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả nhà cung cấp</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập tên nhà cung cấp không tồn tại</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy nhà cung cấp</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>tìm kiếm: H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị nhà cung cấp với tên nhà cung cấp có chứa kí tự muốn tìm kiếm </t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm khách hàng khi không nhập tên khách hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng bán hàng ở màn hình chính
+3. Nhập tên khách hàng vào ô tìm kiếm
+4. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả khách hàng</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm khách hàng khi nhập tên khách hàng không tồn tại</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy khách hàng</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
+  </si>
+  <si>
+    <t>tìm kiếm: Hảo</t>
+  </si>
+  <si>
+    <t>hiển thị khách hàng với tên khách hàng có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhân viên khi không nhập tên nhân viên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Nhập tên nhân viên vào ô tìm kiếm
+4. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả nhân viên</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhân viên khi nhập tên nhân viên không tồn tại</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy nhân viên</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>tìm kiếm: NG</t>
+  </si>
+  <si>
+    <t>hiển thị nhân viên với tên nhân viên có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin
+2. Chọn chức năng tài khoản ở màn hình chính
+3. Nhập mã nhân viên vào ô tìm kiếm
+4. Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị tất cả tài khoản</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại</t>
+  </si>
+  <si>
+    <t>hiện thông báo không tìm thấy tài khoản</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
+  </si>
+  <si>
+    <t>tìm kiếm: NV00</t>
+  </si>
+  <si>
+    <t>hiển thị tài khoản với mã nhân viên có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
     <r>
@@ -2094,6 +2324,75 @@
   </si>
   <si>
     <t>Kiểm tra chức năng in thống kê</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra in thống kê</t>
+  </si>
+  <si>
+    <t>TS35</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo mã sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm
+2. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại
+3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>TS36</t>
+  </si>
+  <si>
+    <t>kiểm tra chức năng tìm kiếm loại hàng theo tên loại hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm loại hàng khi không nhập tên loại hàng
+2. Kiểm tra tìm kiếm loại hàng khi nhập tên loại hàng không tồn tại
+3. Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
+  </si>
+  <si>
+    <t>TS37</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm nhà cung cấp theo tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm nhà cung cấp khi không nhập tên nhà cung cấp
+2. Kiểm tra tìm kiếm nhà cung cấp khi nhập tên nhà cung cấp không tồn tại
+3. Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>TS38</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm khách hàng theo tên khách hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm khách hàng khi không nhập tên khách hàng
+2. Kiểm tra tìm kiếm khách hàng khi nhập tên khách hàng không tồn tại
+3. Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
+  </si>
+  <si>
+    <t>TS39</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm nhân viên theo tên nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm nhân viên khi không nhập tên nhân viên
+2. Kiểm tra tìm kiếm nhân viên khi nhập tên nhân viên không tồn tại
+3. Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>TS40</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm tài khoản theo mã nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên
+2. Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại
+3. Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
   </si>
 </sst>
 </file>
@@ -2752,7 +3051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2761,6 +3060,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3301,17 +3603,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H103"/>
+  <dimension ref="B1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="3"/>
     <col min="2" max="2" width="7.22222222222222" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.5555555555556" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.6666666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.7777777777778" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.1111111111111" style="3" customWidth="1"/>
@@ -3321,8 +3623,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
-    <row r="2" ht="15.15" spans="2:8">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="14.55" spans="2:8">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5615,7 +5917,7 @@
       <c r="B103" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5631,6 +5933,420 @@
         <v>399</v>
       </c>
       <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="115.2" spans="2:8">
+      <c r="B104" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="115.2" spans="2:8">
+      <c r="B105" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="115.2" spans="2:8">
+      <c r="B106" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="158.4" spans="2:8">
+      <c r="B107" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="158.4" spans="2:8">
+      <c r="B108" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="158.4" spans="2:8">
+      <c r="B109" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="144" spans="2:8">
+      <c r="B110" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="144" spans="2:8">
+      <c r="B111" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="144" spans="2:8">
+      <c r="B112" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="115.2" spans="2:8">
+      <c r="B113" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="115.2" spans="2:8">
+      <c r="B114" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="115.2" spans="2:8">
+      <c r="B115" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="100.8" spans="2:8">
+      <c r="B116" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="100.8" spans="2:8">
+      <c r="B117" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="100.8" spans="2:8">
+      <c r="B118" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="100.8" spans="2:8">
+      <c r="B119" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="100.8" spans="2:8">
+      <c r="B120" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="100.8" spans="2:8">
+      <c r="B121" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5643,17 +6359,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D36"/>
+  <dimension ref="B1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
     <col min="3" max="3" width="61.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="61.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="63.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
@@ -5662,384 +6378,450 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
       <c r="B3" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
       <c r="B6" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="2:4">
       <c r="B7" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="2:4">
       <c r="B8" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" ht="100.8" spans="2:4">
       <c r="B10" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
       <c r="B11" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="2:4">
       <c r="B12" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
       <c r="B14" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="D15" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="2:4">
       <c r="B17" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" ht="100.8" spans="2:4">
       <c r="B19" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="2:4">
       <c r="B21" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" ht="86.4" spans="2:4">
       <c r="B23" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="2:4">
       <c r="B24" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="C25" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="D25" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="C27" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="D27" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" ht="187.2" spans="2:4">
       <c r="B28" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="C28" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" ht="57.6" spans="2:4">
       <c r="B29" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" ht="57.6" spans="2:4">
       <c r="B30" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="C30" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="D31" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" ht="57.6" spans="2:4">
       <c r="B32" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="C33" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="C34" t="s">
         <v>401</v>
       </c>
       <c r="D34" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" ht="28.8" spans="2:4">
       <c r="B35" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="C35" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="C36" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="D36" t="s">
-        <v>414</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" ht="43.2" spans="2:4">
+      <c r="B37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="2:4">
+      <c r="B38" t="s">
+        <v>592</v>
+      </c>
+      <c r="C38" t="s">
+        <v>593</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="2:4">
+      <c r="B39" t="s">
+        <v>595</v>
+      </c>
+      <c r="C39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" ht="43.2" spans="2:4">
+      <c r="B40" t="s">
+        <v>598</v>
+      </c>
+      <c r="C40" t="s">
+        <v>599</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" ht="43.2" spans="2:4">
+      <c r="B41" t="s">
+        <v>601</v>
+      </c>
+      <c r="C41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" ht="43.2" spans="2:4">
+      <c r="B42" t="s">
+        <v>604</v>
+      </c>
+      <c r="C42" t="s">
+        <v>605</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="789">
   <si>
     <r>
       <rPr>
@@ -489,6 +489,268 @@
     <t>5.1</t>
   </si>
   <si>
+    <t>Kiểm tra sửa nhân viên khi để trống họ tên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn nhân viên trong danh sách
+4. Nhấn sửa
+5. Nhập họ tên
+6. Chọn ngày sinh
+7. Chọn giới tính
+8. Nhập căn cước công dân
+9. Nhập số điện thoại
+10. Chọn ngày vào làm
+11. Chọn chức vụ
+12. Nhập địa chỉ
+13. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên:
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi họ tên không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: 123
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn ngày sinh</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh:
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra sửa nhân viên khi tuổi không đủ 18</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 01/11/2010
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn giới tính</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính:
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống căn cước công dân</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd:
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi căn cước công dân không đủ 12 số</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 0123456789
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt:
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: abc
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0123456789
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn ngày vào làm</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm:
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi chọn chức vụ Admin với quyền quản lý</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Admin
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi chọn chức vụ Quản lý với quyền quản lý</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Quản lý
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống địa chỉ</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Nhân Viên Kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>sửa nhân viên thành công</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý</t>
   </si>
   <si>
@@ -502,7 +764,7 @@
 chức vụ: Admin</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>6.2</t>
   </si>
   <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý</t>
@@ -512,7 +774,7 @@
 chức vụ: Quản lý</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
@@ -525,7 +787,7 @@
     <t>cho nghỉ nhân viên thành công</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp nhân viên theo tên nhân viên</t>
@@ -543,7 +805,7 @@
     <t>hiển thị danh sách nhân viên được sắp xếp theo tên nhân viên</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp nhân viên theo mã nhân viên</t>
@@ -555,7 +817,7 @@
     <t xml:space="preserve">hiển thị danh sách nhân viên được sắp xếp theo mã nhân viên </t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách tài khoản</t>
@@ -568,7 +830,7 @@
     <t>hiển thị danh sách tài khoản</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tất cả nhân viên đều đã có tài khoản</t>
@@ -585,7 +847,7 @@
     <t>hiện thông báo tất cả nhân viên đã có tài khoản</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra thêm tài khoản khi để trống tên tài khoản </t>
@@ -595,7 +857,7 @@
 mật khẩu: 1Hh@</t>
   </si>
   <si>
-    <t>8.3</t>
+    <t>9.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng</t>
@@ -608,7 +870,7 @@
     <t>hiện thông báo tài khoản chỉ chứa chữ in hoa và không quá 10 kí tự</t>
   </si>
   <si>
-    <t>8.4</t>
+    <t>9.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại</t>
@@ -621,7 +883,7 @@
     <t>hiện thông báo tài khoản đã tồn tại</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>9.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi để trống mật khẩu</t>
@@ -631,7 +893,7 @@
 mật khẩu:</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>9.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng</t>
@@ -644,7 +906,7 @@
     <t>hiện thông báo mật khẩu phải chứa 1 số, 1 kí tự hoa, 1 kí tự thường, 1 kí tự đặc biệt: @#$% và tối đa 5 kí tự</t>
   </si>
   <si>
-    <t>8.7</t>
+    <t>9.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
@@ -657,7 +919,85 @@
     <t>thêm tài khoản thành công</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra sửa tài khoản khi để trống tên tài khoản </t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin
+2. Chọn chức năng tài khoản ở màn hình chính
+3. Chọn tài khoản trong danh sách
+4. Nhấn sửa
+5. Nhập tài khoản
+6. Nhập mật khẩu
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản:
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi tên khoản không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: abc
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi tên tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: ADMIN
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi để trống mật khẩu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu:</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi mật khẩu không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>sửa tài khoản thành công</t>
+  </si>
+  <si>
+    <t>11.1</t>
   </si>
   <si>
     <t>Kiểm tra ẩn tài khoản khi nhân viên còn làm việc</t>
@@ -676,7 +1016,7 @@
     <t>hiện thông báo không thể ẩn tài khoản</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>11.2</t>
   </si>
   <si>
     <t>Kiểm tra ẩn tài khoản với nhân viên đã nghỉ việc</t>
@@ -688,7 +1028,7 @@
     <t>ẩn tài khoản thành công</t>
   </si>
   <si>
-    <t>10.1</t>
+    <t>12.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp tài khoản theo tên đăng nhập</t>
@@ -706,7 +1046,7 @@
     <t>hiển thị danh sách tài khoản đã được sắp xếp theo tên đăng nhập</t>
   </si>
   <si>
-    <t>10.2</t>
+    <t>12.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp tài khoản theo mã nhân viên</t>
@@ -718,7 +1058,7 @@
     <t>hiển thị danh sách tài khoản đã được sắp xếp theo mã nhân viên</t>
   </si>
   <si>
-    <t>11.1</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách sản phẩm</t>
@@ -731,7 +1071,71 @@
     <t>hiển thị danh sách sản phẩm</t>
   </si>
   <si>
-    <t>12.1</t>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi tên sản phẩm trống</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn sản phẩm trong danh sách
+4. Nhập tên sản phẩm
+5. Nhấn sửa</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm:</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên sản phẩm trống</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi tên sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm: trứng</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm: sting</t>
+  </si>
+  <si>
+    <t>sửa sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn sản phẩm trong danh sách danh sách
+4. Nhấn Ẩn</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012</t>
+  </si>
+  <si>
+    <t>ẩn sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>16.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm theo mã loại hàng</t>
@@ -749,7 +1153,7 @@
     <t>hiển thị danh sách sản phẩm đã được sắp xếp theo mã loại hàng</t>
   </si>
   <si>
-    <t>12.2</t>
+    <t>16.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm theo giá bán</t>
@@ -761,7 +1165,7 @@
     <t>hiển thị danh sách sản phẩm đã được sắp xếp theo giá bán</t>
   </si>
   <si>
-    <t>13.1</t>
+    <t>17.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm sản phẩm khi chọn loại hàng muốn tìm kiếm</t>
@@ -779,7 +1183,7 @@
     <t>hiển thị danh sách sản phẩm theo loại hàng đã chọn</t>
   </si>
   <si>
-    <t>14.1</t>
+    <t>18.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách loại hàng</t>
@@ -794,7 +1198,7 @@
     <t>hiển thị danh sách loại hàng</t>
   </si>
   <si>
-    <t>15.1</t>
+    <t>19.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm loại hàng khi để trống tên loại hàng</t>
@@ -814,7 +1218,7 @@
     <t>hiện thông báo chưa nhập tên loại hàng</t>
   </si>
   <si>
-    <t>15.2</t>
+    <t>19.2</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm loại hàng khi tên loại hàng đã tồn tại</t>
@@ -826,7 +1230,7 @@
     <t>hiện thông báo tên loại hàng đã tồn tại</t>
   </si>
   <si>
-    <t>15.3</t>
+    <t>19.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
@@ -838,7 +1242,68 @@
     <t>thêm loại hàng thành công</t>
   </si>
   <si>
-    <t>16.1</t>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa loại hàng khi để trống tên loại hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin loại hàng
+4. Chọn loại hàng trong danh sách
+5. Nhấn sửa
+6. Nhập tên loại hàng
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng:</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra sửa loại hàng khi tên loại hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng: Đồ Uống</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa loại hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng: Rau Củ</t>
+  </si>
+  <si>
+    <t>sửa loại hàng thành công</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin loại hàng
+4. Chọn loại hàng trong danh sách
+5. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011</t>
+  </si>
+  <si>
+    <t>ẩn loại hàng thành công</t>
+  </si>
+  <si>
+    <t>22.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách nhà cung cấp</t>
@@ -852,7 +1317,7 @@
     <t>hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
-    <t>17.1</t>
+    <t>23.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống tên nhà cung cấp</t>
@@ -876,7 +1341,7 @@
     <t>hiện thông báo chưa nhập tên nhà cung cấp</t>
   </si>
   <si>
-    <t>17.2</t>
+    <t>23.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi tên nhà cung cấp đã tồn tại</t>
@@ -890,7 +1355,7 @@
     <t>hiện thông báo tên nhà cung cấp đã tồn tại</t>
   </si>
   <si>
-    <t>17.3</t>
+    <t>23.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống địa chỉ</t>
@@ -901,7 +1366,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>17.4</t>
+    <t>23.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống số điện thoại</t>
@@ -912,7 +1377,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>17.5</t>
+    <t>23.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số</t>
@@ -923,7 +1388,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>17.6</t>
+    <t>23.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng</t>
@@ -934,7 +1399,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>17.7</t>
+    <t>23.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
@@ -948,7 +1413,124 @@
     <t>thêm nhà cung cấp thành công</t>
   </si>
   <si>
-    <t>18.1</t>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin nhà cung cấp
+4. Chọn nhà cung cấp trong danh sách
+5. Nhấn sửa
+6. Nhập tên nhà cung cấp
+7. Nhập địa chỉ
+8. Nhập số điện thoại
+9. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp:
+địa chỉ: Long An
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Vĩnh Hảo
+địa chỉ: Long An
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống địa chỉ</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ:
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt:</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: abc</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: 0123456789</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: 0338268166</t>
+  </si>
+  <si>
+    <t>sửa nhà cung cấp thành công</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin nhà cung cấp
+4. Chọn nhà cung cấp trong danh sách
+5. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011</t>
+  </si>
+  <si>
+    <t>ẩn nhà cung cấp thành công</t>
+  </si>
+  <si>
+    <t>26.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
@@ -961,7 +1543,7 @@
     <t>hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
-    <t>19.1</t>
+    <t>27.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo mã sản phẩm</t>
@@ -979,7 +1561,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo mã sản phẩm</t>
   </si>
   <si>
-    <t>19.2</t>
+    <t>27.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
@@ -991,7 +1573,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo số lượng</t>
   </si>
   <si>
-    <t>20.1</t>
+    <t>28.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách khách hàng</t>
@@ -1004,7 +1586,7 @@
     <t>hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>21.1</t>
+    <t>29.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống họ tên</t>
@@ -1022,7 +1604,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>21.2</t>
+    <t>29.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi họ tên không đúng định dạng</t>
@@ -1032,7 +1614,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>21.3</t>
+    <t>29.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống số điện thoại</t>
@@ -1042,7 +1624,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>21.4</t>
+    <t>29.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không phải số</t>
@@ -1052,7 +1634,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>21.5</t>
+    <t>29.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không đúng định dạng</t>
@@ -1062,7 +1644,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>21.6</t>
+    <t>29.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
@@ -1075,7 +1657,103 @@
     <t>thêm khách hàng thành công</t>
   </si>
   <si>
-    <t>22.1</t>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi để trống họ tên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng khách hàng ở màn hình chính
+3. Chọn khách hàng trong danh sách
+4. Nhấn sửa
+5. Nhập họ tên
+6. Nhập số điện thoại
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên:
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi họ tên không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: a1
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt:</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: abc</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: 0123456789</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>sửa khách hàng thành công</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng khách hàng ở màn hình chính
+3. Chọn khách hàng trong danh sách
+4. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011</t>
+  </si>
+  <si>
+    <t>ẩn khách hàng thành công</t>
+  </si>
+  <si>
+    <t>32.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo mã khách hàng</t>
@@ -1093,7 +1771,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo mã</t>
   </si>
   <si>
-    <t>22.2</t>
+    <t>32.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo tên khách hàng</t>
@@ -1105,7 +1783,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo tên khách hàng</t>
   </si>
   <si>
-    <t>23.1</t>
+    <t>33.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách phiếu nhập</t>
@@ -1118,7 +1796,7 @@
     <t>hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
-    <t>24.1</t>
+    <t>34.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1137,7 +1815,7 @@
     <t>thêm phiếu nhập thành công</t>
   </si>
   <si>
-    <t>25.1</t>
+    <t>35.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị chi tiết phiếu nhập</t>
@@ -1154,7 +1832,7 @@
     <t>hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
-    <t>26.1</t>
+    <t>36.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập của nhân viên khác</t>
@@ -1169,7 +1847,7 @@
     <t>hiện thông báo không thể thêm chi tiết cho phiếu nhập của nhân viên khác</t>
   </si>
   <si>
-    <t>26.2</t>
+    <t>36.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống tên sản phẩm</t>
@@ -1199,7 +1877,7 @@
     <t>hiện thông báo chưa nhập tên sản phẩm</t>
   </si>
   <si>
-    <t>26.3</t>
+    <t>36.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi tên sản phẩm đã tồn tại</t>
@@ -1213,10 +1891,7 @@
 hạn sử dụng: 01/01/2024</t>
   </si>
   <si>
-    <t>hiện thông báo tên sản phẩm đã tồn tại</t>
-  </si>
-  <si>
-    <t>26.4</t>
+    <t>36.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống số lượng</t>
@@ -1233,7 +1908,7 @@
     <t>hiện thông báo chưa nhập số lượng</t>
   </si>
   <si>
-    <t>26.5</t>
+    <t>36.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi số lượng không phải số</t>
@@ -1250,7 +1925,7 @@
     <t>hiện thông báo số lượng phải là số</t>
   </si>
   <si>
-    <t>26.6</t>
+    <t>36.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống giá nhập</t>
@@ -1267,7 +1942,7 @@
     <t>hiện thông báo chưa nhập giá nhập</t>
   </si>
   <si>
-    <t>26.7</t>
+    <t>36.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập không phải số</t>
@@ -1284,7 +1959,7 @@
     <t>hiện thông báo giá nhập phải là số</t>
   </si>
   <si>
-    <t>26.8</t>
+    <t>36.8</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập dưới 1000</t>
@@ -1301,7 +1976,7 @@
     <t>hiện thông báo giá nhập phải lớn hơn 1000</t>
   </si>
   <si>
-    <t>26.9</t>
+    <t>36.9</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống ngày sản xuất</t>
@@ -1318,7 +1993,7 @@
     <t>hiện thông báo chưa chọn ngày sản xuất</t>
   </si>
   <si>
-    <t>26.10</t>
+    <t>36.10</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống hạn sử dụng</t>
@@ -1335,7 +2010,7 @@
     <t>hiện thông báo chưa chọn hạn sử dụng</t>
   </si>
   <si>
-    <t>26.11</t>
+    <t>36.11</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi ngày sản xuất lớn hơn hạn sử dụng</t>
@@ -1352,7 +2027,7 @@
     <t>hiện thông báo ngày sản xuất không lớn hơn ngày sử dụng</t>
   </si>
   <si>
-    <t>26.12</t>
+    <t>36.12</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi hạn sử dụng bé hơn ngày hiện tại</t>
@@ -1369,7 +2044,7 @@
     <t>hiện thông báo hạn sử dụng phải lớn hơn hiện tại</t>
   </si>
   <si>
-    <t>26.13</t>
+    <t>36.13</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1386,7 +2061,7 @@
     <t>thêm chi tiết phiếu nhập thành công</t>
   </si>
   <si>
-    <t>27.1</t>
+    <t>37.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm hóa đơn khi chưa nhập tên khách hàng</t>
@@ -1408,7 +2083,7 @@
     <t>hiện thông báo chưa nhập tên khách hàng</t>
   </si>
   <si>
-    <t>27.2</t>
+    <t>37.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi khách hàng chưa tồn tại</t>
@@ -1421,7 +2096,7 @@
     <t>hiện thông báo khách hàng chưa tồn tại và hiện nút thêm khách hàng</t>
   </si>
   <si>
-    <t>27.3</t>
+    <t>37.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi chưa chọn ngày</t>
@@ -1434,7 +2109,7 @@
     <t>hiện thông báo chưa chọn ngày</t>
   </si>
   <si>
-    <t>27.4</t>
+    <t>37.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
@@ -1447,7 +2122,7 @@
     <t>thêm hóa đơn thành công</t>
   </si>
   <si>
-    <t>28.1</t>
+    <t>38.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm chi tiết hóa đơn khi chưa nhập số lượng</t>
@@ -1470,7 +2145,7 @@
 số lượng:</t>
   </si>
   <si>
-    <t>28.2</t>
+    <t>38.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng không phải số</t>
@@ -1482,7 +2157,7 @@
 số lượng: abc</t>
   </si>
   <si>
-    <t>28.3</t>
+    <t>38.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng trong kho không đủ</t>
@@ -1497,7 +2172,7 @@
     <t>hiện thông báo số lượng không đủ</t>
   </si>
   <si>
-    <t>28.4</t>
+    <t>38.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
@@ -1512,7 +2187,7 @@
     <t>thêm chi tiết hóa đơn thành công và hiển thị chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>29.1</t>
+    <t>39.1</t>
   </si>
   <si>
     <t>Kiểm tra áp dụng giảm giá</t>
@@ -1537,7 +2212,7 @@
     <t>hiển thị số tiền sau giảm giá</t>
   </si>
   <si>
-    <t>30.1</t>
+    <t>40.1</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi chưa nhập tiền khách</t>
@@ -1564,7 +2239,7 @@
     <t>hiện thông báo chưa nhập tiền của khách</t>
   </si>
   <si>
-    <t>30.2</t>
+    <t>40.2</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách không phải số</t>
@@ -1576,7 +2251,7 @@
     <t>hiện thông báo tiền của khách phải là số</t>
   </si>
   <si>
-    <t>30.3</t>
+    <t>40.3</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách thấp hơn tổng tiền của hóa đơn</t>
@@ -1593,7 +2268,7 @@
     <t>hiện thông báo số tiền không hợp lệ</t>
   </si>
   <si>
-    <t>30.4</t>
+    <t>40.4</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách hợp lệ</t>
@@ -1610,7 +2285,7 @@
     <t>hiện thông báo thanh toán thành công là hiện tiền thối cho khách</t>
   </si>
   <si>
-    <t>31.1</t>
+    <t>41.1</t>
   </si>
   <si>
     <t>Kiểm tra xuất hóa đơn</t>
@@ -1639,7 +2314,7 @@
     <t>xuất ra file excel</t>
   </si>
   <si>
-    <t>32.1</t>
+    <t>42.1</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách phiếu nhập và hóa đơn</t>
@@ -1652,7 +2327,7 @@
     <t>hiển thị danh sách phiếu nhập và danh sách hóa đơn</t>
   </si>
   <si>
-    <t>33.1</t>
+    <t>43.1</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi chọn ngày thống kê không hợp lệ</t>
@@ -1672,7 +2347,7 @@
     <t>hiện thông báo ngày thống kê không hợp lệ</t>
   </si>
   <si>
-    <t>33.2</t>
+    <t>43.2</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi dữ liệu hợp lệ</t>
@@ -1685,7 +2360,7 @@
     <t>hiển thị biểu đồ sau khi thống kê</t>
   </si>
   <si>
-    <t>34.1</t>
+    <t>44.1</t>
   </si>
   <si>
     <t>Kiểm tra in thống kê</t>
@@ -1705,7 +2380,7 @@
 thư mục: Documents</t>
   </si>
   <si>
-    <t>35.1</t>
+    <t>45.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm</t>
@@ -1723,7 +2398,7 @@
     <t>hiển thị tất cả sản phẩm</t>
   </si>
   <si>
-    <t>35.2</t>
+    <t>45.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại</t>
@@ -1735,7 +2410,7 @@
     <t>hiện thông báo không tìm thấy sản phẩm</t>
   </si>
   <si>
-    <t>35.3</t>
+    <t>45.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
@@ -1753,7 +2428,7 @@
     <t>hiển thị sản phẩm với mã sản phẩm có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>36.1</t>
+    <t>46.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi không nhập tên loại hàng</t>
@@ -1769,7 +2444,7 @@
     <t>hiển thị tất cả loại hàng</t>
   </si>
   <si>
-    <t>36.2</t>
+    <t>46.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi nhập tên loại hàng không tồn tại</t>
@@ -1778,7 +2453,7 @@
     <t>hiện thông báo không tìm thấy loại hàng</t>
   </si>
   <si>
-    <t>36.3</t>
+    <t>46.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
@@ -1790,7 +2465,7 @@
     <t>hiển thị loại hàng với tên loại hàng có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>37.1</t>
+    <t>47.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi không nhập tên nhà cung cấp</t>
@@ -1806,7 +2481,7 @@
     <t>hiển thị tất cả nhà cung cấp</t>
   </si>
   <si>
-    <t>37.2</t>
+    <t>47.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập tên nhà cung cấp không tồn tại</t>
@@ -1815,7 +2490,7 @@
     <t>hiện thông báo không tìm thấy nhà cung cấp</t>
   </si>
   <si>
-    <t>37.3</t>
+    <t>47.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
@@ -1827,7 +2502,7 @@
     <t xml:space="preserve">hiển thị nhà cung cấp với tên nhà cung cấp có chứa kí tự muốn tìm kiếm </t>
   </si>
   <si>
-    <t>38.1</t>
+    <t>48.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi không nhập tên khách hàng</t>
@@ -1842,7 +2517,7 @@
     <t>hiển thị tất cả khách hàng</t>
   </si>
   <si>
-    <t>38.2</t>
+    <t>48.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi nhập tên khách hàng không tồn tại</t>
@@ -1851,7 +2526,7 @@
     <t>hiện thông báo không tìm thấy khách hàng</t>
   </si>
   <si>
-    <t>38.3</t>
+    <t>48.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
@@ -1863,7 +2538,7 @@
     <t>hiển thị khách hàng với tên khách hàng có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>39.1</t>
+    <t>49.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi không nhập tên nhân viên</t>
@@ -1878,7 +2553,7 @@
     <t>hiển thị tất cả nhân viên</t>
   </si>
   <si>
-    <t>39.2</t>
+    <t>49.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi nhập tên nhân viên không tồn tại</t>
@@ -1887,7 +2562,7 @@
     <t>hiện thông báo không tìm thấy nhân viên</t>
   </si>
   <si>
-    <t>39.3</t>
+    <t>49.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
@@ -1899,7 +2574,7 @@
     <t>hiển thị nhân viên với tên nhân viên có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>40.1</t>
+    <t>50.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên</t>
@@ -1914,7 +2589,7 @@
     <t>hiển thị tất cả tài khoản</t>
   </si>
   <si>
-    <t>40.2</t>
+    <t>50.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại</t>
@@ -1923,7 +2598,7 @@
     <t>hiện thông báo không tìm thấy tài khoản</t>
   </si>
   <si>
-    <t>40.3</t>
+    <t>50.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
@@ -2016,6 +2691,29 @@
     <t>TS5</t>
   </si>
   <si>
+    <t>Kiểm tra chức năng sửa nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa nhân viên khi để trống họ tên
+2. Kiểm tra sửa nhân viên khi họ tên không đúng định dạng
+3. Kiểm tra sửa nhân viên khi không chọn ngày sinh
+4. Kiểm tra sửa nhân viên khi tuổi không đủ 18
+5. Kiểm tra sửa nhân viên khi không chọn giới tính
+6. Kiểm tra sửa nhân viên khi để trống căn cước công dân
+7. Kiểm tra sửa nhân viên khi căn cước công dân không đủ 12 số
+8. Kiểm tra sửa nhân viên khi để trống số điện thoại
+9. Kiểm tra sửa nhân viên khi số điện thoại không phải số
+10. Kiểm tra sửa nhân viên khi số điện thoại không đúng định dạng
+11. Kiểm tra sửa nhân viên khi không chọn ngày vào làm
+12. Kiểm tra sửa nhân viên khi chọn chức vụ Admin với quyền quản lý
+13. Kiểm tra sửa nhân viên khi chọn chức vụ Quản lý với quyền quản lý
+14. Kiểm tra sửa nhân viên khi để trống địa chỉ
+15. Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS6</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng cho nghỉ nhân viên</t>
   </si>
   <si>
@@ -2024,7 +2722,7 @@
 3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
   </si>
   <si>
-    <t>TS6</t>
+    <t>TS7</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp nhân viên</t>
@@ -2034,7 +2732,7 @@
 2. Kiểm tra sắp xếp nhân viên theo mã nhân viên</t>
   </si>
   <si>
-    <t>TS7</t>
+    <t>TS8</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách tài khoản</t>
@@ -2043,22 +2741,36 @@
     <t>1. Kiểm tra hiển thị danh sách tài khoản</t>
   </si>
   <si>
-    <t>TS8</t>
+    <t>TS9</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm tài khoản</t>
   </si>
   <si>
-    <t>1. Kiểm tra thêm tài khoản khi tất cả nhân viên đều đã có tài khoản
-2. Kiểm tra thêm tài khoản khi để trống tên tài khoản 
-3. Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng
-4. Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại
-5. Kiểm tra thêm tài khoản khi để trống mật khẩu
-6. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
-7. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
-  </si>
-  <si>
-    <t>TS9</t>
+    <t>1. Kiểm tra sửa tài khoản khi tất cả nhân viên đều đã có tài khoản
+2. Kiểm tra sửa tài khoản khi để trống tên tài khoản 
+3. Kiểm tra sửa tài khoản khi tên khoản không đúng định dạng
+4. Kiểm tra sửa tài khoản khi tên tài khoản đã tồn tại
+5. Kiểm tra sửa tài khoản khi để trống mật khẩu
+6. Kiểm tra sửa tài khoản khi mật khẩu không đúng định dạng
+7. Kiểm tra sửa tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa tài khoản</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra thêm tài khoản khi để trống tên tài khoản 
+2. Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng
+3. Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại
+4. Kiểm tra thêm tài khoản khi để trống mật khẩu
+5. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
+6. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS11</t>
   </si>
   <si>
     <t>Kiểm tra chức năng ẩn tài khoản</t>
@@ -2068,7 +2780,7 @@
 2. Kiểm tra ẩn tài khoản với nhân viên đã nghỉ</t>
   </si>
   <si>
-    <t>TS10</t>
+    <t>TS12</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp tài khoản</t>
@@ -2078,7 +2790,7 @@
 2. Kiểm tra sắp xếp tài khoản theo mã nhân viên</t>
   </si>
   <si>
-    <t>TS11</t>
+    <t>TS13</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách sản phẩm</t>
@@ -2087,7 +2799,27 @@
     <t>1. Kiểm tra hiển thị danh sách sản phẩm</t>
   </si>
   <si>
-    <t>TS12</t>
+    <t>TS14</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa tên sản phẩm khi tên sản phẩm trống
+2. Kiểm tra sửa tên sản phẩm khi tên sản phẩm đã tồn tại
+3. Kiểm tra sửa tên sản phẩm khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS15</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>TS16</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra chức năng sắp xếp sản phẩm </t>
@@ -2097,7 +2829,7 @@
 2. Kiểm tra sắp xếp sản phẩm theo giá bán</t>
   </si>
   <si>
-    <t>TS13</t>
+    <t>TS17</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm sản phẩm theo loại hàng</t>
@@ -2106,7 +2838,7 @@
     <t>1. Kiểm tra tìm kiếm sản phẩm khi chọn loại hàng muốn tìm kiếm</t>
   </si>
   <si>
-    <t>TS14</t>
+    <t>TS18</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách loại hàng</t>
@@ -2115,7 +2847,7 @@
     <t>1. Kiểm tra hiển thị danh sách loại hàng</t>
   </si>
   <si>
-    <t>TS15</t>
+    <t>TS19</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm loại hàng</t>
@@ -2126,7 +2858,27 @@
 3. Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS16</t>
+    <t>TS20</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa loại hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa loại hàng khi để trống tên loại hàng
+2. Kiểm tra sửa loại hàng khi tên loại hàng đã tồn tại
+3. Kiểm tra sửa loại hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS21</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>TS22</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách nhà cung cấp</t>
@@ -2135,7 +2887,7 @@
     <t>1. Kiểm tra hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
-    <t>TS17</t>
+    <t>TS23</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm nhà cung cấp</t>
@@ -2150,7 +2902,31 @@
 7. Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS18</t>
+    <t>TS24</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa nhà cung cấp khi để trống tên nhà cung cấp
+2. Kiểm tra sửa nhà cung cấp khi tên nhà cung cấp đã tồn tại
+3. Kiểm tra sửa nhà cung cấp khi để trống địa chỉ
+4. Kiểm tra sửa nhà cung cấp khi để trống số điện thoại
+5. Kiểm tra sửa nhà cung cấp khi số điện thoại không phải số
+6. Kiểm tra sửa nhà cung cấp khi số điện thoại không đúng định dạng
+7. Kiểm tra sửa nhà cung cấp khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS25</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>TS26</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách số lượng sản phẩm trong kho</t>
@@ -2159,7 +2935,7 @@
     <t>1. Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
-    <t>TS19</t>
+    <t>TS27</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp sản phẩm trong  kho</t>
@@ -2169,7 +2945,7 @@
 2. Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
   </si>
   <si>
-    <t>TS20</t>
+    <t>TS28</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách khách hàng</t>
@@ -2178,7 +2954,7 @@
     <t>1. Kiểm tra hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>TS21</t>
+    <t>TS29</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm khách hàng</t>
@@ -2192,7 +2968,30 @@
 5. Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS22</t>
+    <t>TS30</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa khách hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa khách hàng khi để trống họ tên
+2. Kiểm tra sửa khách hàng khi họ tên không đúng định dạng
+3. Kiểm tra sửa khách hàng khi để trống số điện thoại
+4. Kiểm tra sửa khách hàng khi số điện thoại không phải số
+4. Kiểm tra sửa khách hàng khi số điện thoại không đúng định dạng
+5. Kiểm tra sửa khách hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS31</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>TS32</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp khách hàng</t>
@@ -2202,7 +3001,7 @@
 2. Kiểm tra sắp xếp khách hàng theo tên</t>
   </si>
   <si>
-    <t>TS23</t>
+    <t>TS33</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị phiếu nhập</t>
@@ -2211,7 +3010,7 @@
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
-    <t>TS24</t>
+    <t>TS34</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm phiếu nhập</t>
@@ -2220,7 +3019,7 @@
     <t>1. Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS25</t>
+    <t>TS35</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị chi tiết phiếu nhập</t>
@@ -2229,7 +3028,7 @@
     <t>1. Kiểm tra hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
-    <t>TS26</t>
+    <t>TS36</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết phiếu nhập</t>
@@ -2250,7 +3049,7 @@
 13. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS27</t>
+    <t>TS37</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm hóa đơn</t>
@@ -2262,7 +3061,7 @@
 4. Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS28</t>
+    <t>TS38</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết hóa đơn</t>
@@ -2274,7 +3073,7 @@
 4. Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
   </si>
   <si>
-    <t>TS29</t>
+    <t>TS39</t>
   </si>
   <si>
     <t>Kiểm tra chức năng áp dụng giảm giá</t>
@@ -2283,7 +3082,7 @@
     <t>1. Kiểm tra áp dụng giảm giá</t>
   </si>
   <si>
-    <t>TS30</t>
+    <t>TS40</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thanh toán</t>
@@ -2295,7 +3094,7 @@
 4. Kiểm tra thanh toán khi tiền khách hợp lệ</t>
   </si>
   <si>
-    <t>TS31</t>
+    <t>TS41</t>
   </si>
   <si>
     <t>Kiểm tra chức năng xuất hóa đơn</t>
@@ -2304,13 +3103,13 @@
     <t>1. Kiểm tra xuất hóa đơn</t>
   </si>
   <si>
-    <t>TS32</t>
+    <t>TS42</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập và hóa đơn</t>
   </si>
   <si>
-    <t>TS33</t>
+    <t>TS43</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thống kê</t>
@@ -2320,7 +3119,7 @@
 2. Kiểm tra thống kê khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS34</t>
+    <t>TS44</t>
   </si>
   <si>
     <t>Kiểm tra chức năng in thống kê</t>
@@ -2329,7 +3128,7 @@
     <t>1. Kiểm tra in thống kê</t>
   </si>
   <si>
-    <t>TS35</t>
+    <t>TS45</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo mã sản phẩm</t>
@@ -2340,7 +3139,7 @@
 3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
   </si>
   <si>
-    <t>TS36</t>
+    <t>TS46</t>
   </si>
   <si>
     <t>kiểm tra chức năng tìm kiếm loại hàng theo tên loại hàng</t>
@@ -2351,7 +3150,7 @@
 3. Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
   </si>
   <si>
-    <t>TS37</t>
+    <t>TS47</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm nhà cung cấp theo tên nhà cung cấp</t>
@@ -2362,7 +3161,7 @@
 3. Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
   </si>
   <si>
-    <t>TS38</t>
+    <t>TS48</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm khách hàng theo tên khách hàng</t>
@@ -2373,7 +3172,7 @@
 3. Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
   </si>
   <si>
-    <t>TS39</t>
+    <t>TS49</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm nhân viên theo tên nhân viên</t>
@@ -2384,7 +3183,7 @@
 3. Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
   </si>
   <si>
-    <t>TS40</t>
+    <t>TS50</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm tài khoản theo mã nhân viên</t>
@@ -3051,7 +3850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3060,9 +3859,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3603,10 +4399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H121"/>
+  <dimension ref="B1:H165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3623,8 +4419,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
-    <row r="2" ht="14.55" spans="2:8">
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="15.15" spans="2:8">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4146,7 +4942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="100.8" spans="2:8">
+    <row r="25" ht="244.8" spans="2:8">
       <c r="B25" s="3" t="s">
         <v>96</v>
       </c>
@@ -4160,16 +4956,16 @@
         <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="100.8" spans="2:8">
+    <row r="26" ht="244.8" spans="2:8">
       <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
@@ -4183,16 +4979,16 @@
         <v>102</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="100.8" spans="2:8">
+    <row r="27" ht="244.8" spans="2:8">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -4206,705 +5002,717 @@
         <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="244.8" spans="2:8">
+      <c r="B28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="86.4" spans="2:8">
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="244.8" spans="2:8">
+      <c r="B29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="86.4" spans="2:8">
-      <c r="B29" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="244.8" spans="2:8">
+      <c r="B30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="244.8" spans="2:8">
+      <c r="B31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:8">
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="244.8" spans="2:8">
+      <c r="B32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" ht="115.2" spans="2:8">
-      <c r="B31" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="244.8" spans="2:8">
+      <c r="B33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="115.2" spans="2:8">
-      <c r="B32" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="244.8" spans="2:8">
+      <c r="B34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="244.8" spans="2:8">
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="244.8" spans="2:8">
+      <c r="B36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="244.8" spans="2:8">
+      <c r="B37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="244.8" spans="2:8">
+      <c r="B38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="244.8" spans="2:8">
+      <c r="B39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="100.8" spans="2:8">
+      <c r="B40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="100.8" spans="2:8">
+      <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="100.8" spans="2:8">
+      <c r="B42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="86.4" spans="2:8">
+      <c r="B43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="86.4" spans="2:8">
+      <c r="B44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="57.6" spans="2:8">
+      <c r="B45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="115.2" spans="2:8">
+      <c r="B46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="115.2" spans="2:8">
+      <c r="B47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" ht="115.2" spans="2:8">
-      <c r="B33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" ht="115.2" spans="2:8">
-      <c r="B34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="115.2" spans="2:8">
-      <c r="B35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="115.2" spans="2:8">
+      <c r="B48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="115.2" spans="2:8">
+      <c r="B49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="115.2" spans="2:8">
+      <c r="B50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" ht="115.2" spans="2:8">
-      <c r="B36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" ht="115.2" spans="2:8">
-      <c r="B37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="100.8" spans="2:8">
-      <c r="B38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" ht="100.8" spans="2:8">
-      <c r="B39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="86.4" spans="2:8">
-      <c r="B40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="86.4" spans="2:8">
-      <c r="B41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="86.4" spans="2:8">
-      <c r="B42" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="115.2" spans="2:8">
-      <c r="B43" s="3" t="s">
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="115.2" spans="2:8">
+      <c r="B51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="115.2" spans="2:8">
-      <c r="B44" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="115.2" spans="2:8">
+      <c r="B52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="144" spans="2:8">
+      <c r="B53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="144" spans="2:8">
+      <c r="B54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="129.6" spans="2:8">
-      <c r="B45" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="144" spans="2:8">
+      <c r="B55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="129.6" spans="2:8">
-      <c r="B46" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="158.4" spans="2:8">
-      <c r="B47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="144" spans="2:8">
+      <c r="B56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="144" spans="2:8">
+      <c r="B57" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="158.4" spans="2:8">
-      <c r="B48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="144" spans="2:8">
+      <c r="B58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="158.4" spans="2:8">
-      <c r="B49" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="100.8" spans="2:8">
-      <c r="B50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="187.2" spans="2:8">
-      <c r="B51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="187.2" spans="2:8">
-      <c r="B52" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="187.2" spans="2:8">
-      <c r="B53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="187.2" spans="2:8">
-      <c r="B54" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="187.2" spans="2:8">
-      <c r="B55" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="187.2" spans="2:8">
-      <c r="B56" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="187.2" spans="2:8">
-      <c r="B57" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="72" spans="2:8">
-      <c r="B58" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -4912,22 +5720,22 @@
     </row>
     <row r="59" ht="100.8" spans="2:8">
       <c r="B59" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -4935,22 +5743,22 @@
     </row>
     <row r="60" ht="100.8" spans="2:8">
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -4958,65 +5766,65 @@
     </row>
     <row r="61" ht="86.4" spans="2:8">
       <c r="B61" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="144" spans="2:8">
+    <row r="62" ht="86.4" spans="2:8">
       <c r="B62" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="144" spans="2:8">
+    <row r="63" ht="86.4" spans="2:8">
       <c r="B63" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
@@ -5024,22 +5832,22 @@
     </row>
     <row r="64" ht="144" spans="2:8">
       <c r="B64" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>12</v>
@@ -5047,22 +5855,22 @@
     </row>
     <row r="65" ht="144" spans="2:8">
       <c r="B65" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>12</v>
@@ -5070,45 +5878,45 @@
     </row>
     <row r="66" ht="144" spans="2:8">
       <c r="B66" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="129.6" spans="2:8">
+      <c r="B67" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="144" spans="2:8">
-      <c r="B67" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>12</v>
@@ -5116,22 +5924,22 @@
     </row>
     <row r="68" ht="115.2" spans="2:8">
       <c r="B68" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>12</v>
@@ -5139,571 +5947,568 @@
     </row>
     <row r="69" ht="115.2" spans="2:8">
       <c r="B69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="129.6" spans="2:8">
+      <c r="B70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="129.6" spans="2:8">
+      <c r="B71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="158.4" spans="2:8">
+      <c r="B72" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="72" spans="2:8">
-      <c r="B70" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="G72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="158.4" spans="2:8">
+      <c r="B73" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="D73" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" ht="115.2" spans="2:8">
-      <c r="B71" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="G73" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="158.4" spans="2:8">
+      <c r="B74" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="100.8" spans="2:8">
-      <c r="B72" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="187.2" spans="2:8">
+      <c r="B75" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F75" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="187.2" spans="2:8">
+      <c r="B76" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="115.2" spans="2:8">
-      <c r="B73" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="F76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="187.2" spans="2:8">
+      <c r="B77" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" ht="216" spans="2:8">
-      <c r="B74" s="3" t="s">
+      <c r="D77" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="G77" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="158.4" spans="2:8">
+      <c r="B78" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="216" spans="2:8">
-      <c r="B75" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="G78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="100.8" spans="2:8">
+      <c r="B79" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="216" spans="2:8">
-      <c r="B76" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="187.2" spans="2:8">
+      <c r="B80" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" ht="216" spans="2:8">
-      <c r="B77" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G80" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="187.2" spans="2:8">
+      <c r="B81" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" ht="216" spans="2:8">
-      <c r="B78" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G81" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="187.2" spans="2:8">
+      <c r="B82" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" ht="216" spans="2:8">
-      <c r="B79" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D82" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="187.2" spans="2:8">
+      <c r="B83" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="216" spans="2:8">
-      <c r="B80" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="F83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="187.2" spans="2:8">
+      <c r="B84" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" ht="216" spans="2:8">
-      <c r="B81" s="3" t="s">
+      <c r="F84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="187.2" spans="2:8">
+      <c r="B85" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="187.2" spans="2:8">
+      <c r="B86" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="216" spans="2:8">
-      <c r="B82" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="G86" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="216" spans="2:8">
+      <c r="B87" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="216" spans="2:8">
-      <c r="B83" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F87" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="216" spans="2:8">
+      <c r="B88" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="216" spans="2:8">
-      <c r="B84" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="F88" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="216" spans="2:8">
+      <c r="B89" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="216" spans="2:8">
-      <c r="B85" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="F89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="216" spans="2:8">
+      <c r="B90" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="172.8" spans="2:8">
-      <c r="B86" s="3" t="s">
+      <c r="F90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="216" spans="2:8">
+      <c r="B91" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="216" spans="2:8">
+      <c r="B92" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="172.8" spans="2:8">
-      <c r="B87" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="F92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="216" spans="2:8">
+      <c r="B93" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="172.8" spans="2:8">
-      <c r="B88" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" ht="172.8" spans="2:8">
-      <c r="B89" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="201.6" spans="2:8">
-      <c r="B90" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="201.6" spans="2:8">
-      <c r="B91" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" ht="201.6" spans="2:8">
-      <c r="B92" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" ht="201.6" spans="2:8">
-      <c r="B93" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="G93" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>12</v>
@@ -5711,157 +6516,154 @@
     </row>
     <row r="94" ht="144" spans="2:8">
       <c r="B94" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="72" spans="2:8">
+      <c r="B95" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="100.8" spans="2:8">
+      <c r="B96" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="100.8" spans="2:8">
+      <c r="B97" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="86.4" spans="2:8">
+      <c r="B98" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="144" spans="2:8">
+      <c r="B99" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="144" spans="2:8">
+      <c r="B100" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" ht="172.8" spans="2:8">
-      <c r="B95" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D100" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="172.8" spans="2:8">
-      <c r="B96" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="172.8" spans="2:8">
-      <c r="B97" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" ht="172.8" spans="2:8">
-      <c r="B98" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="187.2" spans="2:8">
-      <c r="B99" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="72" spans="2:8">
-      <c r="B100" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="F100" s="3" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -5869,22 +6671,22 @@
     </row>
     <row r="101" ht="144" spans="2:8">
       <c r="B101" s="3" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -5892,252 +6694,252 @@
     </row>
     <row r="102" ht="144" spans="2:8">
       <c r="B102" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="144" spans="2:8">
+      <c r="B103" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="144" spans="2:8">
+      <c r="B104" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="172.8" spans="2:8">
+      <c r="B105" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="172.8" spans="2:8">
+      <c r="B106" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="172.8" spans="2:8">
+      <c r="B107" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="172.8" spans="2:8">
+      <c r="B108" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="172.8" spans="2:8">
+      <c r="B109" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="172.8" spans="2:8">
+      <c r="B110" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D110" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" ht="187.2" spans="2:8">
-      <c r="B103" s="3" t="s">
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="129.6" spans="2:8">
+      <c r="B111" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" ht="115.2" spans="2:8">
-      <c r="B104" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="G111" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="115.2" spans="2:8">
+      <c r="B112" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" ht="115.2" spans="2:8">
-      <c r="B105" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="115.2" spans="2:8">
-      <c r="B106" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" ht="158.4" spans="2:8">
-      <c r="B107" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="158.4" spans="2:8">
-      <c r="B108" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" ht="158.4" spans="2:8">
-      <c r="B109" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" ht="144" spans="2:8">
-      <c r="B110" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" ht="144" spans="2:8">
-      <c r="B111" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" ht="144" spans="2:8">
-      <c r="B112" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="G112" s="3" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>12</v>
@@ -6145,45 +6947,42 @@
     </row>
     <row r="113" ht="115.2" spans="2:8">
       <c r="B113" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" ht="115.2" spans="2:8">
+    <row r="114" ht="72" spans="2:8">
       <c r="B114" s="3" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>12</v>
@@ -6191,22 +6990,22 @@
     </row>
     <row r="115" ht="115.2" spans="2:8">
       <c r="B115" s="3" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>12</v>
@@ -6214,139 +7013,1148 @@
     </row>
     <row r="116" ht="100.8" spans="2:8">
       <c r="B116" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="115.2" spans="2:8">
+      <c r="B117" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="216" spans="2:8">
+      <c r="B118" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="216" spans="2:8">
+      <c r="B119" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="216" spans="2:8">
+      <c r="B120" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="216" spans="2:8">
+      <c r="B121" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="216" spans="2:8">
+      <c r="B122" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="G122" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="216" spans="2:8">
+      <c r="B123" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" ht="100.8" spans="2:8">
-      <c r="B117" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="G123" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="216" spans="2:8">
+      <c r="B124" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" ht="100.8" spans="2:8">
-      <c r="B118" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="G124" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="216" spans="2:8">
+      <c r="B125" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" ht="100.8" spans="2:8">
-      <c r="B119" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="G125" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="216" spans="2:8">
+      <c r="B126" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" ht="100.8" spans="2:8">
-      <c r="B120" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="G126" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="216" spans="2:8">
+      <c r="B127" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" ht="100.8" spans="2:8">
-      <c r="B121" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D127" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="G127" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="216" spans="2:8">
+      <c r="B128" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H121" s="3" t="s">
+      <c r="C128" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="216" spans="2:8">
+      <c r="B129" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="172.8" spans="2:8">
+      <c r="B130" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="172.8" spans="2:8">
+      <c r="B131" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="172.8" spans="2:8">
+      <c r="B132" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="172.8" spans="2:8">
+      <c r="B133" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="201.6" spans="2:8">
+      <c r="B134" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="201.6" spans="2:8">
+      <c r="B135" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="201.6" spans="2:8">
+      <c r="B136" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="201.6" spans="2:8">
+      <c r="B137" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="144" spans="2:8">
+      <c r="B138" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="172.8" spans="2:8">
+      <c r="B139" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="172.8" spans="2:8">
+      <c r="B140" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="172.8" spans="2:8">
+      <c r="B141" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="172.8" spans="2:8">
+      <c r="B142" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="187.2" spans="2:8">
+      <c r="B143" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="72" spans="2:8">
+      <c r="B144" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="144" spans="2:8">
+      <c r="B145" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="144" spans="2:8">
+      <c r="B146" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" ht="187.2" spans="2:8">
+      <c r="B147" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" ht="115.2" spans="2:8">
+      <c r="B148" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" ht="115.2" spans="2:8">
+      <c r="B149" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" ht="115.2" spans="2:8">
+      <c r="B150" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="158.4" spans="2:8">
+      <c r="B151" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" ht="158.4" spans="2:8">
+      <c r="B152" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" ht="158.4" spans="2:8">
+      <c r="B153" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" ht="144" spans="2:8">
+      <c r="B154" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" ht="144" spans="2:8">
+      <c r="B155" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" ht="144" spans="2:8">
+      <c r="B156" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" ht="115.2" spans="2:8">
+      <c r="B157" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" ht="115.2" spans="2:8">
+      <c r="B158" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" ht="115.2" spans="2:8">
+      <c r="B159" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" ht="100.8" spans="2:8">
+      <c r="B160" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" ht="100.8" spans="2:8">
+      <c r="B161" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" ht="100.8" spans="2:8">
+      <c r="B162" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" ht="100.8" spans="2:8">
+      <c r="B163" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" ht="100.8" spans="2:8">
+      <c r="B164" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" ht="100.8" spans="2:8">
+      <c r="B165" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H165" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6359,13 +8167,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D42"/>
+  <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
     <col min="3" max="3" width="61.8888888888889" customWidth="1"/>
@@ -6373,455 +8181,566 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
-    <row r="2" ht="15.15" spans="2:4">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>638</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>487</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
       <c r="B3" t="s">
-        <v>488</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
+        <v>641</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>490</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>491</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>644</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>494</v>
+        <v>646</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>647</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
       <c r="B6" t="s">
-        <v>497</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
-        <v>498</v>
+        <v>650</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="2:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" ht="216" spans="2:4">
       <c r="B7" t="s">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>653</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="2:4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="2:4">
       <c r="B8" t="s">
-        <v>503</v>
+        <v>655</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>656</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="2:4">
       <c r="B9" t="s">
-        <v>506</v>
+        <v>658</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" ht="100.8" spans="2:4">
+        <v>659</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>509</v>
+        <v>661</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="2:4">
+        <v>662</v>
+      </c>
+      <c r="D10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="2:4">
       <c r="B11" t="s">
-        <v>512</v>
+        <v>664</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>665</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="2:4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" ht="86.4" spans="2:6">
       <c r="B12" t="s">
-        <v>515</v>
+        <v>667</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>668</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>669</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="28.8" spans="2:4">
       <c r="B13" t="s">
-        <v>518</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" t="s">
-        <v>520</v>
+        <v>671</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
       <c r="B14" t="s">
-        <v>521</v>
+        <v>673</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>674</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>523</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>524</v>
+        <v>676</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="D15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="2:4">
       <c r="B16" t="s">
-        <v>527</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
-      </c>
-      <c r="D16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" ht="43.2" spans="2:4">
+        <v>680</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>530</v>
+        <v>682</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>683</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="2:4">
       <c r="B18" t="s">
-        <v>533</v>
+        <v>685</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
-      </c>
-      <c r="D18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" ht="100.8" spans="2:4">
+        <v>686</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>536</v>
+        <v>688</v>
       </c>
       <c r="C19" t="s">
-        <v>537</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>538</v>
+        <v>689</v>
+      </c>
+      <c r="D19" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>539</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
-        <v>540</v>
+        <v>692</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" spans="2:4">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="2:4">
       <c r="B21" t="s">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="C21" t="s">
-        <v>543</v>
+        <v>695</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="2:4">
       <c r="B22" t="s">
-        <v>545</v>
+        <v>697</v>
       </c>
       <c r="C22" t="s">
-        <v>546</v>
-      </c>
-      <c r="D22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" ht="86.4" spans="2:4">
+        <v>698</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>548</v>
+        <v>700</v>
       </c>
       <c r="C23" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="2:4">
+        <v>701</v>
+      </c>
+      <c r="D23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>551</v>
+        <v>703</v>
       </c>
       <c r="C24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>704</v>
+      </c>
+      <c r="D24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="2:4">
       <c r="B25" t="s">
-        <v>554</v>
+        <v>706</v>
       </c>
       <c r="C25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>707</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="2:4">
       <c r="B26" t="s">
-        <v>557</v>
+        <v>709</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" t="s">
-        <v>559</v>
+        <v>710</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>560</v>
+        <v>712</v>
       </c>
       <c r="C27" t="s">
-        <v>561</v>
+        <v>713</v>
       </c>
       <c r="D27" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="28" ht="187.2" spans="2:4">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>563</v>
+        <v>715</v>
       </c>
       <c r="C28" t="s">
-        <v>564</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" ht="57.6" spans="2:4">
+        <v>716</v>
+      </c>
+      <c r="D28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="2:4">
       <c r="B29" t="s">
-        <v>566</v>
+        <v>718</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>719</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:4">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>569</v>
+        <v>721</v>
       </c>
       <c r="C30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>722</v>
+      </c>
+      <c r="D30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="31" ht="86.4" spans="2:4">
       <c r="B31" t="s">
-        <v>572</v>
+        <v>724</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
-      </c>
-      <c r="D31" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" ht="57.6" spans="2:4">
+        <v>725</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" ht="86.4" spans="2:4">
       <c r="B32" t="s">
-        <v>575</v>
+        <v>727</v>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>728</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>577</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>578</v>
+        <v>730</v>
       </c>
       <c r="C33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>731</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="2:4">
       <c r="B34" t="s">
-        <v>581</v>
+        <v>733</v>
       </c>
       <c r="C34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="2:4">
+        <v>734</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>583</v>
+        <v>736</v>
       </c>
       <c r="C35" t="s">
-        <v>584</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>585</v>
+        <v>737</v>
+      </c>
+      <c r="D35" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>586</v>
+        <v>739</v>
       </c>
       <c r="C36" t="s">
-        <v>587</v>
+        <v>740</v>
       </c>
       <c r="D36" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="37" ht="43.2" spans="2:4">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>589</v>
+        <v>742</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="38" ht="43.2" spans="2:4">
+        <v>743</v>
+      </c>
+      <c r="D37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" ht="187.2" spans="2:4">
       <c r="B38" t="s">
-        <v>592</v>
+        <v>745</v>
       </c>
       <c r="C38" t="s">
-        <v>593</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="39" ht="43.2" spans="2:4">
+        <v>746</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="39" ht="57.6" spans="2:4">
       <c r="B39" t="s">
-        <v>595</v>
+        <v>748</v>
       </c>
       <c r="C39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" ht="43.2" spans="2:4">
+        <v>749</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" ht="57.6" spans="2:4">
       <c r="B40" t="s">
-        <v>598</v>
+        <v>751</v>
       </c>
       <c r="C40" t="s">
-        <v>599</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" ht="43.2" spans="2:4">
+        <v>752</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>601</v>
+        <v>754</v>
       </c>
       <c r="C41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="42" ht="43.2" spans="2:4">
+        <v>755</v>
+      </c>
+      <c r="D41" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" ht="57.6" spans="2:4">
       <c r="B42" t="s">
-        <v>604</v>
+        <v>757</v>
       </c>
       <c r="C42" t="s">
-        <v>605</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>606</v>
+        <v>758</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>760</v>
+      </c>
+      <c r="C43" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>763</v>
+      </c>
+      <c r="C44" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="2:4">
+      <c r="B45" t="s">
+        <v>765</v>
+      </c>
+      <c r="C45" t="s">
+        <v>766</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D46" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47" ht="43.2" spans="2:4">
+      <c r="B47" t="s">
+        <v>771</v>
+      </c>
+      <c r="C47" t="s">
+        <v>772</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="48" ht="43.2" spans="2:4">
+      <c r="B48" t="s">
+        <v>774</v>
+      </c>
+      <c r="C48" t="s">
+        <v>775</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="2:4">
+      <c r="B49" t="s">
+        <v>777</v>
+      </c>
+      <c r="C49" t="s">
+        <v>778</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" ht="43.2" spans="2:4">
+      <c r="B50" t="s">
+        <v>780</v>
+      </c>
+      <c r="C50" t="s">
+        <v>781</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" ht="43.2" spans="2:4">
+      <c r="B51" t="s">
+        <v>783</v>
+      </c>
+      <c r="C51" t="s">
+        <v>784</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" spans="2:4">
+      <c r="B52" t="s">
+        <v>786</v>
+      </c>
+      <c r="C52" t="s">
+        <v>787</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="828">
   <si>
     <r>
       <rPr>
@@ -725,10 +725,28 @@
     <t>5.14</t>
   </si>
   <si>
+    <t>Kiểm tra sửa nhân viên khi sửa chính mình</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn chính mình trong danh sách
+4. Nhấn sửa</t>
+  </si>
+  <si>
+    <t>mã nhân viên NV001</t>
+  </si>
+  <si>
+    <t>không cho sửa chức vụ</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
     <t>Kiểm tra sửa nhân viên khi để trống địa chỉ</t>
   </si>
   <si>
-    <t>5.15</t>
+    <t>5.16</t>
   </si>
   <si>
     <t>Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
@@ -787,6 +805,25 @@
     <t>cho nghỉ nhân viên thành công</t>
   </si>
   <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra cho nghỉ nhân viên khi cho nghỉ chính mình</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn chính mình trong danh sách
+4. Nhấn nghỉ việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mã nhân viên: NV001
+</t>
+  </si>
+  <si>
+    <t>hiện thông báo không thể cho nghỉ chính mình</t>
+  </si>
+  <si>
     <t>7.1</t>
   </si>
   <si>
@@ -1007,10 +1044,6 @@
 2. Chọn chức năng tài khoản ở màn hình chính
 3. Chọn 1 tài khoản trong danh sách
 4. Nhấn ẩn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mã nhân viên: NV001
-</t>
   </si>
   <si>
     <t>hiện thông báo không thể ẩn tài khoản</t>
@@ -2383,12 +2416,12 @@
     <t>45.1</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm</t>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập tên sản phẩm</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên Kho
 2. Chọn chức năng kho ở màn hình chính
-3. Nhập mã sản phẩm vào ô tìm kiếm
+3. Nhập tên sản phẩm vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
@@ -2401,7 +2434,7 @@
     <t>45.2</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại</t>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập tên sản phẩm không tồn tại</t>
   </si>
   <si>
     <t>tìm kiếm: abc123</t>
@@ -2413,19 +2446,19 @@
     <t>45.3</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng tên sản phẩm</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
 2. Chọn chức năng kho ở màn hình chính
-3. Nhập mã sản phẩm vào ô tìm kiếm
+3. Nhập tên sản phẩm vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
-    <t>tìm kiếm: SP01</t>
-  </si>
-  <si>
-    <t>hiển thị sản phẩm với mã sản phẩm có chứa kí tự muốn tìm kiếm</t>
+    <t>tìm kiếm: cá</t>
+  </si>
+  <si>
+    <t>hiển thị sản phẩm với tên sản phẩm có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
     <t>46.1</t>
@@ -2577,12 +2610,12 @@
     <t>50.1</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên</t>
+    <t>Kiểm tra tìm kiếm tài khoản khi không nhập tên nhân viên</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Admin
 2. Chọn chức năng tài khoản ở màn hình chính
-3. Nhập mã nhân viên vào ô tìm kiếm
+3. Nhập tên nhân viên vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
@@ -2592,7 +2625,7 @@
     <t>50.2</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại</t>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập tên nhân viên không tồn tại</t>
   </si>
   <si>
     <t>hiện thông báo không tìm thấy tài khoản</t>
@@ -2601,13 +2634,97 @@
     <t>50.3</t>
   </si>
   <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
-  </si>
-  <si>
-    <t>tìm kiếm: NV00</t>
-  </si>
-  <si>
-    <t>hiển thị tài khoản với mã nhân viên có chứa kí tự muốn tìm kiếm</t>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>tìm kiếm: khôi</t>
+  </si>
+  <si>
+    <t>hiển thị tài khoản với tên nhân viên có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: ADMIN
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của admin, hiển thị các chức năng admin có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền quản lý</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: TRUONGBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của quản lý, hiển thị các chức năng quản lý có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên bán hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Nhân viên bán hàng
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: XINHBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của nhân viên bán hàng, hiển thị các chức năng nhân viên bán hàng có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên kho</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Nhân viên kho
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: NGUYENBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của nhân viên kho, hiển thị các chức năng nhân viên kho có thể truy cập</t>
+  </si>
+  <si>
+    <t>52.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra hủy hóa đơn</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng hóa đơn trên màn hình chính
+3. Thêm hóa đơn
+4. Thêm chi tiết hóa đơn
+5. Nhấn hủy</t>
+  </si>
+  <si>
+    <t>hủy hóa đơn và không lưu vào cơ sở dữ liệu</t>
   </si>
   <si>
     <r>
@@ -2707,8 +2824,9 @@
 11. Kiểm tra sửa nhân viên khi không chọn ngày vào làm
 12. Kiểm tra sửa nhân viên khi chọn chức vụ Admin với quyền quản lý
 13. Kiểm tra sửa nhân viên khi chọn chức vụ Quản lý với quyền quản lý
-14. Kiểm tra sửa nhân viên khi để trống địa chỉ
-15. Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
+14. Kiểm tra sửa nhân viên khi sửa chính mình
+15. Kiểm tra sửa nhân viên khi để trống địa chỉ
+16. Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
   </si>
   <si>
     <t>TS6</t>
@@ -2718,8 +2836,9 @@
   </si>
   <si>
     <t>1. Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý
-2. Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý 
-3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
+2. Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý
+3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn
+4. Kiểm tra cho nghỉ nhân viên khi cho nghỉ chính mình</t>
   </si>
   <si>
     <t>TS7</t>
@@ -3131,12 +3250,12 @@
     <t>TS45</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo mã sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm
-2. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại
-3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
+    <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập tên sản phẩm
+2. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập tên sản phẩm không tồn tại
+3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng tên sản phẩm</t>
   </si>
   <si>
     <t>TS46</t>
@@ -3186,12 +3305,33 @@
     <t>TS50</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng tìm kiếm tài khoản theo mã nhân viên</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên
-2. Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại
-3. Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
+    <t>Kiểm tra chức năng tìm kiếm tài khoản theo tên nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm tài khoản khi không nhập tên nhân viên
+2. Kiểm tra tìm kiếm tài khoản khi nhập tên nhân viên không tồn tại
+3. Kiểm tra tìm kiếm tài khoản khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>TS51</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng hiển thị giao diện khi đăng nhập với các quyền</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra hiển thị giao diện khi đăng nhập với quyền admin
+2. Kiểm tra hiển thị giao diện khi đăng nhập với quyền quản lý
+3. Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên bán hàng
+4. Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên kho</t>
+  </si>
+  <si>
+    <t>TS52</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng hủy hóa đơn</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra hủy hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -3850,7 +3990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3859,6 +3999,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4399,10 +4542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H165"/>
+  <dimension ref="B1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4420,7 +4563,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="15.15" spans="2:8">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5241,7 +5384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="244.8" spans="2:8">
+    <row r="38" ht="100.8" spans="2:8">
       <c r="B38" s="3" t="s">
         <v>136</v>
       </c>
@@ -5249,16 +5392,16 @@
         <v>137</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>12</v>
@@ -5266,45 +5409,45 @@
     </row>
     <row r="39" ht="244.8" spans="2:8">
       <c r="B39" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="100.8" spans="2:8">
+    <row r="40" ht="244.8" spans="2:8">
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>12</v>
@@ -5312,16 +5455,16 @@
     </row>
     <row r="41" ht="100.8" spans="2:8">
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>85</v>
@@ -5335,36 +5478,36 @@
     </row>
     <row r="42" ht="100.8" spans="2:8">
       <c r="B42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="86.4" spans="2:8">
+    <row r="43" ht="100.8" spans="2:8">
       <c r="B43" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>156</v>
@@ -5379,7 +5522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" ht="86.4" spans="2:8">
+    <row r="44" ht="100.8" spans="2:8">
       <c r="B44" s="3" t="s">
         <v>158</v>
       </c>
@@ -5387,79 +5530,82 @@
         <v>159</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="57.6" spans="2:8">
+    <row r="45" ht="86.4" spans="2:8">
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="86.4" spans="2:8">
+      <c r="B46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="115.2" spans="2:8">
-      <c r="B46" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>168</v>
+      <c r="E46" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" ht="115.2" spans="2:8">
+    <row r="47" ht="57.6" spans="2:8">
       <c r="B47" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>12</v>
@@ -5467,22 +5613,19 @@
     </row>
     <row r="48" ht="115.2" spans="2:8">
       <c r="B48" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -5490,22 +5633,22 @@
     </row>
     <row r="49" ht="115.2" spans="2:8">
       <c r="B49" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -5513,22 +5656,22 @@
     </row>
     <row r="50" ht="115.2" spans="2:8">
       <c r="B50" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>12</v>
@@ -5536,22 +5679,22 @@
     </row>
     <row r="51" ht="115.2" spans="2:8">
       <c r="B51" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>12</v>
@@ -5559,68 +5702,68 @@
     </row>
     <row r="52" ht="115.2" spans="2:8">
       <c r="B52" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" ht="144" spans="2:8">
+    <row r="53" ht="115.2" spans="2:8">
       <c r="B53" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="144" spans="2:8">
+    <row r="54" ht="115.2" spans="2:8">
       <c r="B54" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -5628,22 +5771,22 @@
     </row>
     <row r="55" ht="144" spans="2:8">
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>12</v>
@@ -5651,22 +5794,22 @@
     </row>
     <row r="56" ht="144" spans="2:8">
       <c r="B56" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>12</v>
@@ -5674,22 +5817,22 @@
     </row>
     <row r="57" ht="144" spans="2:8">
       <c r="B57" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -5697,85 +5840,85 @@
     </row>
     <row r="58" ht="144" spans="2:8">
       <c r="B58" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" ht="100.8" spans="2:8">
+    <row r="59" ht="144" spans="2:8">
       <c r="B59" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="100.8" spans="2:8">
+    <row r="60" ht="144" spans="2:8">
       <c r="B60" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" ht="86.4" spans="2:8">
+    <row r="61" ht="100.8" spans="2:8">
       <c r="B61" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>225</v>
@@ -5787,7 +5930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="86.4" spans="2:8">
+    <row r="62" ht="100.8" spans="2:8">
       <c r="B62" s="3" t="s">
         <v>226</v>
       </c>
@@ -5795,7 +5938,7 @@
         <v>227</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>228</v>
@@ -5820,25 +5963,28 @@
       <c r="D63" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="E63" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="F63" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" ht="144" spans="2:8">
+    <row r="64" ht="86.4" spans="2:8">
       <c r="B64" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>237</v>
@@ -5853,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="144" spans="2:8">
+    <row r="65" ht="86.4" spans="2:8">
       <c r="B65" s="3" t="s">
         <v>239</v>
       </c>
@@ -5861,9 +6007,6 @@
         <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="3" t="s">
         <v>241</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -5884,30 +6027,30 @@
         <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="144" spans="2:8">
+      <c r="B67" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="129.6" spans="2:8">
-      <c r="B67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>250</v>
@@ -5922,7 +6065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="115.2" spans="2:8">
+    <row r="68" ht="144" spans="2:8">
       <c r="B68" s="3" t="s">
         <v>252</v>
       </c>
@@ -5930,30 +6073,30 @@
         <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="129.6" spans="2:8">
+      <c r="B69" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="115.2" spans="2:8">
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>259</v>
@@ -5968,7 +6111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="129.6" spans="2:8">
+    <row r="70" ht="115.2" spans="2:8">
       <c r="B70" s="3" t="s">
         <v>261</v>
       </c>
@@ -5991,7 +6134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="129.6" spans="2:8">
+    <row r="71" ht="115.2" spans="2:8">
       <c r="B71" s="3" t="s">
         <v>266</v>
       </c>
@@ -5999,6 +6142,9 @@
         <v>267</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>268</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -6011,7 +6157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="158.4" spans="2:8">
+    <row r="72" ht="129.6" spans="2:8">
       <c r="B72" s="3" t="s">
         <v>270</v>
       </c>
@@ -6034,7 +6180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="158.4" spans="2:8">
+    <row r="73" ht="129.6" spans="2:8">
       <c r="B73" s="3" t="s">
         <v>275</v>
       </c>
@@ -6042,9 +6188,6 @@
         <v>276</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="3" t="s">
         <v>277</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -6065,62 +6208,62 @@
         <v>280</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="158.4" spans="2:8">
+      <c r="B75" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="187.2" spans="2:8">
-      <c r="B75" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>286</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" ht="187.2" spans="2:8">
+    <row r="76" ht="158.4" spans="2:8">
       <c r="B76" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
@@ -6128,51 +6271,51 @@
     </row>
     <row r="77" ht="187.2" spans="2:8">
       <c r="B77" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" ht="158.4" spans="2:8">
+    <row r="78" ht="187.2" spans="2:8">
       <c r="B78" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="E78" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="100.8" spans="2:8">
+    <row r="79" ht="187.2" spans="2:8">
       <c r="B79" s="3" t="s">
         <v>299</v>
       </c>
@@ -6180,6 +6323,9 @@
         <v>300</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>301</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -6192,7 +6338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" ht="187.2" spans="2:8">
+    <row r="80" ht="158.4" spans="2:8">
       <c r="B80" s="3" t="s">
         <v>303</v>
       </c>
@@ -6215,7 +6361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" ht="187.2" spans="2:8">
+    <row r="81" ht="100.8" spans="2:8">
       <c r="B81" s="3" t="s">
         <v>308</v>
       </c>
@@ -6223,9 +6369,6 @@
         <v>309</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E81" s="3" t="s">
         <v>310</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -6246,16 +6389,16 @@
         <v>313</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>12</v>
@@ -6263,22 +6406,22 @@
     </row>
     <row r="83" ht="187.2" spans="2:8">
       <c r="B83" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>12</v>
@@ -6286,22 +6429,22 @@
     </row>
     <row r="84" ht="187.2" spans="2:8">
       <c r="B84" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>12</v>
@@ -6309,22 +6452,22 @@
     </row>
     <row r="85" ht="187.2" spans="2:8">
       <c r="B85" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>12</v>
@@ -6332,68 +6475,68 @@
     </row>
     <row r="86" ht="187.2" spans="2:8">
       <c r="B86" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="216" spans="2:8">
+    <row r="87" ht="187.2" spans="2:8">
       <c r="B87" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="216" spans="2:8">
+    <row r="88" ht="187.2" spans="2:8">
       <c r="B88" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>12</v>
@@ -6401,22 +6544,22 @@
     </row>
     <row r="89" ht="216" spans="2:8">
       <c r="B89" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>12</v>
@@ -6424,22 +6567,22 @@
     </row>
     <row r="90" ht="216" spans="2:8">
       <c r="B90" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="E90" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>12</v>
@@ -6447,22 +6590,22 @@
     </row>
     <row r="91" ht="216" spans="2:8">
       <c r="B91" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>12</v>
@@ -6470,22 +6613,22 @@
     </row>
     <row r="92" ht="216" spans="2:8">
       <c r="B92" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>12</v>
@@ -6493,51 +6636,51 @@
     </row>
     <row r="93" ht="216" spans="2:8">
       <c r="B93" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="144" spans="2:8">
+    <row r="94" ht="216" spans="2:8">
       <c r="B94" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" ht="72" spans="2:8">
+    <row r="95" ht="216" spans="2:8">
       <c r="B95" s="3" t="s">
         <v>356</v>
       </c>
@@ -6545,6 +6688,9 @@
         <v>357</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>358</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -6557,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" ht="100.8" spans="2:8">
+    <row r="96" ht="144" spans="2:8">
       <c r="B96" s="3" t="s">
         <v>360</v>
       </c>
@@ -6580,7 +6726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" ht="100.8" spans="2:8">
+    <row r="97" ht="72" spans="2:8">
       <c r="B97" s="3" t="s">
         <v>365</v>
       </c>
@@ -6588,9 +6734,6 @@
         <v>366</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E97" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -6603,7 +6746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" ht="86.4" spans="2:8">
+    <row r="98" ht="100.8" spans="2:8">
       <c r="B98" s="3" t="s">
         <v>369</v>
       </c>
@@ -6613,57 +6756,57 @@
       <c r="D98" s="3" t="s">
         <v>371</v>
       </c>
+      <c r="E98" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="F98" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" ht="144" spans="2:8">
+    <row r="99" ht="100.8" spans="2:8">
       <c r="B99" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>376</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" ht="144" spans="2:8">
+    <row r="100" ht="86.4" spans="2:8">
       <c r="B100" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -6671,22 +6814,22 @@
     </row>
     <row r="101" ht="144" spans="2:8">
       <c r="B101" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -6694,22 +6837,22 @@
     </row>
     <row r="102" ht="144" spans="2:8">
       <c r="B102" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="E102" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
@@ -6717,22 +6860,22 @@
     </row>
     <row r="103" ht="144" spans="2:8">
       <c r="B103" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>12</v>
@@ -6740,68 +6883,68 @@
     </row>
     <row r="104" ht="144" spans="2:8">
       <c r="B104" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" ht="172.8" spans="2:8">
+    <row r="105" ht="144" spans="2:8">
       <c r="B105" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="172.8" spans="2:8">
+    <row r="106" ht="144" spans="2:8">
       <c r="B106" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>12</v>
@@ -6809,22 +6952,22 @@
     </row>
     <row r="107" ht="172.8" spans="2:8">
       <c r="B107" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>12</v>
@@ -6832,22 +6975,22 @@
     </row>
     <row r="108" ht="172.8" spans="2:8">
       <c r="B108" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="E108" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>12</v>
@@ -6855,22 +6998,22 @@
     </row>
     <row r="109" ht="172.8" spans="2:8">
       <c r="B109" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>12</v>
@@ -6878,51 +7021,51 @@
     </row>
     <row r="110" ht="172.8" spans="2:8">
       <c r="B110" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" ht="129.6" spans="2:8">
+    <row r="111" ht="172.8" spans="2:8">
       <c r="B111" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" ht="115.2" spans="2:8">
+    <row r="112" ht="172.8" spans="2:8">
       <c r="B112" s="3" t="s">
         <v>418</v>
       </c>
@@ -6930,30 +7073,30 @@
         <v>419</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="G112" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="129.6" spans="2:8">
+      <c r="B113" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" ht="115.2" spans="2:8">
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>425</v>
@@ -6968,7 +7111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" ht="72" spans="2:8">
+    <row r="114" ht="115.2" spans="2:8">
       <c r="B114" s="3" t="s">
         <v>427</v>
       </c>
@@ -6978,11 +7121,14 @@
       <c r="D114" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="E114" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="F114" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>12</v>
@@ -6990,13 +7136,13 @@
     </row>
     <row r="115" ht="115.2" spans="2:8">
       <c r="B115" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>434</v>
@@ -7011,7 +7157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" ht="100.8" spans="2:8">
+    <row r="116" ht="72" spans="2:8">
       <c r="B116" s="3" t="s">
         <v>436</v>
       </c>
@@ -7021,14 +7167,11 @@
       <c r="D116" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="G116" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>12</v>
@@ -7036,16 +7179,16 @@
     </row>
     <row r="117" ht="115.2" spans="2:8">
       <c r="B117" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>444</v>
@@ -7057,7 +7200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" ht="216" spans="2:8">
+    <row r="118" ht="100.8" spans="2:8">
       <c r="B118" s="3" t="s">
         <v>445</v>
       </c>
@@ -7080,7 +7223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" ht="216" spans="2:8">
+    <row r="119" ht="115.2" spans="2:8">
       <c r="B119" s="3" t="s">
         <v>450</v>
       </c>
@@ -7088,16 +7231,16 @@
         <v>451</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>242</v>
+        <v>453</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>242</v>
+        <v>453</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>12</v>
@@ -7105,22 +7248,22 @@
     </row>
     <row r="120" ht="216" spans="2:8">
       <c r="B120" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>12</v>
@@ -7128,22 +7271,22 @@
     </row>
     <row r="121" ht="216" spans="2:8">
       <c r="B121" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>460</v>
+        <v>251</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>460</v>
+        <v>251</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>12</v>
@@ -7151,22 +7294,22 @@
     </row>
     <row r="122" ht="216" spans="2:8">
       <c r="B122" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>12</v>
@@ -7174,22 +7317,22 @@
     </row>
     <row r="123" ht="216" spans="2:8">
       <c r="B123" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>12</v>
@@ -7197,22 +7340,22 @@
     </row>
     <row r="124" ht="216" spans="2:8">
       <c r="B124" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>12</v>
@@ -7220,22 +7363,22 @@
     </row>
     <row r="125" ht="216" spans="2:8">
       <c r="B125" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>12</v>
@@ -7243,22 +7386,22 @@
     </row>
     <row r="126" ht="216" spans="2:8">
       <c r="B126" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>12</v>
@@ -7266,22 +7409,22 @@
     </row>
     <row r="127" ht="216" spans="2:8">
       <c r="B127" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>12</v>
@@ -7289,22 +7432,22 @@
     </row>
     <row r="128" ht="216" spans="2:8">
       <c r="B128" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>12</v>
@@ -7312,36 +7455,36 @@
     </row>
     <row r="129" ht="216" spans="2:8">
       <c r="B129" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" ht="172.8" spans="2:8">
+    <row r="130" ht="216" spans="2:8">
       <c r="B130" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>496</v>
@@ -7356,7 +7499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" ht="172.8" spans="2:8">
+    <row r="131" ht="216" spans="2:8">
       <c r="B131" s="3" t="s">
         <v>498</v>
       </c>
@@ -7364,7 +7507,7 @@
         <v>499</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>500</v>
@@ -7387,16 +7530,16 @@
         <v>503</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>12</v>
@@ -7404,68 +7547,68 @@
     </row>
     <row r="133" ht="172.8" spans="2:8">
       <c r="B133" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" ht="201.6" spans="2:8">
+    <row r="134" ht="172.8" spans="2:8">
       <c r="B134" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>513</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" ht="201.6" spans="2:8">
+    <row r="135" ht="172.8" spans="2:8">
       <c r="B135" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>12</v>
@@ -7473,22 +7616,22 @@
     </row>
     <row r="136" ht="201.6" spans="2:8">
       <c r="B136" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>12</v>
@@ -7496,36 +7639,36 @@
     </row>
     <row r="137" ht="201.6" spans="2:8">
       <c r="B137" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="E137" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" ht="144" spans="2:8">
+    <row r="138" ht="201.6" spans="2:8">
       <c r="B138" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>528</v>
@@ -7540,7 +7683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" ht="172.8" spans="2:8">
+    <row r="139" ht="201.6" spans="2:8">
       <c r="B139" s="3" t="s">
         <v>530</v>
       </c>
@@ -7548,30 +7691,30 @@
         <v>531</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="G139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="144" spans="2:8">
+      <c r="B140" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" ht="172.8" spans="2:8">
-      <c r="B140" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>537</v>
@@ -7594,16 +7737,16 @@
         <v>540</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>12</v>
@@ -7611,36 +7754,36 @@
     </row>
     <row r="142" ht="172.8" spans="2:8">
       <c r="B142" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="187.2" spans="2:8">
+    <row r="143" ht="172.8" spans="2:8">
       <c r="B143" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>550</v>
@@ -7655,7 +7798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="72" spans="2:8">
+    <row r="144" ht="172.8" spans="2:8">
       <c r="B144" s="3" t="s">
         <v>552</v>
       </c>
@@ -7663,6 +7806,9 @@
         <v>553</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>554</v>
       </c>
       <c r="F144" s="3" t="s">
@@ -7675,7 +7821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="144" spans="2:8">
+    <row r="145" ht="187.2" spans="2:8">
       <c r="B145" s="3" t="s">
         <v>556</v>
       </c>
@@ -7698,7 +7844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" ht="144" spans="2:8">
+    <row r="146" ht="72" spans="2:8">
       <c r="B146" s="3" t="s">
         <v>561</v>
       </c>
@@ -7706,9 +7852,6 @@
         <v>562</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E146" s="3" t="s">
         <v>563</v>
       </c>
       <c r="F146" s="3" t="s">
@@ -7721,7 +7864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" ht="187.2" spans="2:8">
+    <row r="147" ht="144" spans="2:8">
       <c r="B147" s="3" t="s">
         <v>565</v>
       </c>
@@ -7735,24 +7878,24 @@
         <v>568</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" ht="115.2" spans="2:8">
+    <row r="148" ht="144" spans="2:8">
       <c r="B148" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>572</v>
@@ -7767,7 +7910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" ht="115.2" spans="2:8">
+    <row r="149" ht="187.2" spans="2:8">
       <c r="B149" s="3" t="s">
         <v>574</v>
       </c>
@@ -7775,16 +7918,16 @@
         <v>575</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>12</v>
@@ -7813,7 +7956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" ht="158.4" spans="2:8">
+    <row r="151" ht="115.2" spans="2:8">
       <c r="B151" s="3" t="s">
         <v>583</v>
       </c>
@@ -7821,10 +7964,10 @@
         <v>584</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>586</v>
@@ -7836,7 +7979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" ht="158.4" spans="2:8">
+    <row r="152" ht="115.2" spans="2:8">
       <c r="B152" s="3" t="s">
         <v>587</v>
       </c>
@@ -7844,16 +7987,16 @@
         <v>588</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>12</v>
@@ -7861,68 +8004,68 @@
     </row>
     <row r="153" ht="158.4" spans="2:8">
       <c r="B153" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" ht="158.4" spans="2:8">
+      <c r="B154" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" ht="144" spans="2:8">
-      <c r="B154" s="3" t="s">
+      <c r="F154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" ht="158.4" spans="2:8">
+      <c r="B155" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" ht="144" spans="2:8">
-      <c r="B155" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="E155" s="3" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>12</v>
@@ -7930,68 +8073,68 @@
     </row>
     <row r="156" ht="144" spans="2:8">
       <c r="B156" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" ht="115.2" spans="2:8">
+    <row r="157" ht="144" spans="2:8">
       <c r="B157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="E157" s="3" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="115.2" spans="2:8">
+    <row r="158" ht="144" spans="2:8">
       <c r="B158" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>12</v>
@@ -7999,68 +8142,68 @@
     </row>
     <row r="159" ht="115.2" spans="2:8">
       <c r="B159" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" ht="100.8" spans="2:8">
+    <row r="160" ht="115.2" spans="2:8">
       <c r="B160" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>618</v>
-      </c>
       <c r="E160" s="3" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" ht="100.8" spans="2:8">
+    <row r="161" ht="115.2" spans="2:8">
       <c r="B161" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>12</v>
@@ -8068,22 +8211,22 @@
     </row>
     <row r="162" ht="100.8" spans="2:8">
       <c r="B162" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>12</v>
@@ -8091,22 +8234,22 @@
     </row>
     <row r="163" ht="100.8" spans="2:8">
       <c r="B163" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="E163" s="3" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>12</v>
@@ -8114,22 +8257,22 @@
     </row>
     <row r="164" ht="100.8" spans="2:8">
       <c r="B164" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>12</v>
@@ -8137,24 +8280,182 @@
     </row>
     <row r="165" ht="100.8" spans="2:8">
       <c r="B165" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" ht="100.8" spans="2:8">
+      <c r="B166" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" ht="100.8" spans="2:8">
+      <c r="B167" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" ht="57.6" spans="2:8">
+      <c r="B168" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" ht="57.6" spans="2:8">
+      <c r="B169" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" ht="57.6" spans="2:8">
+      <c r="B170" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" ht="57.6" spans="2:8">
+      <c r="B171" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" ht="115.2" spans="2:8">
+      <c r="B172" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H172" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8167,10 +8468,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F52"/>
+  <dimension ref="B1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -8181,566 +8482,588 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
-    <row r="2" spans="2:4">
+    <row r="2" ht="15.15" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
       <c r="B3" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="C4" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
       <c r="B6" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" ht="216" spans="2:4">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" ht="230.4" spans="2:4">
       <c r="B7" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="2:4">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="2:4">
       <c r="B8" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:4">
       <c r="B9" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="D10" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" ht="100.8" spans="2:4">
       <c r="B11" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" ht="86.4" spans="2:6">
       <c r="B12" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" ht="28.8" spans="2:4">
       <c r="B13" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
       <c r="B14" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="C14" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="C15" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:4">
       <c r="B16" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="C16" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="C17" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="2:4">
       <c r="B18" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="C19" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="D19" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="C20" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="D20" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="2:4">
       <c r="B21" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="C21" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="2:4">
       <c r="B22" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="D23" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="C24" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="D24" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" ht="100.8" spans="2:4">
       <c r="B25" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="C25" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="2:4">
       <c r="B26" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="C26" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="C27" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="D27" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="C28" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="D28" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="2:4">
       <c r="B29" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="C29" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="C30" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="D30" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" ht="86.4" spans="2:4">
       <c r="B31" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="C31" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" ht="86.4" spans="2:4">
       <c r="B32" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" ht="28.8" spans="2:4">
       <c r="B34" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="C34" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="C35" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="D35" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="C36" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="D36" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="C37" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="D37" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" ht="187.2" spans="2:4">
       <c r="B38" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="C38" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" ht="57.6" spans="2:4">
       <c r="B39" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="C39" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" ht="57.6" spans="2:4">
       <c r="B40" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="C40" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>753</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="C41" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="D41" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" ht="57.6" spans="2:4">
       <c r="B42" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="C42" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="C43" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="D43" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="C44" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D44" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" ht="28.8" spans="2:4">
       <c r="B45" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="C45" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="C46" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="D46" t="s">
-        <v>770</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" ht="43.2" spans="2:4">
       <c r="B47" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="C47" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" ht="43.2" spans="2:4">
       <c r="B48" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="C48" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" ht="43.2" spans="2:4">
       <c r="B49" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="C49" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="2:4">
       <c r="B50" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="C50" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
     </row>
     <row r="51" ht="43.2" spans="2:4">
       <c r="B51" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="C51" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
     </row>
     <row r="52" ht="43.2" spans="2:4">
       <c r="B52" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="C52" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>788</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="53" ht="57.6" spans="2:4">
+      <c r="B53" t="s">
+        <v>822</v>
+      </c>
+      <c r="C53" t="s">
+        <v>823</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>825</v>
+      </c>
+      <c r="C54" t="s">
+        <v>826</v>
+      </c>
+      <c r="D54" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/Kiểm Thử.xlsx
+++ b/Kiểm Thử.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="828">
   <si>
     <r>
       <rPr>
@@ -489,6 +489,286 @@
     <t>5.1</t>
   </si>
   <si>
+    <t>Kiểm tra sửa nhân viên khi để trống họ tên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn nhân viên trong danh sách
+4. Nhấn sửa
+5. Nhập họ tên
+6. Chọn ngày sinh
+7. Chọn giới tính
+8. Nhập căn cước công dân
+9. Nhập số điện thoại
+10. Chọn ngày vào làm
+11. Chọn chức vụ
+12. Nhập địa chỉ
+13. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên:
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi họ tên không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: 123
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn ngày sinh</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh:
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra sửa nhân viên khi tuổi không đủ 18</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 01/11/2010
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn giới tính</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính:
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống căn cước công dân</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd:
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi căn cước công dân không đủ 12 số</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 0123456789
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt:
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: abc
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0123456789
+ngày vào làm: 01/11/2023
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi không chọn ngày vào làm</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm:
+chức vụ: nhân viên kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi chọn chức vụ Admin với quyền quản lý</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Admin
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi chọn chức vụ Quản lý với quyền quản lý</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Quản lý
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi sửa chính mình</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn chính mình trong danh sách
+4. Nhấn sửa</t>
+  </si>
+  <si>
+    <t>mã nhân viên NV001</t>
+  </si>
+  <si>
+    <t>không cho sửa chức vụ</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi để trống địa chỉ</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV011
+họ tên: Nam
+ngày sinh: 15/10/2003
+giới tính: nam
+cccd: 060203001081
+sdt: 0914268166
+ngày vào làm: 01/11/2023
+chức vụ: Nhân Viên Kho
+địa chỉ: TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>sửa nhân viên thành công</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý</t>
   </si>
   <si>
@@ -502,7 +782,7 @@
 chức vụ: Admin</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>6.2</t>
   </si>
   <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý</t>
@@ -512,7 +792,7 @@
 chức vụ: Quản lý</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
@@ -525,7 +805,26 @@
     <t>cho nghỉ nhân viên thành công</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra cho nghỉ nhân viên khi cho nghỉ chính mình</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin hoặc Quản lý
+2. Chọn chức năng nhân viên ở màn hình chính
+3. Chọn chính mình trong danh sách
+4. Nhấn nghỉ việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mã nhân viên: NV001
+</t>
+  </si>
+  <si>
+    <t>hiện thông báo không thể cho nghỉ chính mình</t>
+  </si>
+  <si>
+    <t>7.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp nhân viên theo tên nhân viên</t>
@@ -543,7 +842,7 @@
     <t>hiển thị danh sách nhân viên được sắp xếp theo tên nhân viên</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp nhân viên theo mã nhân viên</t>
@@ -555,7 +854,7 @@
     <t xml:space="preserve">hiển thị danh sách nhân viên được sắp xếp theo mã nhân viên </t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách tài khoản</t>
@@ -568,7 +867,7 @@
     <t>hiển thị danh sách tài khoản</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tất cả nhân viên đều đã có tài khoản</t>
@@ -585,7 +884,7 @@
     <t>hiện thông báo tất cả nhân viên đã có tài khoản</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra thêm tài khoản khi để trống tên tài khoản </t>
@@ -595,7 +894,7 @@
 mật khẩu: 1Hh@</t>
   </si>
   <si>
-    <t>8.3</t>
+    <t>9.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng</t>
@@ -608,7 +907,7 @@
     <t>hiện thông báo tài khoản chỉ chứa chữ in hoa và không quá 10 kí tự</t>
   </si>
   <si>
-    <t>8.4</t>
+    <t>9.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại</t>
@@ -621,7 +920,7 @@
     <t>hiện thông báo tài khoản đã tồn tại</t>
   </si>
   <si>
-    <t>8.5</t>
+    <t>9.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi để trống mật khẩu</t>
@@ -631,7 +930,7 @@
 mật khẩu:</t>
   </si>
   <si>
-    <t>8.6</t>
+    <t>9.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng</t>
@@ -644,7 +943,7 @@
     <t>hiện thông báo mật khẩu phải chứa 1 số, 1 kí tự hoa, 1 kí tự thường, 1 kí tự đặc biệt: @#$% và tối đa 5 kí tự</t>
   </si>
   <si>
-    <t>8.7</t>
+    <t>9.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
@@ -657,7 +956,85 @@
     <t>thêm tài khoản thành công</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra sửa tài khoản khi để trống tên tài khoản </t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin
+2. Chọn chức năng tài khoản ở màn hình chính
+3. Chọn tài khoản trong danh sách
+4. Nhấn sửa
+5. Nhập tài khoản
+6. Nhập mật khẩu
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản:
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi tên khoản không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: abc
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi tên tài khoản đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: ADMIN
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi để trống mật khẩu</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu:</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi mật khẩu không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhân viên: NV012
+tài khoản: HAO
+mật khẩu: 1Hh@</t>
+  </si>
+  <si>
+    <t>sửa tài khoản thành công</t>
+  </si>
+  <si>
+    <t>11.1</t>
   </si>
   <si>
     <t>Kiểm tra ẩn tài khoản khi nhân viên còn làm việc</t>
@@ -669,14 +1046,10 @@
 4. Nhấn ẩn</t>
   </si>
   <si>
-    <t xml:space="preserve">mã nhân viên: NV001
-</t>
-  </si>
-  <si>
     <t>hiện thông báo không thể ẩn tài khoản</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>11.2</t>
   </si>
   <si>
     <t>Kiểm tra ẩn tài khoản với nhân viên đã nghỉ việc</t>
@@ -688,7 +1061,7 @@
     <t>ẩn tài khoản thành công</t>
   </si>
   <si>
-    <t>10.1</t>
+    <t>12.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp tài khoản theo tên đăng nhập</t>
@@ -706,7 +1079,7 @@
     <t>hiển thị danh sách tài khoản đã được sắp xếp theo tên đăng nhập</t>
   </si>
   <si>
-    <t>10.2</t>
+    <t>12.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp tài khoản theo mã nhân viên</t>
@@ -718,7 +1091,7 @@
     <t>hiển thị danh sách tài khoản đã được sắp xếp theo mã nhân viên</t>
   </si>
   <si>
-    <t>11.1</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách sản phẩm</t>
@@ -731,7 +1104,71 @@
     <t>hiển thị danh sách sản phẩm</t>
   </si>
   <si>
-    <t>12.1</t>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi tên sản phẩm trống</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn sản phẩm trong danh sách
+4. Nhập tên sản phẩm
+5. Nhấn sửa</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm:</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên sản phẩm trống</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi tên sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm: trứng</t>
+  </si>
+  <si>
+    <t>hiện thông báo tên sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa tên sản phẩm khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012
+tên sản phẩm: sting</t>
+  </si>
+  <si>
+    <t>sửa sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn sản phẩm trong danh sách danh sách
+4. Nhấn Ẩn</t>
+  </si>
+  <si>
+    <t>mã sản phẩm: SP012</t>
+  </si>
+  <si>
+    <t>ẩn sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>16.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm theo mã loại hàng</t>
@@ -749,7 +1186,7 @@
     <t>hiển thị danh sách sản phẩm đã được sắp xếp theo mã loại hàng</t>
   </si>
   <si>
-    <t>12.2</t>
+    <t>16.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm theo giá bán</t>
@@ -761,7 +1198,7 @@
     <t>hiển thị danh sách sản phẩm đã được sắp xếp theo giá bán</t>
   </si>
   <si>
-    <t>13.1</t>
+    <t>17.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm sản phẩm khi chọn loại hàng muốn tìm kiếm</t>
@@ -779,7 +1216,7 @@
     <t>hiển thị danh sách sản phẩm theo loại hàng đã chọn</t>
   </si>
   <si>
-    <t>14.1</t>
+    <t>18.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách loại hàng</t>
@@ -794,7 +1231,7 @@
     <t>hiển thị danh sách loại hàng</t>
   </si>
   <si>
-    <t>15.1</t>
+    <t>19.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm loại hàng khi để trống tên loại hàng</t>
@@ -814,7 +1251,7 @@
     <t>hiện thông báo chưa nhập tên loại hàng</t>
   </si>
   <si>
-    <t>15.2</t>
+    <t>19.2</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm loại hàng khi tên loại hàng đã tồn tại</t>
@@ -826,7 +1263,7 @@
     <t>hiện thông báo tên loại hàng đã tồn tại</t>
   </si>
   <si>
-    <t>15.3</t>
+    <t>19.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
@@ -838,7 +1275,68 @@
     <t>thêm loại hàng thành công</t>
   </si>
   <si>
-    <t>16.1</t>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa loại hàng khi để trống tên loại hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin loại hàng
+4. Chọn loại hàng trong danh sách
+5. Nhấn sửa
+6. Nhập tên loại hàng
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng:</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra sửa loại hàng khi tên loại hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng: Đồ Uống</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa loại hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011
+tên loại hàng: Rau Củ</t>
+  </si>
+  <si>
+    <t>sửa loại hàng thành công</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin loại hàng
+4. Chọn loại hàng trong danh sách
+5. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã loại hàng: LH011</t>
+  </si>
+  <si>
+    <t>ẩn loại hàng thành công</t>
+  </si>
+  <si>
+    <t>22.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách nhà cung cấp</t>
@@ -852,7 +1350,7 @@
     <t>hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
-    <t>17.1</t>
+    <t>23.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống tên nhà cung cấp</t>
@@ -876,7 +1374,7 @@
     <t>hiện thông báo chưa nhập tên nhà cung cấp</t>
   </si>
   <si>
-    <t>17.2</t>
+    <t>23.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi tên nhà cung cấp đã tồn tại</t>
@@ -890,7 +1388,7 @@
     <t>hiện thông báo tên nhà cung cấp đã tồn tại</t>
   </si>
   <si>
-    <t>17.3</t>
+    <t>23.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống địa chỉ</t>
@@ -901,7 +1399,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>17.4</t>
+    <t>23.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi để trống số điện thoại</t>
@@ -912,7 +1410,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>17.5</t>
+    <t>23.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không phải số</t>
@@ -923,7 +1421,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>17.6</t>
+    <t>23.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi số điện thoại không đúng định dạng</t>
@@ -934,7 +1432,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>17.7</t>
+    <t>23.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
@@ -948,7 +1446,124 @@
     <t>thêm nhà cung cấp thành công</t>
   </si>
   <si>
-    <t>18.1</t>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin nhà cung cấp
+4. Chọn nhà cung cấp trong danh sách
+5. Nhấn sửa
+6. Nhập tên nhà cung cấp
+7. Nhập địa chỉ
+8. Nhập số điện thoại
+9. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp:
+địa chỉ: Long An
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Vĩnh Hảo
+địa chỉ: Long An
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống địa chỉ</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ:
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt:</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: abc</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: 0123456789</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa nhà cung cấp khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011
+tên nhà cung cấp: Nông Trường Bình &amp; An
+địa chỉ: Long An
+sdt: 0338268166</t>
+  </si>
+  <si>
+    <t>sửa nhà cung cấp thành công</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
+2. Chọn chức năng sản phẩm ở màn hình chính
+3. Chọn tab thông tin nhà cung cấp
+4. Chọn nhà cung cấp trong danh sách
+5. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã nhà cung cấp: CC011</t>
+  </si>
+  <si>
+    <t>ẩn nhà cung cấp thành công</t>
+  </si>
+  <si>
+    <t>26.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
@@ -961,7 +1576,7 @@
     <t>hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
-    <t>19.1</t>
+    <t>27.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo mã sản phẩm</t>
@@ -979,7 +1594,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo mã sản phẩm</t>
   </si>
   <si>
-    <t>19.2</t>
+    <t>27.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
@@ -991,7 +1606,7 @@
     <t>hiển thị danh sách sản phẩm trong kho đã được sắp xếp theo số lượng</t>
   </si>
   <si>
-    <t>20.1</t>
+    <t>28.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách khách hàng</t>
@@ -1004,7 +1619,7 @@
     <t>hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>21.1</t>
+    <t>29.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống họ tên</t>
@@ -1022,7 +1637,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>21.2</t>
+    <t>29.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi họ tên không đúng định dạng</t>
@@ -1032,7 +1647,7 @@
 sdt: 0914268166</t>
   </si>
   <si>
-    <t>21.3</t>
+    <t>29.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi để trống số điện thoại</t>
@@ -1042,7 +1657,7 @@
 sdt:</t>
   </si>
   <si>
-    <t>21.4</t>
+    <t>29.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không phải số</t>
@@ -1052,7 +1667,7 @@
 sdt: abc</t>
   </si>
   <si>
-    <t>21.5</t>
+    <t>29.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi số điện thoại không đúng định dạng</t>
@@ -1062,7 +1677,7 @@
 sdt: 0123456789</t>
   </si>
   <si>
-    <t>21.6</t>
+    <t>29.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
@@ -1075,7 +1690,103 @@
     <t>thêm khách hàng thành công</t>
   </si>
   <si>
-    <t>22.1</t>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi để trống họ tên</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng khách hàng ở màn hình chính
+3. Chọn khách hàng trong danh sách
+4. Nhấn sửa
+5. Nhập họ tên
+6. Nhập số điện thoại
+7. Nhấn lưu</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên:
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi họ tên không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: a1
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi để trống số điện thoại</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt:</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi số điện thoại không phải số</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: abc</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: 0123456789</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa khách hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011
+họ tên: Mai
+sdt: 0914268166</t>
+  </si>
+  <si>
+    <t>sửa khách hàng thành công</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng khách hàng ở màn hình chính
+3. Chọn khách hàng trong danh sách
+4. Nhấn ẩn</t>
+  </si>
+  <si>
+    <t>mã khách hàng: KH011</t>
+  </si>
+  <si>
+    <t>ẩn khách hàng thành công</t>
+  </si>
+  <si>
+    <t>32.1</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo mã khách hàng</t>
@@ -1093,7 +1804,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo mã</t>
   </si>
   <si>
-    <t>22.2</t>
+    <t>32.2</t>
   </si>
   <si>
     <t>Kiểm tra sắp xếp khách hàng theo tên khách hàng</t>
@@ -1105,7 +1816,7 @@
     <t>hiển thị danh sách khách hàng đã được sắp xếp theo tên khách hàng</t>
   </si>
   <si>
-    <t>23.1</t>
+    <t>33.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị danh sách phiếu nhập</t>
@@ -1118,7 +1829,7 @@
     <t>hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
-    <t>24.1</t>
+    <t>34.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1137,7 +1848,7 @@
     <t>thêm phiếu nhập thành công</t>
   </si>
   <si>
-    <t>25.1</t>
+    <t>35.1</t>
   </si>
   <si>
     <t>Kiểm tra hiển thị chi tiết phiếu nhập</t>
@@ -1154,7 +1865,7 @@
     <t>hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
-    <t>26.1</t>
+    <t>36.1</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập của nhân viên khác</t>
@@ -1169,7 +1880,7 @@
     <t>hiện thông báo không thể thêm chi tiết cho phiếu nhập của nhân viên khác</t>
   </si>
   <si>
-    <t>26.2</t>
+    <t>36.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống tên sản phẩm</t>
@@ -1199,7 +1910,7 @@
     <t>hiện thông báo chưa nhập tên sản phẩm</t>
   </si>
   <si>
-    <t>26.3</t>
+    <t>36.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi tên sản phẩm đã tồn tại</t>
@@ -1213,10 +1924,7 @@
 hạn sử dụng: 01/01/2024</t>
   </si>
   <si>
-    <t>hiện thông báo tên sản phẩm đã tồn tại</t>
-  </si>
-  <si>
-    <t>26.4</t>
+    <t>36.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống số lượng</t>
@@ -1233,7 +1941,7 @@
     <t>hiện thông báo chưa nhập số lượng</t>
   </si>
   <si>
-    <t>26.5</t>
+    <t>36.5</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi số lượng không phải số</t>
@@ -1250,7 +1958,7 @@
     <t>hiện thông báo số lượng phải là số</t>
   </si>
   <si>
-    <t>26.6</t>
+    <t>36.6</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống giá nhập</t>
@@ -1267,7 +1975,7 @@
     <t>hiện thông báo chưa nhập giá nhập</t>
   </si>
   <si>
-    <t>26.7</t>
+    <t>36.7</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập không phải số</t>
@@ -1284,7 +1992,7 @@
     <t>hiện thông báo giá nhập phải là số</t>
   </si>
   <si>
-    <t>26.8</t>
+    <t>36.8</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi giá nhập dưới 1000</t>
@@ -1301,7 +2009,7 @@
     <t>hiện thông báo giá nhập phải lớn hơn 1000</t>
   </si>
   <si>
-    <t>26.9</t>
+    <t>36.9</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống ngày sản xuất</t>
@@ -1318,7 +2026,7 @@
     <t>hiện thông báo chưa chọn ngày sản xuất</t>
   </si>
   <si>
-    <t>26.10</t>
+    <t>36.10</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi để trống hạn sử dụng</t>
@@ -1335,7 +2043,7 @@
     <t>hiện thông báo chưa chọn hạn sử dụng</t>
   </si>
   <si>
-    <t>26.11</t>
+    <t>36.11</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi ngày sản xuất lớn hơn hạn sử dụng</t>
@@ -1352,7 +2060,7 @@
     <t>hiện thông báo ngày sản xuất không lớn hơn ngày sử dụng</t>
   </si>
   <si>
-    <t>26.12</t>
+    <t>36.12</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi hạn sử dụng bé hơn ngày hiện tại</t>
@@ -1369,7 +2077,7 @@
     <t>hiện thông báo hạn sử dụng phải lớn hơn hiện tại</t>
   </si>
   <si>
-    <t>26.13</t>
+    <t>36.13</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
@@ -1386,7 +2094,7 @@
     <t>thêm chi tiết phiếu nhập thành công</t>
   </si>
   <si>
-    <t>27.1</t>
+    <t>37.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm hóa đơn khi chưa nhập tên khách hàng</t>
@@ -1408,7 +2116,7 @@
     <t>hiện thông báo chưa nhập tên khách hàng</t>
   </si>
   <si>
-    <t>27.2</t>
+    <t>37.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi khách hàng chưa tồn tại</t>
@@ -1421,7 +2129,7 @@
     <t>hiện thông báo khách hàng chưa tồn tại và hiện nút thêm khách hàng</t>
   </si>
   <si>
-    <t>27.3</t>
+    <t>37.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi chưa chọn ngày</t>
@@ -1434,7 +2142,7 @@
     <t>hiện thông báo chưa chọn ngày</t>
   </si>
   <si>
-    <t>27.4</t>
+    <t>37.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
@@ -1447,7 +2155,7 @@
     <t>thêm hóa đơn thành công</t>
   </si>
   <si>
-    <t>28.1</t>
+    <t>38.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Kiểm tra thêm chi tiết hóa đơn khi chưa nhập số lượng</t>
@@ -1470,7 +2178,7 @@
 số lượng:</t>
   </si>
   <si>
-    <t>28.2</t>
+    <t>38.2</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng không phải số</t>
@@ -1482,7 +2190,7 @@
 số lượng: abc</t>
   </si>
   <si>
-    <t>28.3</t>
+    <t>38.3</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng trong kho không đủ</t>
@@ -1497,7 +2205,7 @@
     <t>hiện thông báo số lượng không đủ</t>
   </si>
   <si>
-    <t>28.4</t>
+    <t>38.4</t>
   </si>
   <si>
     <t>Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
@@ -1512,7 +2220,7 @@
     <t>thêm chi tiết hóa đơn thành công và hiển thị chi tiết hóa đơn</t>
   </si>
   <si>
-    <t>29.1</t>
+    <t>39.1</t>
   </si>
   <si>
     <t>Kiểm tra áp dụng giảm giá</t>
@@ -1537,7 +2245,7 @@
     <t>hiển thị số tiền sau giảm giá</t>
   </si>
   <si>
-    <t>30.1</t>
+    <t>40.1</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi chưa nhập tiền khách</t>
@@ -1564,7 +2272,7 @@
     <t>hiện thông báo chưa nhập tiền của khách</t>
   </si>
   <si>
-    <t>30.2</t>
+    <t>40.2</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách không phải số</t>
@@ -1576,7 +2284,7 @@
     <t>hiện thông báo tiền của khách phải là số</t>
   </si>
   <si>
-    <t>30.3</t>
+    <t>40.3</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách thấp hơn tổng tiền của hóa đơn</t>
@@ -1593,7 +2301,7 @@
     <t>hiện thông báo số tiền không hợp lệ</t>
   </si>
   <si>
-    <t>30.4</t>
+    <t>40.4</t>
   </si>
   <si>
     <t>Kiểm tra thanh toán khi tiền khách hợp lệ</t>
@@ -1610,7 +2318,7 @@
     <t>hiện thông báo thanh toán thành công là hiện tiền thối cho khách</t>
   </si>
   <si>
-    <t>31.1</t>
+    <t>41.1</t>
   </si>
   <si>
     <t>Kiểm tra xuất hóa đơn</t>
@@ -1639,7 +2347,7 @@
     <t>xuất ra file excel</t>
   </si>
   <si>
-    <t>32.1</t>
+    <t>42.1</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách phiếu nhập và hóa đơn</t>
@@ -1652,7 +2360,7 @@
     <t>hiển thị danh sách phiếu nhập và danh sách hóa đơn</t>
   </si>
   <si>
-    <t>33.1</t>
+    <t>43.1</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi chọn ngày thống kê không hợp lệ</t>
@@ -1672,7 +2380,7 @@
     <t>hiện thông báo ngày thống kê không hợp lệ</t>
   </si>
   <si>
-    <t>33.2</t>
+    <t>43.2</t>
   </si>
   <si>
     <t>Kiểm tra thống kê khi dữ liệu hợp lệ</t>
@@ -1685,7 +2393,7 @@
     <t>hiển thị biểu đồ sau khi thống kê</t>
   </si>
   <si>
-    <t>34.1</t>
+    <t>44.1</t>
   </si>
   <si>
     <t>Kiểm tra in thống kê</t>
@@ -1705,15 +2413,15 @@
 thư mục: Documents</t>
   </si>
   <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm</t>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập tên sản phẩm</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên Kho
 2. Chọn chức năng kho ở màn hình chính
-3. Nhập mã sản phẩm vào ô tìm kiếm
+3. Nhập tên sản phẩm vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
@@ -1723,10 +2431,10 @@
     <t>hiển thị tất cả sản phẩm</t>
   </si>
   <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại</t>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập tên sản phẩm không tồn tại</t>
   </si>
   <si>
     <t>tìm kiếm: abc123</t>
@@ -1735,25 +2443,25 @@
     <t>hiện thông báo không tìm thấy sản phẩm</t>
   </si>
   <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng tên sản phẩm</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên kho
 2. Chọn chức năng kho ở màn hình chính
-3. Nhập mã sản phẩm vào ô tìm kiếm
+3. Nhập tên sản phẩm vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
-    <t>tìm kiếm: SP01</t>
-  </si>
-  <si>
-    <t>hiển thị sản phẩm với mã sản phẩm có chứa kí tự muốn tìm kiếm</t>
-  </si>
-  <si>
-    <t>36.1</t>
+    <t>tìm kiếm: cá</t>
+  </si>
+  <si>
+    <t>hiển thị sản phẩm với tên sản phẩm có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>46.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi không nhập tên loại hàng</t>
@@ -1769,7 +2477,7 @@
     <t>hiển thị tất cả loại hàng</t>
   </si>
   <si>
-    <t>36.2</t>
+    <t>46.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi nhập tên loại hàng không tồn tại</t>
@@ -1778,7 +2486,7 @@
     <t>hiện thông báo không tìm thấy loại hàng</t>
   </si>
   <si>
-    <t>36.3</t>
+    <t>46.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
@@ -1790,7 +2498,7 @@
     <t>hiển thị loại hàng với tên loại hàng có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>37.1</t>
+    <t>47.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi không nhập tên nhà cung cấp</t>
@@ -1806,7 +2514,7 @@
     <t>hiển thị tất cả nhà cung cấp</t>
   </si>
   <si>
-    <t>37.2</t>
+    <t>47.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập tên nhà cung cấp không tồn tại</t>
@@ -1815,7 +2523,7 @@
     <t>hiện thông báo không tìm thấy nhà cung cấp</t>
   </si>
   <si>
-    <t>37.3</t>
+    <t>47.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
@@ -1827,7 +2535,7 @@
     <t xml:space="preserve">hiển thị nhà cung cấp với tên nhà cung cấp có chứa kí tự muốn tìm kiếm </t>
   </si>
   <si>
-    <t>38.1</t>
+    <t>48.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi không nhập tên khách hàng</t>
@@ -1842,7 +2550,7 @@
     <t>hiển thị tất cả khách hàng</t>
   </si>
   <si>
-    <t>38.2</t>
+    <t>48.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi nhập tên khách hàng không tồn tại</t>
@@ -1851,7 +2559,7 @@
     <t>hiện thông báo không tìm thấy khách hàng</t>
   </si>
   <si>
-    <t>38.3</t>
+    <t>48.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
@@ -1863,7 +2571,7 @@
     <t>hiển thị khách hàng với tên khách hàng có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>39.1</t>
+    <t>49.1</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi không nhập tên nhân viên</t>
@@ -1878,7 +2586,7 @@
     <t>hiển thị tất cả nhân viên</t>
   </si>
   <si>
-    <t>39.2</t>
+    <t>49.2</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi nhập tên nhân viên không tồn tại</t>
@@ -1887,7 +2595,7 @@
     <t>hiện thông báo không tìm thấy nhân viên</t>
   </si>
   <si>
-    <t>39.3</t>
+    <t>49.3</t>
   </si>
   <si>
     <t>Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
@@ -1899,40 +2607,124 @@
     <t>hiển thị nhân viên với tên nhân viên có chứa kí tự muốn tìm kiếm</t>
   </si>
   <si>
-    <t>40.1</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên</t>
+    <t>50.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi không nhập tên nhân viên</t>
   </si>
   <si>
     <t>1. Đăng nhập tài khoản Admin
 2. Chọn chức năng tài khoản ở màn hình chính
-3. Nhập mã nhân viên vào ô tìm kiếm
+3. Nhập tên nhân viên vào ô tìm kiếm
 4. Nhấn tìm kiếm</t>
   </si>
   <si>
     <t>hiển thị tất cả tài khoản</t>
   </si>
   <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại</t>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập tên nhân viên không tồn tại</t>
   </si>
   <si>
     <t>hiện thông báo không tìm thấy tài khoản</t>
   </si>
   <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
-  </si>
-  <si>
-    <t>tìm kiếm: NV00</t>
-  </si>
-  <si>
-    <t>hiển thị tài khoản với mã nhân viên có chứa kí tự muốn tìm kiếm</t>
+    <t>50.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra tìm kiếm tài khoản khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>tìm kiếm: khôi</t>
+  </si>
+  <si>
+    <t>hiển thị tài khoản với tên nhân viên có chứa kí tự muốn tìm kiếm</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Admin
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: ADMIN
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của admin, hiển thị các chức năng admin có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền quản lý</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: TRUONGBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của quản lý, hiển thị các chức năng quản lý có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên bán hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Nhân viên bán hàng
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: XINHBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của nhân viên bán hàng, hiển thị các chức năng nhân viên bán hàng có thể truy cập</t>
+  </si>
+  <si>
+    <t>51.4</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên kho</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Nhân viên kho
+2. Chọn các chức năng có trên màn hình</t>
+  </si>
+  <si>
+    <t>tài khoản: NGUYENBHX
+mật khẩu: 123</t>
+  </si>
+  <si>
+    <t>hiển thị giao diện của nhân viên kho, hiển thị các chức năng nhân viên kho có thể truy cập</t>
+  </si>
+  <si>
+    <t>52.1</t>
+  </si>
+  <si>
+    <t>Kiểm tra hủy hóa đơn</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản Quản lý hoặc Nhân viên bán hàng
+2. Chọn chức năng hóa đơn trên màn hình chính
+3. Thêm hóa đơn
+4. Thêm chi tiết hóa đơn
+5. Nhấn hủy</t>
+  </si>
+  <si>
+    <t>hủy hóa đơn và không lưu vào cơ sở dữ liệu</t>
   </si>
   <si>
     <r>
@@ -2016,15 +2808,40 @@
     <t>TS5</t>
   </si>
   <si>
+    <t>Kiểm tra chức năng sửa nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa nhân viên khi để trống họ tên
+2. Kiểm tra sửa nhân viên khi họ tên không đúng định dạng
+3. Kiểm tra sửa nhân viên khi không chọn ngày sinh
+4. Kiểm tra sửa nhân viên khi tuổi không đủ 18
+5. Kiểm tra sửa nhân viên khi không chọn giới tính
+6. Kiểm tra sửa nhân viên khi để trống căn cước công dân
+7. Kiểm tra sửa nhân viên khi căn cước công dân không đủ 12 số
+8. Kiểm tra sửa nhân viên khi để trống số điện thoại
+9. Kiểm tra sửa nhân viên khi số điện thoại không phải số
+10. Kiểm tra sửa nhân viên khi số điện thoại không đúng định dạng
+11. Kiểm tra sửa nhân viên khi không chọn ngày vào làm
+12. Kiểm tra sửa nhân viên khi chọn chức vụ Admin với quyền quản lý
+13. Kiểm tra sửa nhân viên khi chọn chức vụ Quản lý với quyền quản lý
+14. Kiểm tra sửa nhân viên khi sửa chính mình
+15. Kiểm tra sửa nhân viên khi để trống địa chỉ
+16. Kiểm tra sửa nhân viên khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS6</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng cho nghỉ nhân viên</t>
   </si>
   <si>
     <t>1. Kiểm tra cho nghỉ nhân viên có chức vụ Admin với quyền quản lý
-2. Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý 
-3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn quyền quản lý</t>
-  </si>
-  <si>
-    <t>TS6</t>
+2. Kiểm tra cho nghỉ nhân viên có chức vụ Quản lý với quyền quản lý
+3. Kiểm tra cho nghỉ nhân viên có chức vụ thấp hơn
+4. Kiểm tra cho nghỉ nhân viên khi cho nghỉ chính mình</t>
+  </si>
+  <si>
+    <t>TS7</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp nhân viên</t>
@@ -2034,7 +2851,7 @@
 2. Kiểm tra sắp xếp nhân viên theo mã nhân viên</t>
   </si>
   <si>
-    <t>TS7</t>
+    <t>TS8</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách tài khoản</t>
@@ -2043,22 +2860,36 @@
     <t>1. Kiểm tra hiển thị danh sách tài khoản</t>
   </si>
   <si>
-    <t>TS8</t>
+    <t>TS9</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm tài khoản</t>
   </si>
   <si>
-    <t>1. Kiểm tra thêm tài khoản khi tất cả nhân viên đều đã có tài khoản
-2. Kiểm tra thêm tài khoản khi để trống tên tài khoản 
-3. Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng
-4. Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại
-5. Kiểm tra thêm tài khoản khi để trống mật khẩu
-6. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
-7. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
-  </si>
-  <si>
-    <t>TS9</t>
+    <t>1. Kiểm tra sửa tài khoản khi tất cả nhân viên đều đã có tài khoản
+2. Kiểm tra sửa tài khoản khi để trống tên tài khoản 
+3. Kiểm tra sửa tài khoản khi tên khoản không đúng định dạng
+4. Kiểm tra sửa tài khoản khi tên tài khoản đã tồn tại
+5. Kiểm tra sửa tài khoản khi để trống mật khẩu
+6. Kiểm tra sửa tài khoản khi mật khẩu không đúng định dạng
+7. Kiểm tra sửa tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa tài khoản</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra thêm tài khoản khi để trống tên tài khoản 
+2. Kiểm tra thêm tài khoản khi tên khoản không đúng định dạng
+3. Kiểm tra thêm tài khoản khi tên tài khoản đã tồn tại
+4. Kiểm tra thêm tài khoản khi để trống mật khẩu
+5. Kiểm tra thêm tài khoản khi mật khẩu không đúng định dạng
+6. Kiểm tra thêm tài khoản khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS11</t>
   </si>
   <si>
     <t>Kiểm tra chức năng ẩn tài khoản</t>
@@ -2068,7 +2899,7 @@
 2. Kiểm tra ẩn tài khoản với nhân viên đã nghỉ</t>
   </si>
   <si>
-    <t>TS10</t>
+    <t>TS12</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp tài khoản</t>
@@ -2078,7 +2909,7 @@
 2. Kiểm tra sắp xếp tài khoản theo mã nhân viên</t>
   </si>
   <si>
-    <t>TS11</t>
+    <t>TS13</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách sản phẩm</t>
@@ -2087,7 +2918,27 @@
     <t>1. Kiểm tra hiển thị danh sách sản phẩm</t>
   </si>
   <si>
-    <t>TS12</t>
+    <t>TS14</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa tên sản phẩm khi tên sản phẩm trống
+2. Kiểm tra sửa tên sản phẩm khi tên sản phẩm đã tồn tại
+3. Kiểm tra sửa tên sản phẩm khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS15</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn sản phẩm</t>
+  </si>
+  <si>
+    <t>TS16</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra chức năng sắp xếp sản phẩm </t>
@@ -2097,7 +2948,7 @@
 2. Kiểm tra sắp xếp sản phẩm theo giá bán</t>
   </si>
   <si>
-    <t>TS13</t>
+    <t>TS17</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm sản phẩm theo loại hàng</t>
@@ -2106,7 +2957,7 @@
     <t>1. Kiểm tra tìm kiếm sản phẩm khi chọn loại hàng muốn tìm kiếm</t>
   </si>
   <si>
-    <t>TS14</t>
+    <t>TS18</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách loại hàng</t>
@@ -2115,7 +2966,7 @@
     <t>1. Kiểm tra hiển thị danh sách loại hàng</t>
   </si>
   <si>
-    <t>TS15</t>
+    <t>TS19</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm loại hàng</t>
@@ -2126,7 +2977,27 @@
 3. Kiểm tra thêm loại hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS16</t>
+    <t>TS20</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa loại hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa loại hàng khi để trống tên loại hàng
+2. Kiểm tra sửa loại hàng khi tên loại hàng đã tồn tại
+3. Kiểm tra sửa loại hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS21</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn loại hàng</t>
+  </si>
+  <si>
+    <t>TS22</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách nhà cung cấp</t>
@@ -2135,7 +3006,7 @@
     <t>1. Kiểm tra hiển thị danh sách nhà cung cấp</t>
   </si>
   <si>
-    <t>TS17</t>
+    <t>TS23</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm nhà cung cấp</t>
@@ -2150,7 +3021,31 @@
 7. Kiểm tra thêm nhà cung cấp khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS18</t>
+    <t>TS24</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa nhà cung cấp khi để trống tên nhà cung cấp
+2. Kiểm tra sửa nhà cung cấp khi tên nhà cung cấp đã tồn tại
+3. Kiểm tra sửa nhà cung cấp khi để trống địa chỉ
+4. Kiểm tra sửa nhà cung cấp khi để trống số điện thoại
+5. Kiểm tra sửa nhà cung cấp khi số điện thoại không phải số
+6. Kiểm tra sửa nhà cung cấp khi số điện thoại không đúng định dạng
+7. Kiểm tra sửa nhà cung cấp khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS25</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn nhà cung cấp</t>
+  </si>
+  <si>
+    <t>TS26</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách số lượng sản phẩm trong kho</t>
@@ -2159,7 +3054,7 @@
     <t>1. Kiểm tra hiển thị danh sách số lượng sản phẩm trong kho</t>
   </si>
   <si>
-    <t>TS19</t>
+    <t>TS27</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp sản phẩm trong  kho</t>
@@ -2169,7 +3064,7 @@
 2. Kiểm tra sắp xếp sản phẩm trong kho theo số lượng</t>
   </si>
   <si>
-    <t>TS20</t>
+    <t>TS28</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị danh sách khách hàng</t>
@@ -2178,7 +3073,7 @@
     <t>1. Kiểm tra hiển thị danh sách khách hàng</t>
   </si>
   <si>
-    <t>TS21</t>
+    <t>TS29</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm khách hàng</t>
@@ -2192,7 +3087,30 @@
 5. Kiểm tra thêm khách hàng khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS22</t>
+    <t>TS30</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng sửa khách hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra sửa khách hàng khi để trống họ tên
+2. Kiểm tra sửa khách hàng khi họ tên không đúng định dạng
+3. Kiểm tra sửa khách hàng khi để trống số điện thoại
+4. Kiểm tra sửa khách hàng khi số điện thoại không phải số
+4. Kiểm tra sửa khách hàng khi số điện thoại không đúng định dạng
+5. Kiểm tra sửa khách hàng khi dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>TS31</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra ẩn khách hàng</t>
+  </si>
+  <si>
+    <t>TS32</t>
   </si>
   <si>
     <t>Kiểm tra chức năng sắp xếp khách hàng</t>
@@ -2202,7 +3120,7 @@
 2. Kiểm tra sắp xếp khách hàng theo tên</t>
   </si>
   <si>
-    <t>TS23</t>
+    <t>TS33</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị phiếu nhập</t>
@@ -2211,7 +3129,7 @@
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập</t>
   </si>
   <si>
-    <t>TS24</t>
+    <t>TS34</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm phiếu nhập</t>
@@ -2220,7 +3138,7 @@
     <t>1. Kiểm tra thêm phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS25</t>
+    <t>TS35</t>
   </si>
   <si>
     <t>Kiểm tra chức năng hiển thị chi tiết phiếu nhập</t>
@@ -2229,7 +3147,7 @@
     <t>1. Kiểm tra hiển thị chi tiết phiếu nhập</t>
   </si>
   <si>
-    <t>TS26</t>
+    <t>TS36</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết phiếu nhập</t>
@@ -2250,7 +3168,7 @@
 13. Kiểm tra thêm chi tiết phiếu nhập khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS27</t>
+    <t>TS37</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm hóa đơn</t>
@@ -2262,7 +3180,7 @@
 4. Kiểm tra thêm hóa đơn khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS28</t>
+    <t>TS38</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thêm chi tiết hóa đơn</t>
@@ -2274,7 +3192,7 @@
 4. Kiểm tra thêm chi tiết hóa đơn khi số lượng hợp lệ</t>
   </si>
   <si>
-    <t>TS29</t>
+    <t>TS39</t>
   </si>
   <si>
     <t>Kiểm tra chức năng áp dụng giảm giá</t>
@@ -2283,7 +3201,7 @@
     <t>1. Kiểm tra áp dụng giảm giá</t>
   </si>
   <si>
-    <t>TS30</t>
+    <t>TS40</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thanh toán</t>
@@ -2295,7 +3213,7 @@
 4. Kiểm tra thanh toán khi tiền khách hợp lệ</t>
   </si>
   <si>
-    <t>TS31</t>
+    <t>TS41</t>
   </si>
   <si>
     <t>Kiểm tra chức năng xuất hóa đơn</t>
@@ -2304,13 +3222,13 @@
     <t>1. Kiểm tra xuất hóa đơn</t>
   </si>
   <si>
-    <t>TS32</t>
+    <t>TS42</t>
   </si>
   <si>
     <t>1. Kiểm tra hiển thị danh sách phiếu nhập và hóa đơn</t>
   </si>
   <si>
-    <t>TS33</t>
+    <t>TS43</t>
   </si>
   <si>
     <t>Kiểm tra chức năng thống kê</t>
@@ -2320,7 +3238,7 @@
 2. Kiểm tra thống kê khi dữ liệu hợp lệ</t>
   </si>
   <si>
-    <t>TS34</t>
+    <t>TS44</t>
   </si>
   <si>
     <t>Kiểm tra chức năng in thống kê</t>
@@ -2329,18 +3247,18 @@
     <t>1. Kiểm tra in thống kê</t>
   </si>
   <si>
-    <t>TS35</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo mã sản phẩm</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập mã sản phẩm
-2. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập mã sản phẩm không tồn tại
-3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng mã sản phẩm</t>
-  </si>
-  <si>
-    <t>TS36</t>
+    <t>TS45</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm sản phẩm trong kho theo tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm sản phẩm trong kho khi không nhập tên sản phẩm
+2. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập tên sản phẩm không tồn tại
+3. Kiểm tra tìm kiếm sản phẩm trong kho khi nhập đúng tên sản phẩm</t>
+  </si>
+  <si>
+    <t>TS46</t>
   </si>
   <si>
     <t>kiểm tra chức năng tìm kiếm loại hàng theo tên loại hàng</t>
@@ -2351,7 +3269,7 @@
 3. Kiểm tra tìm kiếm loại hàng khi nhập đúng tên loại hàng</t>
   </si>
   <si>
-    <t>TS37</t>
+    <t>TS47</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm nhà cung cấp theo tên nhà cung cấp</t>
@@ -2362,7 +3280,7 @@
 3. Kiểm tra tìm kiếm nhà cung cấp khi nhập đúng tên nhà cung cấp</t>
   </si>
   <si>
-    <t>TS38</t>
+    <t>TS48</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm khách hàng theo tên khách hàng</t>
@@ -2373,7 +3291,7 @@
 3. Kiểm tra tìm kiếm khách hàng khi nhập đúng tên khách hàng</t>
   </si>
   <si>
-    <t>TS39</t>
+    <t>TS49</t>
   </si>
   <si>
     <t>Kiểm tra chức năng tìm kiếm nhân viên theo tên nhân viên</t>
@@ -2384,15 +3302,36 @@
 3. Kiểm tra tìm kiếm nhân viên khi nhập đúng tên nhân viên</t>
   </si>
   <si>
-    <t>TS40</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng tìm kiếm tài khoản theo mã nhân viên</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra tìm kiếm tài khoản khi không nhập mã nhân viên
-2. Kiểm tra tìm kiếm tài khoản khi nhập mã nhân viên không tồn tại
-3. Kiểm tra tìm kiếm tài khoản khi nhập đúng mã nhân viên</t>
+    <t>TS50</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm tài khoản theo tên nhân viên</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra tìm kiếm tài khoản khi không nhập tên nhân viên
+2. Kiểm tra tìm kiếm tài khoản khi nhập tên nhân viên không tồn tại
+3. Kiểm tra tìm kiếm tài khoản khi nhập đúng tên nhân viên</t>
+  </si>
+  <si>
+    <t>TS51</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng hiển thị giao diện khi đăng nhập với các quyền</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra hiển thị giao diện khi đăng nhập với quyền admin
+2. Kiểm tra hiển thị giao diện khi đăng nhập với quyền quản lý
+3. Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên bán hàng
+4. Kiểm tra hiển thị giao diện khi đăng nhập với quyền nhân viên kho</t>
+  </si>
+  <si>
+    <t>TS52</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng hủy hóa đơn</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra hủy hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -3603,10 +4542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H121"/>
+  <dimension ref="B1:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3623,7 +4562,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15"/>
-    <row r="2" ht="14.55" spans="2:8">
+    <row r="2" ht="15.15" spans="2:8">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +5085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="100.8" spans="2:8">
+    <row r="25" ht="244.8" spans="2:8">
       <c r="B25" s="3" t="s">
         <v>96</v>
       </c>
@@ -4160,16 +5099,16 @@
         <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="100.8" spans="2:8">
+    <row r="26" ht="244.8" spans="2:8">
       <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
@@ -4183,16 +5122,16 @@
         <v>102</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="100.8" spans="2:8">
+    <row r="27" ht="244.8" spans="2:8">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -4206,234 +5145,240 @@
         <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="244.8" spans="2:8">
+      <c r="B28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="86.4" spans="2:8">
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="244.8" spans="2:8">
+      <c r="B29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="86.4" spans="2:8">
-      <c r="B29" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="244.8" spans="2:8">
+      <c r="B30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="244.8" spans="2:8">
+      <c r="B31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:8">
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="244.8" spans="2:8">
+      <c r="B32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" ht="115.2" spans="2:8">
-      <c r="B31" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="244.8" spans="2:8">
+      <c r="B33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="115.2" spans="2:8">
-      <c r="B32" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="244.8" spans="2:8">
+      <c r="B34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" ht="115.2" spans="2:8">
-      <c r="B33" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="244.8" spans="2:8">
+      <c r="B35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="244.8" spans="2:8">
+      <c r="B36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" ht="115.2" spans="2:8">
-      <c r="B34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="244.8" spans="2:8">
+      <c r="B37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="115.2" spans="2:8">
-      <c r="B35" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" ht="115.2" spans="2:8">
-      <c r="B36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" ht="115.2" spans="2:8">
-      <c r="B37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>12</v>
@@ -4441,628 +5386,634 @@
     </row>
     <row r="38" ht="100.8" spans="2:8">
       <c r="B38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="244.8" spans="2:8">
+      <c r="B39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="244.8" spans="2:8">
+      <c r="B40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="100.8" spans="2:8">
+      <c r="B41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" ht="100.8" spans="2:8">
-      <c r="B39" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="100.8" spans="2:8">
+      <c r="B42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="100.8" spans="2:8">
+      <c r="B43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="86.4" spans="2:8">
-      <c r="B40" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="100.8" spans="2:8">
+      <c r="B44" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="86.4" spans="2:8">
-      <c r="B41" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="86.4" spans="2:8">
+      <c r="B45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="86.4" spans="2:8">
-      <c r="B42" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="115.2" spans="2:8">
-      <c r="B43" s="3" t="s">
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="86.4" spans="2:8">
+      <c r="B46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="57.6" spans="2:8">
+      <c r="B47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="115.2" spans="2:8">
-      <c r="B44" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="115.2" spans="2:8">
+      <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="129.6" spans="2:8">
-      <c r="B45" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="115.2" spans="2:8">
+      <c r="B49" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="129.6" spans="2:8">
-      <c r="B46" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="115.2" spans="2:8">
+      <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="158.4" spans="2:8">
-      <c r="B47" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="115.2" spans="2:8">
+      <c r="B51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="158.4" spans="2:8">
-      <c r="B48" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="115.2" spans="2:8">
+      <c r="B52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="115.2" spans="2:8">
+      <c r="B53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="158.4" spans="2:8">
-      <c r="B49" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="115.2" spans="2:8">
+      <c r="B54" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="100.8" spans="2:8">
-      <c r="B50" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="144" spans="2:8">
+      <c r="B55" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="187.2" spans="2:8">
-      <c r="B51" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="144" spans="2:8">
+      <c r="B56" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="187.2" spans="2:8">
-      <c r="B52" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="F56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="144" spans="2:8">
+      <c r="B57" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="187.2" spans="2:8">
-      <c r="B53" s="3" t="s">
+      <c r="F57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="144" spans="2:8">
+      <c r="B58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="187.2" spans="2:8">
-      <c r="B54" s="3" t="s">
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="144" spans="2:8">
+      <c r="B59" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="187.2" spans="2:8">
-      <c r="B55" s="3" t="s">
+      <c r="F59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="144" spans="2:8">
+      <c r="B60" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="187.2" spans="2:8">
-      <c r="B56" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="100.8" spans="2:8">
+      <c r="B61" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="187.2" spans="2:8">
-      <c r="B57" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="100.8" spans="2:8">
+      <c r="B62" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="72" spans="2:8">
-      <c r="B58" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="86.4" spans="2:8">
+      <c r="B63" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="100.8" spans="2:8">
-      <c r="B59" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="86.4" spans="2:8">
+      <c r="B64" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="100.8" spans="2:8">
-      <c r="B60" s="3" t="s">
+      <c r="D64" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="G64" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="86.4" spans="2:8">
+      <c r="B65" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="86.4" spans="2:8">
-      <c r="B61" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="144" spans="2:8">
-      <c r="B62" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="144" spans="2:8">
-      <c r="B63" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="144" spans="2:8">
-      <c r="B64" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="144" spans="2:8">
-      <c r="B65" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>12</v>
@@ -5070,22 +6021,22 @@
     </row>
     <row r="66" ht="144" spans="2:8">
       <c r="B66" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G66" s="3" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -5093,88 +6044,91 @@
     </row>
     <row r="67" ht="144" spans="2:8">
       <c r="B67" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="144" spans="2:8">
+      <c r="B68" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="129.6" spans="2:8">
+      <c r="B69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="115.2" spans="2:8">
+      <c r="B70" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="115.2" spans="2:8">
-      <c r="B68" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="115.2" spans="2:8">
-      <c r="B69" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="72" spans="2:8">
-      <c r="B70" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="G70" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>12</v>
@@ -5182,686 +6136,677 @@
     </row>
     <row r="71" ht="115.2" spans="2:8">
       <c r="B71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="129.6" spans="2:8">
+      <c r="B72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="129.6" spans="2:8">
+      <c r="B73" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="G73" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="158.4" spans="2:8">
+      <c r="B74" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="100.8" spans="2:8">
-      <c r="B72" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="G74" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="158.4" spans="2:8">
+      <c r="B75" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="115.2" spans="2:8">
-      <c r="B73" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="158.4" spans="2:8">
+      <c r="B76" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" ht="216" spans="2:8">
-      <c r="B74" s="3" t="s">
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="187.2" spans="2:8">
+      <c r="B77" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="216" spans="2:8">
-      <c r="B75" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="216" spans="2:8">
-      <c r="B76" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" ht="216" spans="2:8">
-      <c r="B77" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" ht="216" spans="2:8">
+    <row r="78" ht="187.2" spans="2:8">
       <c r="B78" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="216" spans="2:8">
+    <row r="79" ht="187.2" spans="2:8">
       <c r="B79" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="158.4" spans="2:8">
+      <c r="B80" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="100.8" spans="2:8">
+      <c r="B81" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="187.2" spans="2:8">
+      <c r="B82" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="216" spans="2:8">
-      <c r="B80" s="3" t="s">
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="187.2" spans="2:8">
+      <c r="B83" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" ht="216" spans="2:8">
-      <c r="B81" s="3" t="s">
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="187.2" spans="2:8">
+      <c r="B84" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="187.2" spans="2:8">
+      <c r="B85" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="216" spans="2:8">
-      <c r="B82" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="F85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="187.2" spans="2:8">
+      <c r="B86" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="216" spans="2:8">
-      <c r="B83" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="F86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="187.2" spans="2:8">
+      <c r="B87" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="216" spans="2:8">
-      <c r="B84" s="3" t="s">
+      <c r="F87" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="187.2" spans="2:8">
+      <c r="B88" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="216" spans="2:8">
-      <c r="B85" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="216" spans="2:8">
+      <c r="B89" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="172.8" spans="2:8">
-      <c r="B86" s="3" t="s">
+      <c r="F89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="216" spans="2:8">
+      <c r="B90" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F90" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="216" spans="2:8">
+      <c r="B91" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="172.8" spans="2:8">
-      <c r="B87" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="F91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="216" spans="2:8">
+      <c r="B92" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="172.8" spans="2:8">
-      <c r="B88" s="3" t="s">
+      <c r="F92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="216" spans="2:8">
+      <c r="B93" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F93" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="216" spans="2:8">
+      <c r="B94" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" ht="172.8" spans="2:8">
-      <c r="B89" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="F94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="216" spans="2:8">
+      <c r="B95" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="201.6" spans="2:8">
-      <c r="B90" s="3" t="s">
+      <c r="D95" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="G95" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="144" spans="2:8">
+      <c r="B96" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="201.6" spans="2:8">
-      <c r="B91" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" ht="201.6" spans="2:8">
-      <c r="B92" s="3" t="s">
+      <c r="G96" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="72" spans="2:8">
+      <c r="B97" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" ht="201.6" spans="2:8">
-      <c r="B93" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="100.8" spans="2:8">
+      <c r="B98" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="144" spans="2:8">
-      <c r="B94" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="G98" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="100.8" spans="2:8">
+      <c r="B99" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="D99" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" ht="172.8" spans="2:8">
-      <c r="B95" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="86.4" spans="2:8">
+      <c r="B100" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="172.8" spans="2:8">
-      <c r="B96" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="172.8" spans="2:8">
-      <c r="B97" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" ht="172.8" spans="2:8">
-      <c r="B98" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="187.2" spans="2:8">
-      <c r="B99" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="72" spans="2:8">
-      <c r="B100" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="G100" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>12</v>
@@ -5869,22 +6814,22 @@
     </row>
     <row r="101" ht="144" spans="2:8">
       <c r="B101" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>12</v>
@@ -5892,275 +6837,275 @@
     </row>
     <row r="102" ht="144" spans="2:8">
       <c r="B102" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="144" spans="2:8">
+      <c r="B103" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="144" spans="2:8">
+      <c r="B104" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="144" spans="2:8">
+      <c r="B105" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="144" spans="2:8">
+      <c r="B106" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="172.8" spans="2:8">
+      <c r="B107" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="172.8" spans="2:8">
+      <c r="B108" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="172.8" spans="2:8">
+      <c r="B109" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D109" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="172.8" spans="2:8">
+      <c r="B110" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" ht="187.2" spans="2:8">
-      <c r="B103" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D110" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="F110" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="172.8" spans="2:8">
+      <c r="B111" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" ht="115.2" spans="2:8">
-      <c r="B104" s="3" t="s">
+      <c r="D111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="F111" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="172.8" spans="2:8">
+      <c r="B112" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="D112" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" ht="115.2" spans="2:8">
-      <c r="B105" s="3" t="s">
+      <c r="H112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="129.6" spans="2:8">
+      <c r="B113" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="115.2" spans="2:8">
-      <c r="B106" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" ht="158.4" spans="2:8">
-      <c r="B107" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="158.4" spans="2:8">
-      <c r="B108" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" ht="158.4" spans="2:8">
-      <c r="B109" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" ht="144" spans="2:8">
-      <c r="B110" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" ht="144" spans="2:8">
-      <c r="B111" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" ht="144" spans="2:8">
-      <c r="B112" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" ht="115.2" spans="2:8">
-      <c r="B113" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="G113" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>12</v>
@@ -6168,22 +7113,22 @@
     </row>
     <row r="114" ht="115.2" spans="2:8">
       <c r="B114" s="3" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>12</v>
@@ -6191,68 +7136,65 @@
     </row>
     <row r="115" ht="115.2" spans="2:8">
       <c r="B115" s="3" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" ht="100.8" spans="2:8">
+    <row r="116" ht="72" spans="2:8">
       <c r="B116" s="3" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" ht="100.8" spans="2:8">
+    <row r="117" ht="115.2" spans="2:8">
       <c r="B117" s="3" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>12</v>
@@ -6260,93 +7202,1260 @@
     </row>
     <row r="118" ht="100.8" spans="2:8">
       <c r="B118" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="115.2" spans="2:8">
+      <c r="B119" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="216" spans="2:8">
+      <c r="B120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="216" spans="2:8">
+      <c r="B121" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="216" spans="2:8">
+      <c r="B122" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="216" spans="2:8">
+      <c r="B123" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="216" spans="2:8">
+      <c r="B124" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G124" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="216" spans="2:8">
+      <c r="B125" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" ht="100.8" spans="2:8">
-      <c r="B119" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="G125" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="216" spans="2:8">
+      <c r="B126" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" ht="100.8" spans="2:8">
-      <c r="B120" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" ht="100.8" spans="2:8">
-      <c r="B121" s="3" t="s">
+      <c r="H126" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="216" spans="2:8">
+      <c r="B127" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="D127" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H127" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="216" spans="2:8">
+      <c r="B128" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="216" spans="2:8">
+      <c r="B129" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="216" spans="2:8">
+      <c r="B130" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="216" spans="2:8">
+      <c r="B131" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="172.8" spans="2:8">
+      <c r="B132" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="172.8" spans="2:8">
+      <c r="B133" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="172.8" spans="2:8">
+      <c r="B134" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="172.8" spans="2:8">
+      <c r="B135" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="201.6" spans="2:8">
+      <c r="B136" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="201.6" spans="2:8">
+      <c r="B137" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="201.6" spans="2:8">
+      <c r="B138" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="201.6" spans="2:8">
+      <c r="B139" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="144" spans="2:8">
+      <c r="B140" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="172.8" spans="2:8">
+      <c r="B141" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="172.8" spans="2:8">
+      <c r="B142" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="172.8" spans="2:8">
+      <c r="B143" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="172.8" spans="2:8">
+      <c r="B144" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="187.2" spans="2:8">
+      <c r="B145" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="72" spans="2:8">
+      <c r="B146" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" ht="144" spans="2:8">
+      <c r="B147" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" ht="144" spans="2:8">
+      <c r="B148" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" ht="187.2" spans="2:8">
+      <c r="B149" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" ht="115.2" spans="2:8">
+      <c r="B150" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="115.2" spans="2:8">
+      <c r="B151" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" ht="115.2" spans="2:8">
+      <c r="B152" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" ht="158.4" spans="2:8">
+      <c r="B153" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" ht="158.4" spans="2:8">
+      <c r="B154" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" ht="158.4" spans="2:8">
+      <c r="B155" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" ht="144" spans="2:8">
+      <c r="B156" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" ht="144" spans="2:8">
+      <c r="B157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" ht="144" spans="2:8">
+      <c r="B158" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" ht="115.2" spans="2:8">
+      <c r="B159" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" ht="115.2" spans="2:8">
+      <c r="B160" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" ht="115.2" spans="2:8">
+      <c r="B161" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" ht="100.8" spans="2:8">
+      <c r="B162" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" ht="100.8" spans="2:8">
+      <c r="B163" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" ht="100.8" spans="2:8">
+      <c r="B164" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" ht="100.8" spans="2:8">
+      <c r="B165" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" ht="100.8" spans="2:8">
+      <c r="B166" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" ht="100.8" spans="2:8">
+      <c r="B167" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" ht="57.6" spans="2:8">
+      <c r="B168" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" ht="57.6" spans="2:8">
+      <c r="B169" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" ht="57.6" spans="2:8">
+      <c r="B170" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" ht="57.6" spans="2:8">
+      <c r="B171" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" ht="115.2" spans="2:8">
+      <c r="B172" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H172" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6359,13 +8468,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D42"/>
+  <dimension ref="B1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="5.55555555555556" customWidth="1"/>
     <col min="3" max="3" width="61.8888888888889" customWidth="1"/>
@@ -6378,450 +8487,583 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>671</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>487</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:4">
       <c r="B3" t="s">
-        <v>488</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
-        <v>489</v>
+        <v>674</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>490</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>491</v>
+        <v>676</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>677</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>494</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" ht="216" spans="2:4">
       <c r="B6" t="s">
-        <v>497</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>498</v>
+        <v>683</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="2:4">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" ht="230.4" spans="2:4">
       <c r="B7" t="s">
-        <v>500</v>
+        <v>685</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>686</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="2:4">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="2:4">
       <c r="B8" t="s">
-        <v>503</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>689</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="2:4">
       <c r="B9" t="s">
-        <v>506</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" ht="100.8" spans="2:4">
+        <v>692</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>509</v>
+        <v>694</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="2:4">
+        <v>695</v>
+      </c>
+      <c r="D10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="2:4">
       <c r="B11" t="s">
-        <v>512</v>
+        <v>697</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>698</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="2:4">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" ht="86.4" spans="2:6">
       <c r="B12" t="s">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>701</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>702</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="28.8" spans="2:4">
       <c r="B13" t="s">
-        <v>518</v>
+        <v>703</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" t="s">
-        <v>520</v>
+        <v>704</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="2:4">
       <c r="B14" t="s">
-        <v>521</v>
+        <v>706</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>707</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>523</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>524</v>
+        <v>709</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>710</v>
       </c>
       <c r="D15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="2:4">
       <c r="B16" t="s">
-        <v>527</v>
+        <v>712</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
-      </c>
-      <c r="D16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" ht="43.2" spans="2:4">
+        <v>713</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>530</v>
+        <v>715</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>716</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="2:4">
       <c r="B18" t="s">
-        <v>533</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
-      </c>
-      <c r="D18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="19" ht="100.8" spans="2:4">
+        <v>719</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>536</v>
+        <v>721</v>
       </c>
       <c r="C19" t="s">
-        <v>537</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>538</v>
+        <v>722</v>
+      </c>
+      <c r="D19" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>539</v>
+        <v>724</v>
       </c>
       <c r="C20" t="s">
-        <v>540</v>
+        <v>725</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" spans="2:4">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="2:4">
       <c r="B21" t="s">
-        <v>542</v>
+        <v>727</v>
       </c>
       <c r="C21" t="s">
-        <v>543</v>
+        <v>728</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="2:4">
       <c r="B22" t="s">
-        <v>545</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>546</v>
-      </c>
-      <c r="D22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" ht="86.4" spans="2:4">
+        <v>731</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>548</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="2:4">
+        <v>734</v>
+      </c>
+      <c r="D23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>551</v>
+        <v>736</v>
       </c>
       <c r="C24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>737</v>
+      </c>
+      <c r="D24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" ht="100.8" spans="2:4">
       <c r="B25" t="s">
-        <v>554</v>
+        <v>739</v>
       </c>
       <c r="C25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>740</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="2:4">
       <c r="B26" t="s">
-        <v>557</v>
+        <v>742</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" t="s">
-        <v>559</v>
+        <v>743</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>560</v>
+        <v>745</v>
       </c>
       <c r="C27" t="s">
-        <v>561</v>
+        <v>746</v>
       </c>
       <c r="D27" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="28" ht="187.2" spans="2:4">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>563</v>
+        <v>748</v>
       </c>
       <c r="C28" t="s">
-        <v>564</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" ht="57.6" spans="2:4">
+        <v>749</v>
+      </c>
+      <c r="D28" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="2:4">
       <c r="B29" t="s">
-        <v>566</v>
+        <v>751</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>752</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" ht="57.6" spans="2:4">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>569</v>
+        <v>754</v>
       </c>
       <c r="C30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>755</v>
+      </c>
+      <c r="D30" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" ht="86.4" spans="2:4">
       <c r="B31" t="s">
-        <v>572</v>
+        <v>757</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
-      </c>
-      <c r="D31" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" ht="57.6" spans="2:4">
+        <v>758</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="32" ht="86.4" spans="2:4">
       <c r="B32" t="s">
-        <v>575</v>
+        <v>760</v>
       </c>
       <c r="C32" t="s">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>577</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
       <c r="C33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>764</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="2:4">
       <c r="B34" t="s">
-        <v>581</v>
+        <v>766</v>
       </c>
       <c r="C34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="2:4">
+        <v>767</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>583</v>
+        <v>769</v>
       </c>
       <c r="C35" t="s">
-        <v>584</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>585</v>
+        <v>770</v>
+      </c>
+      <c r="D35" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>586</v>
+        <v>772</v>
       </c>
       <c r="C36" t="s">
-        <v>587</v>
+        <v>773</v>
       </c>
       <c r="D36" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="37" ht="43.2" spans="2:4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>589</v>
+        <v>775</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="38" ht="43.2" spans="2:4">
+        <v>776</v>
+      </c>
+      <c r="D37" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" ht="187.2" spans="2:4">
       <c r="B38" t="s">
-        <v>592</v>
+        <v>778</v>
       </c>
       <c r="C38" t="s">
-        <v>593</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="39" ht="43.2" spans="2:4">
+        <v>779</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" ht="57.6" spans="2:4">
       <c r="B39" t="s">
-        <v>595</v>
+        <v>781</v>
       </c>
       <c r="C39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" ht="43.2" spans="2:4">
+        <v>782</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="40" ht="57.6" spans="2:4">
       <c r="B40" t="s">
-        <v>598</v>
+        <v>784</v>
       </c>
       <c r="C40" t="s">
-        <v>599</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" ht="43.2" spans="2:4">
+        <v>785</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>601</v>
+        <v>787</v>
       </c>
       <c r="C41" t="s">
-        <v>602</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="42" ht="43.2" spans="2:4">
+        <v>788</v>
+      </c>
+      <c r="D41" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" ht="57.6" spans="2:4">
       <c r="B42" t="s">
-        <v>604</v>
+        <v>790</v>
       </c>
       <c r="C42" t="s">
-        <v>605</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>606</v>
+        <v>791</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>793</v>
+      </c>
+      <c r="C43" t="s">
+        <v>794</v>
+      </c>
+      <c r="D43" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>796</v>
+      </c>
+      <c r="C44" t="s">
+        <v>562</v>
+      </c>
+      <c r="D44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="2:4">
+      <c r="B45" t="s">
+        <v>798</v>
+      </c>
+      <c r="C45" t="s">
+        <v>799</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C46" t="s">
+        <v>802</v>
+      </c>
+      <c r="D46" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="47" ht="43.2" spans="2:4">
+      <c r="B47" t="s">
+        <v>804</v>
+      </c>
+      <c r="C47" t="s">
+        <v>805</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" ht="43.2" spans="2:4">
+      <c r="B48" t="s">
+        <v>807</v>
+      </c>
+      <c r="C48" t="s">
+        <v>808</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="2:4">
+      <c r="B49" t="s">
+        <v>810</v>
+      </c>
+      <c r="C49" t="s">
+        <v>811</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="50" ht="43.2" spans="2:4">
+      <c r="B50" t="s">
+        <v>813</v>
+      </c>
+      <c r="C50" t="s">
+        <v>814</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="51" ht="43.2" spans="2:4">
+      <c r="B51" t="s">
+        <v>816</v>
+      </c>
+      <c r="C51" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" spans="2:4">
+      <c r="B52" t="s">
+        <v>819</v>
+      </c>
+      <c r="C52" t="s">
+        <v>820</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="53" ht="57.6" spans="2:4">
+      <c r="B53" t="s">
+        <v>822</v>
+      </c>
+      <c r="C53" t="s">
+        <v>823</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>825</v>
+      </c>
+      <c r="C54" t="s">
+        <v>826</v>
+      </c>
+      <c r="D54" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
